--- a/data/data_month.xlsx
+++ b/data/data_month.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\DNS\balance_of_payments_model\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\DNS\balance_of_payments_model\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{327DC241-E36D-498F-9573-62641DBE8416}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{375B2C49-F700-4ABA-B083-60552EB24E09}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{6C71ADC8-FB5B-46E8-B9BB-33CF015882A6}"/>
   </bookViews>
@@ -613,8 +613,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BFE8DC5-3CF9-4EEA-A486-440F262052B0}">
   <dimension ref="A1:BL169"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L12" sqref="L12"/>
+    <sheetView tabSelected="1" topLeftCell="S122" workbookViewId="0">
+      <selection activeCell="Z132" sqref="Z132"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -881,6 +881,9 @@
       <c r="U2">
         <v>0</v>
       </c>
+      <c r="Y2">
+        <v>0</v>
+      </c>
       <c r="Z2">
         <v>2</v>
       </c>
@@ -1041,6 +1044,9 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
+      <c r="Y3">
+        <v>0</v>
+      </c>
       <c r="Z3">
         <v>2</v>
       </c>
@@ -1201,6 +1207,9 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
+      <c r="Y4">
+        <v>0</v>
+      </c>
       <c r="Z4">
         <v>2</v>
       </c>
@@ -1361,6 +1370,9 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
+      <c r="Y5">
+        <v>0</v>
+      </c>
       <c r="Z5">
         <v>2</v>
       </c>
@@ -1521,6 +1533,9 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
+      <c r="Y6">
+        <v>0</v>
+      </c>
       <c r="Z6">
         <v>2</v>
       </c>
@@ -1681,6 +1696,9 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
+      <c r="Y7">
+        <v>0</v>
+      </c>
       <c r="Z7">
         <v>2</v>
       </c>
@@ -1841,6 +1859,9 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
+      <c r="Y8">
+        <v>0</v>
+      </c>
       <c r="Z8">
         <v>2</v>
       </c>
@@ -2001,6 +2022,9 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
+      <c r="Y9">
+        <v>0</v>
+      </c>
       <c r="Z9">
         <v>2</v>
       </c>
@@ -2161,6 +2185,9 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
+      <c r="Y10">
+        <v>0</v>
+      </c>
       <c r="Z10">
         <v>2</v>
       </c>
@@ -2321,6 +2348,9 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
+      <c r="Y11">
+        <v>0</v>
+      </c>
       <c r="Z11">
         <v>2</v>
       </c>
@@ -2481,6 +2511,9 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
+      <c r="Y12">
+        <v>0</v>
+      </c>
       <c r="Z12">
         <v>2</v>
       </c>
@@ -2641,6 +2674,9 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
+      <c r="Y13">
+        <v>0</v>
+      </c>
       <c r="Z13">
         <v>2</v>
       </c>
@@ -2802,6 +2838,9 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
+      <c r="Y14">
+        <v>0</v>
+      </c>
       <c r="Z14">
         <v>2</v>
       </c>
@@ -2963,6 +3002,9 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
+      <c r="Y15">
+        <v>0</v>
+      </c>
       <c r="Z15">
         <v>2</v>
       </c>
@@ -3124,6 +3166,9 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
+      <c r="Y16">
+        <v>0</v>
+      </c>
       <c r="Z16">
         <v>2</v>
       </c>
@@ -3285,6 +3330,9 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
+      <c r="Y17">
+        <v>0</v>
+      </c>
       <c r="Z17">
         <v>2</v>
       </c>
@@ -3446,6 +3494,9 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
+      <c r="Y18">
+        <v>0</v>
+      </c>
       <c r="Z18">
         <v>2</v>
       </c>
@@ -3607,6 +3658,9 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
+      <c r="Y19">
+        <v>0</v>
+      </c>
       <c r="Z19">
         <v>2</v>
       </c>
@@ -3768,6 +3822,9 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
+      <c r="Y20">
+        <v>0</v>
+      </c>
       <c r="Z20">
         <v>2</v>
       </c>
@@ -3929,6 +3986,9 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
+      <c r="Y21">
+        <v>0</v>
+      </c>
       <c r="Z21">
         <v>2</v>
       </c>
@@ -4090,6 +4150,9 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
+      <c r="Y22">
+        <v>0</v>
+      </c>
       <c r="Z22">
         <v>2</v>
       </c>
@@ -4251,6 +4314,9 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
+      <c r="Y23">
+        <v>0</v>
+      </c>
       <c r="Z23">
         <v>2</v>
       </c>
@@ -4412,6 +4478,9 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
+      <c r="Y24">
+        <v>0</v>
+      </c>
       <c r="Z24">
         <v>2</v>
       </c>
@@ -4573,6 +4642,9 @@
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
+      <c r="Y25">
+        <v>0</v>
+      </c>
       <c r="Z25">
         <v>2</v>
       </c>
@@ -4734,6 +4806,9 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
+      <c r="Y26">
+        <v>0</v>
+      </c>
       <c r="Z26">
         <v>2</v>
       </c>
@@ -4895,6 +4970,9 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
+      <c r="Y27">
+        <v>0</v>
+      </c>
       <c r="Z27">
         <v>2</v>
       </c>
@@ -5056,6 +5134,9 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
+      <c r="Y28">
+        <v>0</v>
+      </c>
       <c r="Z28">
         <v>2</v>
       </c>
@@ -5217,6 +5298,9 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
+      <c r="Y29">
+        <v>0</v>
+      </c>
       <c r="Z29">
         <v>2</v>
       </c>
@@ -5378,6 +5462,9 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
+      <c r="Y30">
+        <v>0</v>
+      </c>
       <c r="Z30">
         <v>2</v>
       </c>
@@ -5539,6 +5626,9 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
+      <c r="Y31">
+        <v>0</v>
+      </c>
       <c r="Z31">
         <v>2</v>
       </c>
@@ -5700,6 +5790,9 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
+      <c r="Y32">
+        <v>0</v>
+      </c>
       <c r="Z32">
         <v>2</v>
       </c>
@@ -5861,6 +5954,9 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
+      <c r="Y33">
+        <v>0</v>
+      </c>
       <c r="Z33">
         <v>2</v>
       </c>
@@ -6022,6 +6118,9 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
+      <c r="Y34">
+        <v>0</v>
+      </c>
       <c r="Z34">
         <v>2</v>
       </c>
@@ -6183,6 +6282,9 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
+      <c r="Y35">
+        <v>0</v>
+      </c>
       <c r="Z35">
         <v>2</v>
       </c>
@@ -6344,6 +6446,9 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
+      <c r="Y36">
+        <v>0</v>
+      </c>
       <c r="Z36">
         <v>2</v>
       </c>
@@ -6505,6 +6610,9 @@
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
+      <c r="Y37">
+        <v>0</v>
+      </c>
       <c r="Z37">
         <v>2</v>
       </c>
@@ -6666,6 +6774,9 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
+      <c r="Y38">
+        <v>0</v>
+      </c>
       <c r="Z38">
         <v>2</v>
       </c>
@@ -6827,6 +6938,9 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
+      <c r="Y39">
+        <v>0</v>
+      </c>
       <c r="Z39">
         <v>2</v>
       </c>
@@ -6988,6 +7102,9 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
+      <c r="Y40">
+        <v>0</v>
+      </c>
       <c r="Z40">
         <v>2</v>
       </c>
@@ -7149,6 +7266,9 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
+      <c r="Y41">
+        <v>0</v>
+      </c>
       <c r="Z41">
         <v>2</v>
       </c>
@@ -7310,6 +7430,9 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
+      <c r="Y42">
+        <v>0</v>
+      </c>
       <c r="Z42">
         <v>2</v>
       </c>
@@ -7471,6 +7594,9 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
+      <c r="Y43">
+        <v>0</v>
+      </c>
       <c r="Z43">
         <v>2</v>
       </c>
@@ -7632,6 +7758,9 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
+      <c r="Y44">
+        <v>0</v>
+      </c>
       <c r="Z44">
         <v>3</v>
       </c>
@@ -7793,6 +7922,9 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
+      <c r="Y45">
+        <v>0</v>
+      </c>
       <c r="Z45">
         <v>3</v>
       </c>
@@ -7954,6 +8086,9 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
+      <c r="Y46">
+        <v>0</v>
+      </c>
       <c r="Z46">
         <v>3</v>
       </c>
@@ -8115,6 +8250,9 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
+      <c r="Y47">
+        <v>0</v>
+      </c>
       <c r="Z47">
         <v>3</v>
       </c>
@@ -8276,6 +8414,9 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
+      <c r="Y48">
+        <v>0</v>
+      </c>
       <c r="Z48">
         <v>3</v>
       </c>
@@ -8437,6 +8578,9 @@
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
+      <c r="Y49">
+        <v>0</v>
+      </c>
       <c r="Z49">
         <v>3</v>
       </c>
@@ -8598,6 +8742,9 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
+      <c r="Y50">
+        <v>0</v>
+      </c>
       <c r="Z50">
         <v>3</v>
       </c>
@@ -8759,6 +8906,9 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
+      <c r="Y51">
+        <v>0</v>
+      </c>
       <c r="Z51">
         <v>3</v>
       </c>
@@ -8920,6 +9070,9 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
+      <c r="Y52">
+        <v>0</v>
+      </c>
       <c r="Z52">
         <v>3</v>
       </c>
@@ -9081,6 +9234,9 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
+      <c r="Y53">
+        <v>0</v>
+      </c>
       <c r="Z53">
         <v>3</v>
       </c>
@@ -9242,6 +9398,9 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
+      <c r="Y54">
+        <v>0</v>
+      </c>
       <c r="Z54">
         <v>3</v>
       </c>
@@ -9403,6 +9562,9 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
+      <c r="Y55">
+        <v>0</v>
+      </c>
       <c r="Z55">
         <v>3</v>
       </c>
@@ -9564,6 +9726,9 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
+      <c r="Y56">
+        <v>0</v>
+      </c>
       <c r="Z56">
         <v>3</v>
       </c>
@@ -9725,6 +9890,9 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
+      <c r="Y57">
+        <v>0</v>
+      </c>
       <c r="Z57">
         <v>3</v>
       </c>
@@ -9886,6 +10054,9 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
+      <c r="Y58">
+        <v>0</v>
+      </c>
       <c r="Z58">
         <v>3</v>
       </c>
@@ -10047,6 +10218,9 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
+      <c r="Y59">
+        <v>0</v>
+      </c>
       <c r="Z59">
         <v>4</v>
       </c>
@@ -10208,6 +10382,9 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
+      <c r="Y60">
+        <v>0</v>
+      </c>
       <c r="Z60">
         <v>4</v>
       </c>
@@ -10369,6 +10546,9 @@
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
+      <c r="Y61">
+        <v>0</v>
+      </c>
       <c r="Z61">
         <v>4</v>
       </c>
@@ -10530,6 +10710,9 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
+      <c r="Y62">
+        <v>0</v>
+      </c>
       <c r="Z62">
         <v>4</v>
       </c>
@@ -10691,6 +10874,9 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
+      <c r="Y63">
+        <v>0</v>
+      </c>
       <c r="Z63">
         <v>4</v>
       </c>
@@ -10852,6 +11038,9 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
+      <c r="Y64">
+        <v>0</v>
+      </c>
       <c r="Z64">
         <v>5</v>
       </c>
@@ -11013,6 +11202,9 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
+      <c r="Y65">
+        <v>0</v>
+      </c>
       <c r="Z65">
         <v>5</v>
       </c>
@@ -11174,6 +11366,9 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
+      <c r="Y66">
+        <v>0</v>
+      </c>
       <c r="Z66">
         <v>5</v>
       </c>
@@ -11335,6 +11530,9 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
+      <c r="Y67">
+        <v>0</v>
+      </c>
       <c r="Z67">
         <v>5</v>
       </c>
@@ -11496,6 +11694,9 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
+      <c r="Y68">
+        <v>0</v>
+      </c>
       <c r="Z68">
         <v>5</v>
       </c>
@@ -11657,6 +11858,9 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
+      <c r="Y69">
+        <v>0</v>
+      </c>
       <c r="Z69">
         <v>5</v>
       </c>
@@ -11818,6 +12022,9 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
+      <c r="Y70">
+        <v>0</v>
+      </c>
       <c r="Z70">
         <v>5</v>
       </c>
@@ -11979,6 +12186,9 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
+      <c r="Y71">
+        <v>0</v>
+      </c>
       <c r="Z71">
         <v>5</v>
       </c>
@@ -12140,6 +12350,9 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
+      <c r="Y72">
+        <v>0</v>
+      </c>
       <c r="Z72">
         <v>5</v>
       </c>
@@ -12301,6 +12514,9 @@
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
+      <c r="Y73">
+        <v>0</v>
+      </c>
       <c r="Z73">
         <v>6</v>
       </c>
@@ -12471,6 +12687,9 @@
       <c r="X74">
         <v>-1.7</v>
       </c>
+      <c r="Y74">
+        <v>0</v>
+      </c>
       <c r="Z74">
         <v>6</v>
       </c>
@@ -12674,6 +12893,9 @@
       <c r="X75">
         <v>3.2</v>
       </c>
+      <c r="Y75">
+        <v>0</v>
+      </c>
       <c r="Z75">
         <v>6</v>
       </c>
@@ -12877,6 +13099,9 @@
       <c r="X76">
         <v>3.2</v>
       </c>
+      <c r="Y76">
+        <v>0</v>
+      </c>
       <c r="Z76">
         <v>6</v>
       </c>
@@ -13080,6 +13305,9 @@
       <c r="X77">
         <v>11.1</v>
       </c>
+      <c r="Y77">
+        <v>0</v>
+      </c>
       <c r="Z77">
         <v>6</v>
       </c>
@@ -13283,6 +13511,9 @@
       <c r="X78">
         <v>2.9</v>
       </c>
+      <c r="Y78">
+        <v>0</v>
+      </c>
       <c r="Z78">
         <v>6</v>
       </c>
@@ -13486,6 +13717,9 @@
       <c r="X79">
         <v>1</v>
       </c>
+      <c r="Y79">
+        <v>0</v>
+      </c>
       <c r="Z79">
         <v>6</v>
       </c>
@@ -13689,6 +13923,9 @@
       <c r="X80">
         <v>-1</v>
       </c>
+      <c r="Y80">
+        <v>0</v>
+      </c>
       <c r="Z80">
         <v>7</v>
       </c>
@@ -13892,6 +14129,9 @@
       <c r="X81">
         <v>2.4</v>
       </c>
+      <c r="Y81">
+        <v>0</v>
+      </c>
       <c r="Z81">
         <v>7</v>
       </c>
@@ -14095,6 +14335,9 @@
       <c r="X82">
         <v>0.1</v>
       </c>
+      <c r="Y82">
+        <v>0</v>
+      </c>
       <c r="Z82">
         <v>7</v>
       </c>
@@ -14298,6 +14541,9 @@
       <c r="X83">
         <v>1.3</v>
       </c>
+      <c r="Y83">
+        <v>0</v>
+      </c>
       <c r="Z83">
         <v>7</v>
       </c>
@@ -14501,6 +14747,9 @@
       <c r="X84">
         <v>3.1</v>
       </c>
+      <c r="Y84">
+        <v>0</v>
+      </c>
       <c r="Z84">
         <v>7</v>
       </c>
@@ -14704,6 +14953,9 @@
       <c r="X85">
         <v>4.5999999999999996</v>
       </c>
+      <c r="Y85">
+        <v>0</v>
+      </c>
       <c r="Z85">
         <v>7</v>
       </c>
@@ -14907,6 +15159,9 @@
       <c r="X86">
         <v>-5.4</v>
       </c>
+      <c r="Y86">
+        <v>0</v>
+      </c>
       <c r="Z86">
         <v>7</v>
       </c>
@@ -15110,6 +15365,9 @@
       <c r="X87">
         <v>5.0999999999999996</v>
       </c>
+      <c r="Y87">
+        <v>0</v>
+      </c>
       <c r="Z87">
         <v>7</v>
       </c>
@@ -15313,6 +15571,9 @@
       <c r="X88">
         <v>5.3</v>
       </c>
+      <c r="Y88">
+        <v>0</v>
+      </c>
       <c r="Z88">
         <v>7</v>
       </c>
@@ -15516,6 +15777,9 @@
       <c r="X89">
         <v>2.2999999999999998</v>
       </c>
+      <c r="Y89">
+        <v>0</v>
+      </c>
       <c r="Z89">
         <v>7</v>
       </c>
@@ -15719,6 +15983,9 @@
       <c r="X90">
         <v>-1.7</v>
       </c>
+      <c r="Y90">
+        <v>0</v>
+      </c>
       <c r="Z90">
         <v>7</v>
       </c>
@@ -15922,6 +16189,9 @@
       <c r="X91">
         <v>-5.0999999999999996</v>
       </c>
+      <c r="Y91">
+        <v>0</v>
+      </c>
       <c r="Z91">
         <v>7</v>
       </c>
@@ -16125,6 +16395,9 @@
       <c r="X92">
         <v>-10.1</v>
       </c>
+      <c r="Y92">
+        <v>0</v>
+      </c>
       <c r="Z92">
         <v>7</v>
       </c>
@@ -16328,6 +16601,9 @@
       <c r="X93">
         <v>-2.6</v>
       </c>
+      <c r="Y93">
+        <v>0</v>
+      </c>
       <c r="Z93">
         <v>7</v>
       </c>
@@ -16531,6 +16807,9 @@
       <c r="X94">
         <v>5.3</v>
       </c>
+      <c r="Y94">
+        <v>0</v>
+      </c>
       <c r="Z94">
         <v>7</v>
       </c>
@@ -16734,6 +17013,9 @@
       <c r="X95">
         <v>-3.1</v>
       </c>
+      <c r="Y95">
+        <v>0</v>
+      </c>
       <c r="Z95">
         <v>7</v>
       </c>
@@ -16937,6 +17219,9 @@
       <c r="X96">
         <v>-4.9000000000000004</v>
       </c>
+      <c r="Y96">
+        <v>0</v>
+      </c>
       <c r="Z96">
         <v>7</v>
       </c>
@@ -17140,6 +17425,9 @@
       <c r="X97">
         <v>-7.2</v>
       </c>
+      <c r="Y97">
+        <v>0</v>
+      </c>
       <c r="Z97">
         <v>7</v>
       </c>
@@ -17336,6 +17624,9 @@
       <c r="X98">
         <v>-8.1</v>
       </c>
+      <c r="Y98">
+        <v>0</v>
+      </c>
       <c r="Z98">
         <v>7</v>
       </c>
@@ -17509,6 +17800,9 @@
       <c r="X99">
         <v>-6.6</v>
       </c>
+      <c r="Y99">
+        <v>0</v>
+      </c>
       <c r="Z99">
         <v>7</v>
       </c>
@@ -17682,6 +17976,9 @@
       <c r="X100">
         <v>-12.7</v>
       </c>
+      <c r="Y100">
+        <v>0</v>
+      </c>
       <c r="Z100">
         <v>7</v>
       </c>
@@ -17855,6 +18152,9 @@
       <c r="X101">
         <v>-15.7</v>
       </c>
+      <c r="Y101">
+        <v>0</v>
+      </c>
       <c r="Z101">
         <v>7</v>
       </c>
@@ -18028,6 +18328,9 @@
       <c r="X102">
         <v>-2.4</v>
       </c>
+      <c r="Y102">
+        <v>0</v>
+      </c>
       <c r="Z102">
         <v>7</v>
       </c>
@@ -18201,6 +18504,9 @@
       <c r="X103">
         <v>7.7</v>
       </c>
+      <c r="Y103">
+        <v>0</v>
+      </c>
       <c r="Z103">
         <v>7</v>
       </c>
@@ -18374,6 +18680,9 @@
       <c r="X104">
         <v>-4.8</v>
       </c>
+      <c r="Y104">
+        <v>0</v>
+      </c>
       <c r="Z104">
         <v>7</v>
       </c>
@@ -18547,6 +18856,9 @@
       <c r="X105">
         <v>1.6</v>
       </c>
+      <c r="Y105">
+        <v>0</v>
+      </c>
       <c r="Z105">
         <v>7</v>
       </c>
@@ -18720,6 +19032,9 @@
       <c r="X106">
         <v>-2.5</v>
       </c>
+      <c r="Y106">
+        <v>0</v>
+      </c>
       <c r="Z106">
         <v>7</v>
       </c>
@@ -18893,6 +19208,9 @@
       <c r="X107">
         <v>-26.6</v>
       </c>
+      <c r="Y107">
+        <v>0</v>
+      </c>
       <c r="Z107">
         <v>9</v>
       </c>
@@ -19066,6 +19384,9 @@
       <c r="X108">
         <v>-6.4</v>
       </c>
+      <c r="Y108">
+        <v>0</v>
+      </c>
       <c r="Z108">
         <v>0</v>
       </c>
@@ -19239,6 +19560,9 @@
       <c r="X109">
         <v>-31.2</v>
       </c>
+      <c r="Y109">
+        <v>0</v>
+      </c>
       <c r="Z109">
         <v>0</v>
       </c>
@@ -19412,6 +19736,9 @@
       <c r="X110">
         <v>0.4</v>
       </c>
+      <c r="Y110">
+        <v>0</v>
+      </c>
       <c r="Z110">
         <v>0</v>
       </c>
@@ -19585,6 +19912,9 @@
       <c r="X111">
         <v>-11.7</v>
       </c>
+      <c r="Y111">
+        <v>0</v>
+      </c>
       <c r="Z111">
         <v>0</v>
       </c>
@@ -19758,6 +20088,9 @@
       <c r="X112">
         <v>1.3</v>
       </c>
+      <c r="Y112">
+        <v>0</v>
+      </c>
       <c r="Z112">
         <v>0</v>
       </c>
@@ -19931,6 +20264,9 @@
       <c r="X113">
         <v>-4.8</v>
       </c>
+      <c r="Y113">
+        <v>0</v>
+      </c>
       <c r="Z113">
         <v>0</v>
       </c>
@@ -20104,6 +20440,9 @@
       <c r="X114">
         <v>3.5</v>
       </c>
+      <c r="Y114">
+        <v>0</v>
+      </c>
       <c r="Z114">
         <v>0</v>
       </c>
@@ -20277,6 +20616,9 @@
       <c r="X115">
         <v>-0.8</v>
       </c>
+      <c r="Y115">
+        <v>0</v>
+      </c>
       <c r="Z115">
         <v>0</v>
       </c>
@@ -20450,6 +20792,9 @@
       <c r="X116">
         <v>2.2000000000000002</v>
       </c>
+      <c r="Y116">
+        <v>0</v>
+      </c>
       <c r="Z116">
         <v>0</v>
       </c>
@@ -20623,6 +20968,9 @@
       <c r="X117">
         <v>2.2999999999999998</v>
       </c>
+      <c r="Y117">
+        <v>0</v>
+      </c>
       <c r="Z117">
         <v>0</v>
       </c>
@@ -20796,6 +21144,9 @@
       <c r="X118">
         <v>5.2</v>
       </c>
+      <c r="Y118">
+        <v>0</v>
+      </c>
       <c r="Z118">
         <v>0</v>
       </c>
@@ -20969,6 +21320,9 @@
       <c r="X119">
         <v>0.9</v>
       </c>
+      <c r="Y119">
+        <v>0</v>
+      </c>
       <c r="Z119">
         <v>0</v>
       </c>
@@ -21142,6 +21496,9 @@
       <c r="X120">
         <v>4.0999999999999996</v>
       </c>
+      <c r="Y120">
+        <v>0</v>
+      </c>
       <c r="Z120">
         <v>0</v>
       </c>
@@ -21315,6 +21672,9 @@
       <c r="X121">
         <v>-0.7</v>
       </c>
+      <c r="Y121">
+        <v>0</v>
+      </c>
       <c r="Z121">
         <v>0</v>
       </c>
@@ -21488,6 +21848,9 @@
       <c r="X122">
         <v>0.9</v>
       </c>
+      <c r="Y122">
+        <v>0</v>
+      </c>
       <c r="Z122">
         <v>0</v>
       </c>
@@ -21661,6 +22024,9 @@
       <c r="X123">
         <v>0.5</v>
       </c>
+      <c r="Y123">
+        <v>0</v>
+      </c>
       <c r="Z123">
         <v>0</v>
       </c>
@@ -21834,6 +22200,9 @@
       <c r="X124">
         <v>1.3</v>
       </c>
+      <c r="Y124">
+        <v>0</v>
+      </c>
       <c r="Z124">
         <v>0</v>
       </c>
@@ -22007,6 +22376,9 @@
       <c r="X125">
         <v>2.8</v>
       </c>
+      <c r="Y125">
+        <v>0</v>
+      </c>
       <c r="Z125">
         <v>0</v>
       </c>
@@ -22180,6 +22552,9 @@
       <c r="X126">
         <v>2.9</v>
       </c>
+      <c r="Y126">
+        <v>0</v>
+      </c>
       <c r="Z126">
         <v>0</v>
       </c>
@@ -22353,6 +22728,9 @@
       <c r="X127">
         <v>-1.4</v>
       </c>
+      <c r="Y127">
+        <v>0</v>
+      </c>
       <c r="Z127">
         <v>0</v>
       </c>
@@ -22526,6 +22904,9 @@
       <c r="X128">
         <v>1.5</v>
       </c>
+      <c r="Y128">
+        <v>0</v>
+      </c>
       <c r="Z128">
         <v>0</v>
       </c>
@@ -22699,6 +23080,9 @@
       <c r="X129">
         <v>0.8</v>
       </c>
+      <c r="Y129">
+        <v>0</v>
+      </c>
       <c r="Z129">
         <v>0</v>
       </c>
@@ -22872,6 +23256,9 @@
       <c r="X130">
         <v>0.9</v>
       </c>
+      <c r="Y130">
+        <v>0</v>
+      </c>
       <c r="Z130">
         <v>0</v>
       </c>
@@ -23045,6 +23432,9 @@
       <c r="X131">
         <v>4.5999999999999996</v>
       </c>
+      <c r="Y131">
+        <v>0</v>
+      </c>
       <c r="Z131">
         <v>0</v>
       </c>
@@ -23206,6 +23596,9 @@
       <c r="X132">
         <v>4.7</v>
       </c>
+      <c r="Y132">
+        <v>0</v>
+      </c>
       <c r="Z132">
         <v>0</v>
       </c>
@@ -23366,6 +23759,9 @@
       </c>
       <c r="X133">
         <v>-11.2</v>
+      </c>
+      <c r="Y133">
+        <v>0</v>
       </c>
       <c r="Z133">
         <v>0</v>

--- a/data/data_month.xlsx
+++ b/data/data_month.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\DNS\balance_of_payments_model\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90BA82ED-B65B-42CE-A51C-6F81C7F70D0F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1B247BC-08A1-4DEA-AA6D-D383500381F8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{6C71ADC8-FB5B-46E8-B9BB-33CF015882A6}"/>
   </bookViews>
@@ -713,8 +713,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BFE8DC5-3CF9-4EEA-A486-440F262052B0}">
   <dimension ref="A1:BN173"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AV1" workbookViewId="0">
-      <selection activeCell="BK9" sqref="BK9"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="AQ172" sqref="AQ172"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -30511,21 +30511,28 @@
       <c r="U170">
         <v>0</v>
       </c>
+      <c r="Y170" s="11">
+        <f>Y169*1.02</f>
+        <v>42.448320000000002</v>
+      </c>
+      <c r="Z170" s="11">
+        <v>0</v>
+      </c>
       <c r="AD170" s="11">
         <v>6.25</v>
       </c>
-      <c r="AE170">
+      <c r="AE170" s="11">
         <v>1.52</v>
       </c>
-      <c r="AM170">
+      <c r="AM170" s="11">
         <v>63.035899999999998</v>
       </c>
       <c r="AQ170" s="17">
-        <v>30034</v>
+        <v>30.033999999999999</v>
       </c>
       <c r="AT170">
         <f t="shared" si="36"/>
-        <v>30034</v>
+        <v>30.033999999999999</v>
       </c>
       <c r="AU170">
         <v>16.96</v>
@@ -30581,21 +30588,27 @@
       <c r="U171">
         <v>0</v>
       </c>
-      <c r="AD171">
+      <c r="Y171" s="11">
+        <v>42.448320000000002</v>
+      </c>
+      <c r="Z171" s="11">
+        <v>0</v>
+      </c>
+      <c r="AD171" s="11">
         <v>6</v>
       </c>
-      <c r="AE171">
+      <c r="AE171" s="11">
         <v>1.127</v>
       </c>
-      <c r="AM171">
+      <c r="AM171" s="11">
         <v>66.990899999999996</v>
       </c>
       <c r="AQ171" s="17">
-        <v>28124</v>
+        <v>28.123999999999999</v>
       </c>
       <c r="AT171">
         <f t="shared" si="36"/>
-        <v>28124</v>
+        <v>28.123999999999999</v>
       </c>
       <c r="AU171">
         <v>18.46</v>
@@ -30651,13 +30664,19 @@
       <c r="U172">
         <v>0</v>
       </c>
-      <c r="AD172">
-        <v>6</v>
-      </c>
-      <c r="AE172">
+      <c r="Y172" s="11">
+        <v>42.448320000000002</v>
+      </c>
+      <c r="Z172" s="11">
+        <v>0</v>
+      </c>
+      <c r="AD172" s="11">
+        <v>5.5</v>
+      </c>
+      <c r="AE172" s="11">
         <v>0.69799999999999995</v>
       </c>
-      <c r="AM172">
+      <c r="AM172" s="11">
         <v>77.732500000000002</v>
       </c>
     </row>
@@ -30707,10 +30726,16 @@
       <c r="U173">
         <v>0</v>
       </c>
-      <c r="AD173">
-        <v>6</v>
-      </c>
-      <c r="AE173">
+      <c r="Y173" s="11">
+        <v>42.448320000000002</v>
+      </c>
+      <c r="Z173" s="11">
+        <v>0</v>
+      </c>
+      <c r="AD173" s="11">
+        <v>5.5</v>
+      </c>
+      <c r="AE173" s="11">
         <v>0.60899999999999999</v>
       </c>
     </row>

--- a/data/data_month.xlsx
+++ b/data/data_month.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\DNS\balance_of_payments_model\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1B247BC-08A1-4DEA-AA6D-D383500381F8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{122B4FE4-F4AC-4273-B7CF-3D34AA1FC2A7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{6C71ADC8-FB5B-46E8-B9BB-33CF015882A6}"/>
   </bookViews>
@@ -281,7 +281,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -330,6 +330,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="3">
     <border>
@@ -370,7 +376,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -385,7 +391,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="164" fontId="4" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
@@ -396,6 +401,8 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="164" fontId="4" fillId="8" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="4" fillId="5" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -713,8 +720,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BFE8DC5-3CF9-4EEA-A486-440F262052B0}">
   <dimension ref="A1:BN173"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="AQ172" sqref="AQ172"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -727,199 +734,199 @@
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="20" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="20" t="s">
+      <c r="B1" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="20" t="s">
+      <c r="D1" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="13" t="s">
+      <c r="E1" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="13" t="s">
+      <c r="F1" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="14" t="s">
+      <c r="G1" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="15" t="s">
+      <c r="H1" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="15" t="s">
+      <c r="I1" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="15" t="s">
+      <c r="J1" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="15" t="s">
+      <c r="K1" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="15" t="s">
+      <c r="L1" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="15" t="s">
+      <c r="M1" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="15" t="s">
+      <c r="N1" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="15" t="s">
+      <c r="O1" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="15" t="s">
+      <c r="P1" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="15" t="s">
+      <c r="Q1" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="15" t="s">
+      <c r="R1" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="15" t="s">
+      <c r="S1" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="15" t="s">
+      <c r="T1" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="15" t="s">
+      <c r="U1" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="15" t="s">
+      <c r="V1" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="15" t="s">
+      <c r="W1" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="15" t="s">
+      <c r="X1" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="15" t="s">
+      <c r="Y1" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="15" t="s">
+      <c r="Z1" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" s="16" t="s">
+      <c r="AA1" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" s="15" t="s">
+      <c r="AB1" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" s="16" t="s">
+      <c r="AC1" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="AD1" s="15" t="s">
+      <c r="AD1" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="AE1" s="16" t="s">
+      <c r="AE1" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="AF1" s="19" t="s">
+      <c r="AF1" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="AG1" s="19" t="s">
+      <c r="AG1" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="AH1" s="19" t="s">
+      <c r="AH1" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="AI1" s="19" t="s">
+      <c r="AI1" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="AJ1" s="19" t="s">
+      <c r="AJ1" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="AK1" s="19" t="s">
+      <c r="AK1" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="AL1" s="13" t="s">
+      <c r="AL1" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="AM1" s="15" t="s">
+      <c r="AM1" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="AN1" t="s">
+      <c r="AN1" s="25" t="s">
         <v>39</v>
       </c>
-      <c r="AO1" t="s">
+      <c r="AO1" s="25" t="s">
         <v>40</v>
       </c>
-      <c r="AP1" t="s">
+      <c r="AP1" s="25" t="s">
         <v>41</v>
       </c>
-      <c r="AQ1" s="15" t="s">
+      <c r="AQ1" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="AR1" s="19" t="s">
+      <c r="AR1" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="AS1" s="15" t="s">
+      <c r="AS1" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="AT1" s="15" t="s">
+      <c r="AT1" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="AU1" s="15" t="s">
+      <c r="AU1" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="AV1" s="15" t="s">
+      <c r="AV1" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="AW1" s="15" t="s">
+      <c r="AW1" s="14" t="s">
         <v>48</v>
       </c>
       <c r="AX1" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="AY1" s="18" t="s">
+      <c r="AY1" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="AZ1" s="18" t="s">
+      <c r="AZ1" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="BA1" s="18" t="s">
+      <c r="BA1" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="BB1" s="18" t="s">
+      <c r="BB1" s="17" t="s">
         <v>53</v>
       </c>
-      <c r="BC1" s="18" t="s">
+      <c r="BC1" s="17" t="s">
         <v>54</v>
       </c>
-      <c r="BD1" s="18" t="s">
+      <c r="BD1" s="17" t="s">
         <v>55</v>
       </c>
-      <c r="BE1" s="15" t="s">
+      <c r="BE1" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="BF1" s="15" t="s">
+      <c r="BF1" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="BG1" s="15" t="s">
+      <c r="BG1" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="BH1" s="15" t="s">
+      <c r="BH1" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="BI1" s="15" t="s">
+      <c r="BI1" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="BJ1" s="15" t="s">
+      <c r="BJ1" s="14" t="s">
         <v>61</v>
       </c>
-      <c r="BK1" s="15" t="s">
+      <c r="BK1" s="14" t="s">
         <v>62</v>
       </c>
-      <c r="BL1" s="15" t="s">
+      <c r="BL1" s="14" t="s">
         <v>63</v>
       </c>
-      <c r="BM1" s="24" t="s">
+      <c r="BM1" s="23" t="s">
         <v>66</v>
       </c>
-      <c r="BN1" s="15" t="s">
+      <c r="BN1" s="14" t="s">
         <v>67</v>
       </c>
     </row>
@@ -1041,7 +1048,7 @@
       <c r="AP2">
         <v>60.7789</v>
       </c>
-      <c r="AQ2" s="17">
+      <c r="AQ2" s="16">
         <v>20.524000000000001</v>
       </c>
       <c r="AR2">
@@ -1204,7 +1211,7 @@
       <c r="AP3">
         <v>55.039199999999994</v>
       </c>
-      <c r="AQ3" s="17">
+      <c r="AQ3" s="16">
         <v>21.449000000000002</v>
       </c>
       <c r="AR3">
@@ -1367,7 +1374,7 @@
       <c r="AP4">
         <v>58.553199999999997</v>
       </c>
-      <c r="AQ4" s="17">
+      <c r="AQ4" s="16">
         <v>24.439</v>
       </c>
       <c r="AR4">
@@ -1530,7 +1537,7 @@
       <c r="AP5">
         <v>55.037599999999998</v>
       </c>
-      <c r="AQ5" s="17">
+      <c r="AQ5" s="16">
         <v>23.652000000000001</v>
       </c>
       <c r="AR5">
@@ -1693,7 +1700,7 @@
       <c r="AP6">
         <v>54.465900000000005</v>
       </c>
-      <c r="AQ6" s="17">
+      <c r="AQ6" s="16">
         <v>26.77</v>
       </c>
       <c r="AR6">
@@ -1856,7 +1863,7 @@
       <c r="AP7">
         <v>48.933800000000005</v>
       </c>
-      <c r="AQ7" s="17">
+      <c r="AQ7" s="16">
         <v>25.137</v>
       </c>
       <c r="AR7">
@@ -2019,7 +2026,7 @@
       <c r="AP8">
         <v>49.889199999999995</v>
       </c>
-      <c r="AQ8" s="17">
+      <c r="AQ8" s="16">
         <v>25.481999999999999</v>
       </c>
       <c r="AR8">
@@ -2182,7 +2189,7 @@
       <c r="AP9">
         <v>50.344900000000003</v>
       </c>
-      <c r="AQ9" s="17">
+      <c r="AQ9" s="16">
         <v>27.853000000000002</v>
       </c>
       <c r="AR9">
@@ -2345,7 +2352,7 @@
       <c r="AP10">
         <v>50.713000000000001</v>
       </c>
-      <c r="AQ10" s="17">
+      <c r="AQ10" s="16">
         <v>25.391999999999999</v>
       </c>
       <c r="AR10">
@@ -2508,7 +2515,7 @@
       <c r="AP11">
         <v>54.541499999999999</v>
       </c>
-      <c r="AQ11" s="17">
+      <c r="AQ11" s="16">
         <v>24.048999999999999</v>
       </c>
       <c r="AR11">
@@ -2671,7 +2678,7 @@
       <c r="AP12">
         <v>57.801300000000005</v>
       </c>
-      <c r="AQ12" s="17">
+      <c r="AQ12" s="16">
         <v>24.382000000000001</v>
       </c>
       <c r="AR12">
@@ -2834,7 +2841,7 @@
       <c r="AP13">
         <v>60.1721</v>
       </c>
-      <c r="AQ13" s="17">
+      <c r="AQ13" s="16">
         <v>28.353999999999999</v>
       </c>
       <c r="AR13">
@@ -2998,7 +3005,7 @@
       <c r="AP14">
         <v>60.8384</v>
       </c>
-      <c r="AQ14" s="17">
+      <c r="AQ14" s="16">
         <v>21.286999999999999</v>
       </c>
       <c r="AR14">
@@ -3162,7 +3169,7 @@
       <c r="AP15">
         <v>55.001400000000004</v>
       </c>
-      <c r="AQ15" s="17">
+      <c r="AQ15" s="16">
         <v>22.945</v>
       </c>
       <c r="AR15">
@@ -3326,7 +3333,7 @@
       <c r="AP16">
         <v>59.426199999999994</v>
       </c>
-      <c r="AQ16" s="17">
+      <c r="AQ16" s="16">
         <v>25.945</v>
       </c>
       <c r="AR16">
@@ -3490,7 +3497,7 @@
       <c r="AP17">
         <v>56.155199999999994</v>
       </c>
-      <c r="AQ17" s="17">
+      <c r="AQ17" s="16">
         <v>26.994</v>
       </c>
       <c r="AR17">
@@ -3654,7 +3661,7 @@
       <c r="AP18">
         <v>53.566900000000004</v>
       </c>
-      <c r="AQ18" s="17">
+      <c r="AQ18" s="16">
         <v>28.681000000000001</v>
       </c>
       <c r="AR18">
@@ -3818,7 +3825,7 @@
       <c r="AP19">
         <v>48.597000000000001</v>
       </c>
-      <c r="AQ19" s="17">
+      <c r="AQ19" s="16">
         <v>26.193999999999999</v>
       </c>
       <c r="AR19">
@@ -3982,7 +3989,7 @@
       <c r="AP20">
         <v>48.499300000000005</v>
       </c>
-      <c r="AQ20" s="17">
+      <c r="AQ20" s="16">
         <v>29.082999999999998</v>
       </c>
       <c r="AR20">
@@ -4146,7 +4153,7 @@
       <c r="AP21">
         <v>47.406300000000002</v>
       </c>
-      <c r="AQ21" s="17">
+      <c r="AQ21" s="16">
         <v>30.318000000000001</v>
       </c>
       <c r="AR21">
@@ -4310,7 +4317,7 @@
       <c r="AP22">
         <v>48.5319</v>
       </c>
-      <c r="AQ22" s="17">
+      <c r="AQ22" s="16">
         <v>27.68</v>
       </c>
       <c r="AR22">
@@ -4474,7 +4481,7 @@
       <c r="AP23">
         <v>54.2271</v>
       </c>
-      <c r="AQ23" s="17">
+      <c r="AQ23" s="16">
         <v>34.436999999999998</v>
       </c>
       <c r="AR23">
@@ -4638,7 +4645,7 @@
       <c r="AP24">
         <v>58.793800000000005</v>
       </c>
-      <c r="AQ24" s="17">
+      <c r="AQ24" s="16">
         <v>35.197000000000003</v>
       </c>
       <c r="AR24">
@@ -4802,7 +4809,7 @@
       <c r="AP25">
         <v>61.6967</v>
       </c>
-      <c r="AQ25" s="17">
+      <c r="AQ25" s="16">
         <v>37.768999999999998</v>
       </c>
       <c r="AR25">
@@ -4966,7 +4973,7 @@
       <c r="AP26">
         <v>61.690899999999999</v>
       </c>
-      <c r="AQ26" s="17">
+      <c r="AQ26" s="16">
         <v>33.869999999999997</v>
       </c>
       <c r="AR26">
@@ -5130,7 +5137,7 @@
       <c r="AP27">
         <v>57.986899999999999</v>
       </c>
-      <c r="AQ27" s="17">
+      <c r="AQ27" s="16">
         <v>35.094999999999999</v>
       </c>
       <c r="AR27">
@@ -5294,7 +5301,7 @@
       <c r="AP28">
         <v>60.579300000000003</v>
       </c>
-      <c r="AQ28" s="17">
+      <c r="AQ28" s="16">
         <v>39.406999999999996</v>
       </c>
       <c r="AR28">
@@ -5458,7 +5465,7 @@
       <c r="AP29">
         <v>57.860500000000002</v>
       </c>
-      <c r="AQ29" s="17">
+      <c r="AQ29" s="16">
         <v>40.524999999999999</v>
       </c>
       <c r="AR29">
@@ -5622,7 +5629,7 @@
       <c r="AP30">
         <v>56.198399999999999</v>
       </c>
-      <c r="AQ30" s="17">
+      <c r="AQ30" s="16">
         <v>42.478000000000002</v>
       </c>
       <c r="AR30">
@@ -5786,7 +5793,7 @@
       <c r="AP31">
         <v>51.569000000000003</v>
       </c>
-      <c r="AQ31" s="17">
+      <c r="AQ31" s="16">
         <v>43.024000000000001</v>
       </c>
       <c r="AR31">
@@ -5950,7 +5957,7 @@
       <c r="AP32">
         <v>49.344999999999999</v>
       </c>
-      <c r="AQ32" s="17">
+      <c r="AQ32" s="16">
         <v>46.545999999999999</v>
       </c>
       <c r="AR32">
@@ -6114,7 +6121,7 @@
       <c r="AP33">
         <v>48.5122</v>
       </c>
-      <c r="AQ33" s="17">
+      <c r="AQ33" s="16">
         <v>44.951999999999998</v>
       </c>
       <c r="AR33">
@@ -6278,7 +6285,7 @@
       <c r="AP34">
         <v>51.951500000000003</v>
       </c>
-      <c r="AQ34" s="17">
+      <c r="AQ34" s="16">
         <v>42.973999999999997</v>
       </c>
       <c r="AR34">
@@ -6442,7 +6449,7 @@
       <c r="AP35">
         <v>56.078499999999998</v>
       </c>
-      <c r="AQ35" s="17">
+      <c r="AQ35" s="16">
         <v>38.383000000000003</v>
       </c>
       <c r="AR35">
@@ -6606,7 +6613,7 @@
       <c r="AP36">
         <v>54.581199999999995</v>
       </c>
-      <c r="AQ36" s="17">
+      <c r="AQ36" s="16">
         <v>29.353000000000002</v>
       </c>
       <c r="AR36">
@@ -6770,7 +6777,7 @@
       <c r="AP37">
         <v>57.623400000000004</v>
       </c>
-      <c r="AQ37" s="17">
+      <c r="AQ37" s="16">
         <v>29.692</v>
       </c>
       <c r="AR37">
@@ -6934,7 +6941,7 @@
       <c r="AP38">
         <v>55.0199</v>
       </c>
-      <c r="AQ38" s="17">
+      <c r="AQ38" s="16">
         <v>18.867999999999999</v>
       </c>
       <c r="AR38">
@@ -7098,7 +7105,7 @@
       <c r="AP39">
         <v>49.463999999999999</v>
       </c>
-      <c r="AQ39" s="17">
+      <c r="AQ39" s="16">
         <v>17.419</v>
       </c>
       <c r="AR39">
@@ -7262,7 +7269,7 @@
       <c r="AP40">
         <v>48.945999999999998</v>
       </c>
-      <c r="AQ40" s="17">
+      <c r="AQ40" s="16">
         <v>21.466999999999999</v>
       </c>
       <c r="AR40">
@@ -7426,7 +7433,7 @@
       <c r="AP41">
         <v>44.070999999999998</v>
       </c>
-      <c r="AQ41" s="17">
+      <c r="AQ41" s="16">
         <v>18.835999999999999</v>
       </c>
       <c r="AR41">
@@ -7590,7 +7597,7 @@
       <c r="AP42">
         <v>40.2438</v>
       </c>
-      <c r="AQ42" s="17">
+      <c r="AQ42" s="16">
         <v>21.158999999999999</v>
       </c>
       <c r="AR42">
@@ -7754,7 +7761,7 @@
       <c r="AP43">
         <v>36.573599999999999</v>
       </c>
-      <c r="AQ43" s="17">
+      <c r="AQ43" s="16">
         <v>23.573</v>
       </c>
       <c r="AR43">
@@ -7918,7 +7925,7 @@
       <c r="AP44">
         <v>41.738099999999996</v>
       </c>
-      <c r="AQ44" s="17">
+      <c r="AQ44" s="16">
         <v>26.166</v>
       </c>
       <c r="AR44">
@@ -8082,7 +8089,7 @@
       <c r="AP45">
         <v>43.4908</v>
       </c>
-      <c r="AQ45" s="17">
+      <c r="AQ45" s="16">
         <v>26.805</v>
       </c>
       <c r="AR45">
@@ -8246,7 +8253,7 @@
       <c r="AP46">
         <v>45.974899999999998</v>
       </c>
-      <c r="AQ46" s="17">
+      <c r="AQ46" s="16">
         <v>28.613</v>
       </c>
       <c r="AR46">
@@ -8410,7 +8417,7 @@
       <c r="AP47">
         <v>55.893900000000002</v>
       </c>
-      <c r="AQ47" s="17">
+      <c r="AQ47" s="16">
         <v>30.161999999999999</v>
       </c>
       <c r="AR47">
@@ -8574,7 +8581,7 @@
       <c r="AP48">
         <v>58.200400000000002</v>
       </c>
-      <c r="AQ48" s="17">
+      <c r="AQ48" s="16">
         <v>30.4</v>
       </c>
       <c r="AR48">
@@ -8738,7 +8745,7 @@
       <c r="AP49">
         <v>63.019800000000004</v>
       </c>
-      <c r="AQ49" s="17">
+      <c r="AQ49" s="16">
         <v>33.686999999999998</v>
       </c>
       <c r="AR49">
@@ -8902,7 +8909,7 @@
       <c r="AP50">
         <v>63.948399999999999</v>
       </c>
-      <c r="AQ50" s="17">
+      <c r="AQ50" s="16">
         <v>26.977</v>
       </c>
       <c r="AR50">
@@ -9066,7 +9073,7 @@
       <c r="AP51">
         <v>57.767099999999999</v>
       </c>
-      <c r="AQ51" s="17">
+      <c r="AQ51" s="16">
         <v>30.094000000000001</v>
       </c>
       <c r="AR51">
@@ -9230,7 +9237,7 @@
       <c r="AP52">
         <v>60.208500000000001</v>
       </c>
-      <c r="AQ52" s="17">
+      <c r="AQ52" s="16">
         <v>32.991999999999997</v>
       </c>
       <c r="AR52">
@@ -9394,7 +9401,7 @@
       <c r="AP53">
         <v>56.155199999999994</v>
       </c>
-      <c r="AQ53" s="17">
+      <c r="AQ53" s="16">
         <v>32.692999999999998</v>
       </c>
       <c r="AR53">
@@ -9558,7 +9565,7 @@
       <c r="AP54">
         <v>51.290099999999995</v>
       </c>
-      <c r="AQ54" s="17">
+      <c r="AQ54" s="16">
         <v>31.106000000000002</v>
       </c>
       <c r="AR54">
@@ -9722,7 +9729,7 @@
       <c r="AP55">
         <v>44.164400000000001</v>
       </c>
-      <c r="AQ55" s="17">
+      <c r="AQ55" s="16">
         <v>31.553999999999998</v>
       </c>
       <c r="AR55">
@@ -9886,7 +9893,7 @@
       <c r="AP56">
         <v>44.154900000000005</v>
       </c>
-      <c r="AQ56" s="17">
+      <c r="AQ56" s="16">
         <v>30.725999999999999</v>
       </c>
       <c r="AR56">
@@ -10050,7 +10057,7 @@
       <c r="AP57">
         <v>43.550400000000003</v>
       </c>
-      <c r="AQ57" s="17">
+      <c r="AQ57" s="16">
         <v>31.26</v>
       </c>
       <c r="AR57">
@@ -10214,7 +10221,7 @@
       <c r="AP58">
         <v>48.197600000000001</v>
       </c>
-      <c r="AQ58" s="17">
+      <c r="AQ58" s="16">
         <v>33.67</v>
       </c>
       <c r="AR58">
@@ -10378,7 +10385,7 @@
       <c r="AP59">
         <v>58.560099999999998</v>
       </c>
-      <c r="AQ59" s="17">
+      <c r="AQ59" s="16">
         <v>34.588999999999999</v>
       </c>
       <c r="AR59">
@@ -10542,7 +10549,7 @@
       <c r="AP60">
         <v>59.748800000000003</v>
       </c>
-      <c r="AQ60" s="17">
+      <c r="AQ60" s="16">
         <v>34.506</v>
       </c>
       <c r="AR60">
@@ -10706,7 +10713,7 @@
       <c r="AP61">
         <v>63.603900000000003</v>
       </c>
-      <c r="AQ61" s="17">
+      <c r="AQ61" s="16">
         <v>42.506999999999998</v>
       </c>
       <c r="AR61">
@@ -10870,7 +10877,7 @@
       <c r="AP62">
         <v>63.857399999999998</v>
       </c>
-      <c r="AQ62" s="17">
+      <c r="AQ62" s="16">
         <v>29.59</v>
       </c>
       <c r="AR62">
@@ -11034,7 +11041,7 @@
       <c r="AP63">
         <v>57.392900000000004</v>
       </c>
-      <c r="AQ63" s="17">
+      <c r="AQ63" s="16">
         <v>39.622999999999998</v>
       </c>
       <c r="AR63">
@@ -11198,7 +11205,7 @@
       <c r="AP64">
         <v>61.660499999999999</v>
       </c>
-      <c r="AQ64" s="17">
+      <c r="AQ64" s="16">
         <v>42.460999999999999</v>
       </c>
       <c r="AR64">
@@ -11362,7 +11369,7 @@
       <c r="AP65">
         <v>57.192399999999999</v>
       </c>
-      <c r="AQ65" s="17">
+      <c r="AQ65" s="16">
         <v>45.802999999999997</v>
       </c>
       <c r="AR65">
@@ -11526,7 +11533,7 @@
       <c r="AP66">
         <v>57.7224</v>
       </c>
-      <c r="AQ66" s="17">
+      <c r="AQ66" s="16">
         <v>44.039000000000001</v>
       </c>
       <c r="AR66">
@@ -11690,7 +11697,7 @@
       <c r="AP67">
         <v>50.682699999999997</v>
       </c>
-      <c r="AQ67" s="17">
+      <c r="AQ67" s="16">
         <v>43.655999999999999</v>
       </c>
       <c r="AR67">
@@ -11854,7 +11861,7 @@
       <c r="AP68">
         <v>48.429400000000001</v>
       </c>
-      <c r="AQ68" s="17">
+      <c r="AQ68" s="16">
         <v>41.435000000000002</v>
       </c>
       <c r="AR68">
@@ -12018,7 +12025,7 @@
       <c r="AP69">
         <v>45.873599999999996</v>
       </c>
-      <c r="AQ69" s="17">
+      <c r="AQ69" s="16">
         <v>43.841999999999999</v>
       </c>
       <c r="AR69">
@@ -12182,7 +12189,7 @@
       <c r="AP70">
         <v>48.318400000000004</v>
       </c>
-      <c r="AQ70" s="17">
+      <c r="AQ70" s="16">
         <v>43.036999999999999</v>
       </c>
       <c r="AR70">
@@ -12346,7 +12353,7 @@
       <c r="AP71">
         <v>56.381599999999999</v>
       </c>
-      <c r="AQ71" s="17">
+      <c r="AQ71" s="16">
         <v>45.247</v>
       </c>
       <c r="AR71">
@@ -12510,7 +12517,7 @@
       <c r="AP72">
         <v>60.137599999999999</v>
       </c>
-      <c r="AQ72" s="17">
+      <c r="AQ72" s="16">
         <v>46.427</v>
       </c>
       <c r="AR72">
@@ -12674,7 +12681,7 @@
       <c r="AP73">
         <v>63.189699999999995</v>
       </c>
-      <c r="AQ73" s="17">
+      <c r="AQ73" s="16">
         <v>50.247999999999998</v>
       </c>
       <c r="AR73">
@@ -12707,7 +12714,7 @@
       <c r="BE73">
         <v>20.292999999999999</v>
       </c>
-      <c r="BM73" s="23"/>
+      <c r="BM73" s="22"/>
     </row>
     <row r="74" spans="1:66" s="8" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A74" s="6">
@@ -12915,10 +12922,10 @@
       <c r="BL74" s="8">
         <v>15</v>
       </c>
-      <c r="BM74" s="23">
+      <c r="BM74" s="22">
         <v>2.8</v>
       </c>
-      <c r="BN74" s="23">
+      <c r="BN74" s="22">
         <v>12.2</v>
       </c>
     </row>
@@ -13061,7 +13068,7 @@
       <c r="AP75">
         <v>60.015000000000001</v>
       </c>
-      <c r="AQ75" s="17">
+      <c r="AQ75" s="16">
         <v>44.877000000000002</v>
       </c>
       <c r="AR75">
@@ -13128,10 +13135,10 @@
       <c r="BL75" s="11">
         <v>13.5</v>
       </c>
-      <c r="BM75" s="23">
+      <c r="BM75" s="22">
         <v>6.9</v>
       </c>
-      <c r="BN75" s="23">
+      <c r="BN75" s="22">
         <v>17</v>
       </c>
     </row>
@@ -13274,7 +13281,7 @@
       <c r="AP76">
         <v>61.813000000000002</v>
       </c>
-      <c r="AQ76" s="17">
+      <c r="AQ76" s="16">
         <v>46.658000000000001</v>
       </c>
       <c r="AR76">
@@ -13341,10 +13348,10 @@
       <c r="BL76" s="11">
         <v>10.8</v>
       </c>
-      <c r="BM76" s="23">
+      <c r="BM76" s="22">
         <v>1.9</v>
       </c>
-      <c r="BN76" s="23">
+      <c r="BN76" s="22">
         <v>6.1</v>
       </c>
     </row>
@@ -13487,7 +13494,7 @@
       <c r="AP77">
         <v>55.698</v>
       </c>
-      <c r="AQ77" s="17">
+      <c r="AQ77" s="16">
         <v>44.902999999999999</v>
       </c>
       <c r="AR77">
@@ -13554,10 +13561,10 @@
       <c r="BL77" s="11">
         <v>9.6999999999999993</v>
       </c>
-      <c r="BM77" s="23">
+      <c r="BM77" s="22">
         <v>13.6</v>
       </c>
-      <c r="BN77" s="23">
+      <c r="BN77" s="22">
         <v>14.9</v>
       </c>
     </row>
@@ -13700,7 +13707,7 @@
       <c r="AP78">
         <v>51.690100000000001</v>
       </c>
-      <c r="AQ78" s="17">
+      <c r="AQ78" s="16">
         <v>45.472999999999999</v>
       </c>
       <c r="AR78">
@@ -13767,10 +13774,10 @@
       <c r="BL78" s="11">
         <v>9.6999999999999993</v>
       </c>
-      <c r="BM78" s="23">
+      <c r="BM78" s="22">
         <v>-3.2</v>
       </c>
-      <c r="BN78" s="23">
+      <c r="BN78" s="22">
         <v>-0.5</v>
       </c>
     </row>
@@ -13913,7 +13920,7 @@
       <c r="AP79">
         <v>45.814099999999996</v>
       </c>
-      <c r="AQ79" s="17">
+      <c r="AQ79" s="16">
         <v>40.81</v>
       </c>
       <c r="AR79">
@@ -13980,10 +13987,10 @@
       <c r="BL79" s="11">
         <v>-3.3</v>
       </c>
-      <c r="BM79" s="23">
+      <c r="BM79" s="22">
         <v>9</v>
       </c>
-      <c r="BN79" s="23">
+      <c r="BN79" s="22">
         <v>3.8</v>
       </c>
     </row>
@@ -14126,7 +14133,7 @@
       <c r="AP80">
         <v>44.8277</v>
       </c>
-      <c r="AQ80" s="17">
+      <c r="AQ80" s="16">
         <v>41.155000000000001</v>
       </c>
       <c r="AR80">
@@ -14193,10 +14200,10 @@
       <c r="BL80" s="11">
         <v>0.8</v>
       </c>
-      <c r="BM80" s="23">
+      <c r="BM80" s="22">
         <v>14.5</v>
       </c>
-      <c r="BN80" s="23">
+      <c r="BN80" s="22">
         <v>19.7</v>
       </c>
     </row>
@@ -14339,7 +14346,7 @@
       <c r="AP81">
         <v>44.692800000000005</v>
       </c>
-      <c r="AQ81" s="17">
+      <c r="AQ81" s="16">
         <v>41.119</v>
       </c>
       <c r="AR81">
@@ -14406,10 +14413,10 @@
       <c r="BL81" s="11">
         <v>-1.9</v>
       </c>
-      <c r="BM81" s="23">
+      <c r="BM81" s="22">
         <v>3.7</v>
       </c>
-      <c r="BN81" s="23">
+      <c r="BN81" s="22">
         <v>-2.2000000000000002</v>
       </c>
     </row>
@@ -14552,7 +14559,7 @@
       <c r="AP82">
         <v>49.830599999999997</v>
       </c>
-      <c r="AQ82" s="17">
+      <c r="AQ82" s="16">
         <v>42.93</v>
       </c>
       <c r="AR82">
@@ -14619,10 +14626,10 @@
       <c r="BL82" s="11">
         <v>6.6</v>
       </c>
-      <c r="BM82" s="23">
+      <c r="BM82" s="22">
         <v>6.5</v>
       </c>
-      <c r="BN82" s="23">
+      <c r="BN82" s="22">
         <v>10.7</v>
       </c>
     </row>
@@ -14765,7 +14772,7 @@
       <c r="AP83">
         <v>54.110800000000005</v>
       </c>
-      <c r="AQ83" s="17">
+      <c r="AQ83" s="16">
         <v>46.54</v>
       </c>
       <c r="AR83">
@@ -14832,10 +14839,10 @@
       <c r="BL83" s="11">
         <v>4.2</v>
       </c>
-      <c r="BM83" s="23">
+      <c r="BM83" s="22">
         <v>10.7</v>
       </c>
-      <c r="BN83" s="23">
+      <c r="BN83" s="22">
         <v>15.2</v>
       </c>
     </row>
@@ -14978,7 +14985,7 @@
       <c r="AP84">
         <v>57.545400000000001</v>
       </c>
-      <c r="AQ84" s="17">
+      <c r="AQ84" s="16">
         <v>45.268000000000001</v>
       </c>
       <c r="AR84">
@@ -15045,10 +15052,10 @@
       <c r="BL84" s="11">
         <v>5.4</v>
       </c>
-      <c r="BM84" s="23">
+      <c r="BM84" s="22">
         <v>9.9</v>
       </c>
-      <c r="BN84" s="23">
+      <c r="BN84" s="22">
         <v>13.1</v>
       </c>
     </row>
@@ -15191,7 +15198,7 @@
       <c r="AP85">
         <v>65.379300000000001</v>
       </c>
-      <c r="AQ85" s="17">
+      <c r="AQ85" s="16">
         <v>48.203000000000003</v>
       </c>
       <c r="AR85">
@@ -15258,10 +15265,10 @@
       <c r="BL85" s="11">
         <v>0.7</v>
       </c>
-      <c r="BM85" s="23">
+      <c r="BM85" s="22">
         <v>16.2</v>
       </c>
-      <c r="BN85" s="23">
+      <c r="BN85" s="22">
         <v>8.1</v>
       </c>
     </row>
@@ -15404,7 +15411,7 @@
       <c r="AP86">
         <v>65.194400000000002</v>
       </c>
-      <c r="AQ86" s="17">
+      <c r="AQ86" s="16">
         <v>38.713999999999999</v>
       </c>
       <c r="AR86">
@@ -15471,10 +15478,10 @@
       <c r="BL86" s="11">
         <v>8.9</v>
       </c>
-      <c r="BM86" s="23">
+      <c r="BM86" s="22">
         <v>10.9</v>
       </c>
-      <c r="BN86" s="23">
+      <c r="BN86" s="22">
         <v>16.399999999999999</v>
       </c>
     </row>
@@ -15617,7 +15624,7 @@
       <c r="AP87">
         <v>57.401000000000003</v>
       </c>
-      <c r="AQ87" s="17">
+      <c r="AQ87" s="16">
         <v>41.762999999999998</v>
       </c>
       <c r="AR87">
@@ -15684,10 +15691,10 @@
       <c r="BL87" s="11">
         <v>7.9</v>
       </c>
-      <c r="BM87" s="23">
+      <c r="BM87" s="22">
         <v>16.5</v>
       </c>
-      <c r="BN87" s="23">
+      <c r="BN87" s="22">
         <v>20.7</v>
       </c>
     </row>
@@ -15830,7 +15837,7 @@
       <c r="AP88">
         <v>60.065899999999999</v>
       </c>
-      <c r="AQ88" s="17">
+      <c r="AQ88" s="16">
         <v>44.356000000000002</v>
       </c>
       <c r="AR88">
@@ -15897,10 +15904,10 @@
       <c r="BL88" s="11">
         <v>7.9</v>
       </c>
-      <c r="BM88" s="23">
+      <c r="BM88" s="22">
         <v>58.8</v>
       </c>
-      <c r="BN88" s="23">
+      <c r="BN88" s="22">
         <v>62.4</v>
       </c>
     </row>
@@ -16043,7 +16050,7 @@
       <c r="AP89">
         <v>55.3431</v>
       </c>
-      <c r="AQ89" s="17">
+      <c r="AQ89" s="16">
         <v>44.332999999999998</v>
       </c>
       <c r="AR89">
@@ -16110,10 +16117,10 @@
       <c r="BL89" s="11">
         <v>3.8</v>
       </c>
-      <c r="BM89" s="23">
+      <c r="BM89" s="22">
         <v>11.2</v>
       </c>
-      <c r="BN89" s="23">
+      <c r="BN89" s="22">
         <v>13.2</v>
       </c>
     </row>
@@ -16256,7 +16263,7 @@
       <c r="AP90">
         <v>52.215300000000006</v>
       </c>
-      <c r="AQ90" s="17">
+      <c r="AQ90" s="16">
         <v>40.878999999999998</v>
       </c>
       <c r="AR90">
@@ -16323,10 +16330,10 @@
       <c r="BL90" s="11">
         <v>2.8</v>
       </c>
-      <c r="BM90" s="23">
+      <c r="BM90" s="22">
         <v>12.9</v>
       </c>
-      <c r="BN90" s="23">
+      <c r="BN90" s="22">
         <v>18.8</v>
       </c>
     </row>
@@ -16469,7 +16476,7 @@
       <c r="AP91">
         <v>44.678400000000003</v>
       </c>
-      <c r="AQ91" s="17">
+      <c r="AQ91" s="16">
         <v>41.707000000000001</v>
       </c>
       <c r="AR91">
@@ -16536,10 +16543,10 @@
       <c r="BL91" s="11">
         <v>-5.2</v>
       </c>
-      <c r="BM91" s="23">
+      <c r="BM91" s="22">
         <v>-5.3</v>
       </c>
-      <c r="BN91" s="23">
+      <c r="BN91" s="22">
         <v>-5.0999999999999996</v>
       </c>
     </row>
@@ -16682,7 +16689,7 @@
       <c r="AP92">
         <v>46.085000000000001</v>
       </c>
-      <c r="AQ92" s="17">
+      <c r="AQ92" s="16">
         <v>43.585000000000001</v>
       </c>
       <c r="AR92">
@@ -16749,10 +16756,10 @@
       <c r="BL92" s="11">
         <v>-1.8</v>
       </c>
-      <c r="BM92" s="23">
+      <c r="BM92" s="22">
         <v>0.3</v>
       </c>
-      <c r="BN92" s="23">
+      <c r="BN92" s="22">
         <v>7.3</v>
       </c>
     </row>
@@ -16895,7 +16902,7 @@
       <c r="AP93">
         <v>47.759599999999999</v>
       </c>
-      <c r="AQ93" s="17">
+      <c r="AQ93" s="16">
         <v>42.399000000000001</v>
       </c>
       <c r="AR93">
@@ -16962,10 +16969,10 @@
       <c r="BL93" s="11">
         <v>-0.7</v>
       </c>
-      <c r="BM93" s="23">
+      <c r="BM93" s="22">
         <v>0.1</v>
       </c>
-      <c r="BN93" s="23">
+      <c r="BN93" s="22">
         <v>6.2</v>
       </c>
     </row>
@@ -17108,7 +17115,7 @@
       <c r="AP94">
         <v>53.337499999999999</v>
       </c>
-      <c r="AQ94" s="17">
+      <c r="AQ94" s="16">
         <v>44.674999999999997</v>
       </c>
       <c r="AR94">
@@ -17175,10 +17182,10 @@
       <c r="BL94" s="11">
         <v>1.9</v>
       </c>
-      <c r="BM94" s="23">
+      <c r="BM94" s="22">
         <v>7</v>
       </c>
-      <c r="BN94" s="23">
+      <c r="BN94" s="22">
         <v>-1.3</v>
       </c>
     </row>
@@ -17321,7 +17328,7 @@
       <c r="AP95">
         <v>62.709099999999999</v>
       </c>
-      <c r="AQ95" s="17">
+      <c r="AQ95" s="16">
         <v>43.39</v>
       </c>
       <c r="AR95">
@@ -17388,10 +17395,10 @@
       <c r="BL95" s="11">
         <v>0.2</v>
       </c>
-      <c r="BM95" s="23">
+      <c r="BM95" s="22">
         <v>6.2</v>
       </c>
-      <c r="BN95" s="23">
+      <c r="BN95" s="22">
         <v>10.4</v>
       </c>
     </row>
@@ -17534,7 +17541,7 @@
       <c r="AP96">
         <v>58.092100000000002</v>
       </c>
-      <c r="AQ96" s="17">
+      <c r="AQ96" s="16">
         <v>46.668999999999997</v>
       </c>
       <c r="AR96">
@@ -17601,10 +17608,10 @@
       <c r="BL96" s="11">
         <v>6.4</v>
       </c>
-      <c r="BM96" s="23">
+      <c r="BM96" s="22">
         <v>5.8</v>
       </c>
-      <c r="BN96" s="23">
+      <c r="BN96" s="22">
         <v>16</v>
       </c>
     </row>
@@ -17747,7 +17754,7 @@
       <c r="AP97">
         <v>64.730699999999999</v>
       </c>
-      <c r="AQ97" s="17">
+      <c r="AQ97" s="16">
         <v>49.366</v>
       </c>
       <c r="AR97">
@@ -17814,10 +17821,10 @@
       <c r="BL97" s="11">
         <v>1.2</v>
       </c>
-      <c r="BM97" s="23">
+      <c r="BM97" s="22">
         <v>0.1</v>
       </c>
-      <c r="BN97" s="23">
+      <c r="BN97" s="22">
         <v>5.4</v>
       </c>
     </row>
@@ -17935,7 +17942,7 @@
       <c r="AP98">
         <v>66.124800000000008</v>
       </c>
-      <c r="AQ98" s="17">
+      <c r="AQ98" s="16">
         <v>39.529000000000003</v>
       </c>
       <c r="AS98" s="12">
@@ -17999,10 +18006,10 @@
       <c r="BL98" s="11">
         <v>9.6</v>
       </c>
-      <c r="BM98" s="23">
+      <c r="BM98" s="22">
         <v>13</v>
       </c>
-      <c r="BN98" s="23">
+      <c r="BN98" s="22">
         <v>28.6</v>
       </c>
     </row>
@@ -18118,7 +18125,7 @@
       <c r="AP99">
         <v>58.046500000000002</v>
       </c>
-      <c r="AQ99" s="17">
+      <c r="AQ99" s="16">
         <v>36.338999999999999</v>
       </c>
       <c r="AS99" s="12">
@@ -18182,10 +18189,10 @@
       <c r="BL99" s="11">
         <v>6.1</v>
       </c>
-      <c r="BM99" s="23">
+      <c r="BM99" s="22">
         <v>1.9</v>
       </c>
-      <c r="BN99" s="23">
+      <c r="BN99" s="22">
         <v>15.8</v>
       </c>
     </row>
@@ -18301,7 +18308,7 @@
       <c r="AP100">
         <v>57.052900000000001</v>
       </c>
-      <c r="AQ100" s="17">
+      <c r="AQ100" s="16">
         <v>46.944000000000003</v>
       </c>
       <c r="AS100" s="12">
@@ -18365,10 +18372,10 @@
       <c r="BL100" s="11">
         <v>9.9</v>
       </c>
-      <c r="BM100" s="23">
+      <c r="BM100" s="22">
         <v>-13.7</v>
       </c>
-      <c r="BN100" s="23">
+      <c r="BN100" s="22">
         <v>6.5</v>
       </c>
     </row>
@@ -18484,7 +18491,7 @@
       <c r="AP101">
         <v>52.281599999999997</v>
       </c>
-      <c r="AQ101" s="17">
+      <c r="AQ101" s="16">
         <v>47.521999999999998</v>
       </c>
       <c r="AS101" s="12">
@@ -18548,10 +18555,10 @@
       <c r="BL101" s="11">
         <v>9.1999999999999993</v>
       </c>
-      <c r="BM101" s="23">
+      <c r="BM101" s="22">
         <v>-1.4</v>
       </c>
-      <c r="BN101" s="23">
+      <c r="BN101" s="22">
         <v>22.4</v>
       </c>
     </row>
@@ -18667,7 +18674,7 @@
       <c r="AP102">
         <v>53.210099999999997</v>
       </c>
-      <c r="AQ102" s="17">
+      <c r="AQ102" s="16">
         <v>43.945</v>
       </c>
       <c r="AS102" s="12">
@@ -18731,10 +18738,10 @@
       <c r="BL102" s="11">
         <v>7.6</v>
       </c>
-      <c r="BM102" s="23">
+      <c r="BM102" s="22">
         <v>-1.5</v>
       </c>
-      <c r="BN102" s="23">
+      <c r="BN102" s="22">
         <v>14</v>
       </c>
     </row>
@@ -18850,7 +18857,7 @@
       <c r="AP103">
         <v>46.73</v>
       </c>
-      <c r="AQ103" s="17">
+      <c r="AQ103" s="16">
         <v>40.6</v>
       </c>
       <c r="AS103" s="12">
@@ -18914,10 +18921,10 @@
       <c r="BL103" s="11">
         <v>-5</v>
       </c>
-      <c r="BM103" s="23">
+      <c r="BM103" s="22">
         <v>10.199999999999999</v>
       </c>
-      <c r="BN103" s="23">
+      <c r="BN103" s="22">
         <v>-1.9</v>
       </c>
     </row>
@@ -19033,7 +19040,7 @@
       <c r="AP104">
         <v>43.067599999999999</v>
       </c>
-      <c r="AQ104" s="17">
+      <c r="AQ104" s="16">
         <v>46.185000000000002</v>
       </c>
       <c r="AS104" s="12">
@@ -19097,10 +19104,10 @@
       <c r="BL104" s="11">
         <v>2.1</v>
       </c>
-      <c r="BM104" s="23">
+      <c r="BM104" s="22">
         <v>-10.199999999999999</v>
       </c>
-      <c r="BN104" s="23">
+      <c r="BN104" s="22">
         <v>-1.7</v>
       </c>
     </row>
@@ -19216,7 +19223,7 @@
       <c r="AP105">
         <v>43.179300000000005</v>
       </c>
-      <c r="AQ105" s="17">
+      <c r="AQ105" s="16">
         <v>41.412999999999997</v>
       </c>
       <c r="AS105" s="12">
@@ -19280,10 +19287,10 @@
       <c r="BL105" s="11">
         <v>3</v>
       </c>
-      <c r="BM105" s="23">
+      <c r="BM105" s="22">
         <v>-5.9</v>
       </c>
-      <c r="BN105" s="23">
+      <c r="BN105" s="22">
         <v>-11.9</v>
       </c>
     </row>
@@ -19399,7 +19406,7 @@
       <c r="AP106">
         <v>45.983199999999997</v>
       </c>
-      <c r="AQ106" s="17">
+      <c r="AQ106" s="16">
         <v>38.054000000000002</v>
       </c>
       <c r="AS106" s="12">
@@ -19463,10 +19470,10 @@
       <c r="BL106" s="11">
         <v>0.9</v>
       </c>
-      <c r="BM106" s="23">
+      <c r="BM106" s="22">
         <v>-6.5</v>
       </c>
-      <c r="BN106" s="23">
+      <c r="BN106" s="22">
         <v>-3.2</v>
       </c>
     </row>
@@ -19582,7 +19589,7 @@
       <c r="AP107">
         <v>57.2774</v>
       </c>
-      <c r="AQ107" s="17">
+      <c r="AQ107" s="16">
         <v>41.502000000000002</v>
       </c>
       <c r="AS107" s="12">
@@ -19646,10 +19653,10 @@
       <c r="BL107" s="11">
         <v>4.0999999999999996</v>
       </c>
-      <c r="BM107" s="23">
+      <c r="BM107" s="22">
         <v>-7.4</v>
       </c>
-      <c r="BN107" s="23">
+      <c r="BN107" s="22">
         <v>-11</v>
       </c>
     </row>
@@ -19765,7 +19772,7 @@
       <c r="AP108">
         <v>57.230800000000002</v>
       </c>
-      <c r="AQ108" s="17">
+      <c r="AQ108" s="16">
         <v>36.680999999999997</v>
       </c>
       <c r="AS108" s="12">
@@ -19829,10 +19836,10 @@
       <c r="BL108" s="11">
         <v>5.9</v>
       </c>
-      <c r="BM108" s="23">
+      <c r="BM108" s="22">
         <v>-6.5</v>
       </c>
-      <c r="BN108" s="23">
+      <c r="BN108" s="22">
         <v>5.8</v>
       </c>
     </row>
@@ -19948,7 +19955,7 @@
       <c r="AP109">
         <v>62.643699999999995</v>
       </c>
-      <c r="AQ109" s="17">
+      <c r="AQ109" s="16">
         <v>38.093000000000004</v>
       </c>
       <c r="AS109" s="12">
@@ -20012,10 +20019,10 @@
       <c r="BL109" s="11">
         <v>4</v>
       </c>
-      <c r="BM109" s="23">
+      <c r="BM109" s="22">
         <v>-21.7</v>
       </c>
-      <c r="BN109" s="23">
+      <c r="BN109" s="22">
         <v>17.8</v>
       </c>
     </row>
@@ -20131,7 +20138,7 @@
       <c r="AP110">
         <v>60.8</v>
       </c>
-      <c r="AQ110" s="17">
+      <c r="AQ110" s="16">
         <v>27.901</v>
       </c>
       <c r="AS110" s="12">
@@ -20195,10 +20202,10 @@
       <c r="BL110" s="11">
         <v>11.3</v>
       </c>
-      <c r="BM110" s="23">
+      <c r="BM110" s="22">
         <v>-5.9</v>
       </c>
-      <c r="BN110" s="23">
+      <c r="BN110" s="22">
         <v>4.3</v>
       </c>
     </row>
@@ -20314,7 +20321,7 @@
       <c r="AP111">
         <v>53.800000000000004</v>
       </c>
-      <c r="AQ111" s="17">
+      <c r="AQ111" s="16">
         <v>29.401</v>
       </c>
       <c r="AS111" s="12">
@@ -20378,10 +20385,10 @@
       <c r="BL111" s="11">
         <v>8.4</v>
       </c>
-      <c r="BM111" s="23">
+      <c r="BM111" s="22">
         <v>-18</v>
       </c>
-      <c r="BN111" s="23">
+      <c r="BN111" s="22">
         <v>-0.8</v>
       </c>
     </row>
@@ -20497,7 +20504,7 @@
       <c r="AP112">
         <v>55</v>
       </c>
-      <c r="AQ112" s="17">
+      <c r="AQ112" s="16">
         <v>32.905000000000001</v>
       </c>
       <c r="AS112" s="12">
@@ -20561,10 +20568,10 @@
       <c r="BL112" s="11">
         <v>10.1</v>
       </c>
-      <c r="BM112" s="23">
+      <c r="BM112" s="22">
         <v>-14.4</v>
       </c>
-      <c r="BN112" s="23">
+      <c r="BN112" s="22">
         <v>-5</v>
       </c>
     </row>
@@ -20680,7 +20687,7 @@
       <c r="AP113">
         <v>51.400000000000006</v>
       </c>
-      <c r="AQ113" s="17">
+      <c r="AQ113" s="16">
         <v>30.715</v>
       </c>
       <c r="AS113" s="12">
@@ -20744,10 +20751,10 @@
       <c r="BL113" s="11">
         <v>7.4</v>
       </c>
-      <c r="BM113" s="23">
+      <c r="BM113" s="22">
         <v>-3.6</v>
       </c>
-      <c r="BN113" s="23">
+      <c r="BN113" s="22">
         <v>9.1999999999999993</v>
       </c>
     </row>
@@ -20863,7 +20870,7 @@
       <c r="AP114">
         <v>47.900000000000006</v>
       </c>
-      <c r="AQ114" s="17">
+      <c r="AQ114" s="16">
         <v>30.654</v>
       </c>
       <c r="AS114" s="12">
@@ -20927,10 +20934,10 @@
       <c r="BL114" s="11">
         <v>6.4</v>
       </c>
-      <c r="BM114" s="23">
+      <c r="BM114" s="22">
         <v>-4.5999999999999996</v>
       </c>
-      <c r="BN114" s="23">
+      <c r="BN114" s="22">
         <v>-0.6</v>
       </c>
     </row>
@@ -21046,7 +21053,7 @@
       <c r="AP115">
         <v>42.699999999999996</v>
       </c>
-      <c r="AQ115" s="17">
+      <c r="AQ115" s="16">
         <v>30.088000000000001</v>
       </c>
       <c r="AS115" s="12">
@@ -21110,10 +21117,10 @@
       <c r="BL115" s="11">
         <v>2.5</v>
       </c>
-      <c r="BM115" s="23">
+      <c r="BM115" s="22">
         <v>-3.6</v>
       </c>
-      <c r="BN115" s="23">
+      <c r="BN115" s="22">
         <v>-1.3</v>
       </c>
     </row>
@@ -21229,7 +21236,7 @@
       <c r="AP116">
         <v>35</v>
       </c>
-      <c r="AQ116" s="17">
+      <c r="AQ116" s="16">
         <v>27.321999999999999</v>
       </c>
       <c r="AS116" s="12">
@@ -21293,10 +21300,10 @@
       <c r="BL116" s="11">
         <v>3.8</v>
       </c>
-      <c r="BM116" s="23">
+      <c r="BM116" s="22">
         <v>-10.199999999999999</v>
       </c>
-      <c r="BN116" s="23">
+      <c r="BN116" s="22">
         <v>-8.9</v>
       </c>
     </row>
@@ -21412,7 +21419,7 @@
       <c r="AP117">
         <v>44.4</v>
       </c>
-      <c r="AQ117" s="17">
+      <c r="AQ117" s="16">
         <v>25.033999999999999</v>
       </c>
       <c r="AS117" s="12">
@@ -21476,10 +21483,10 @@
       <c r="BL117" s="11">
         <v>1.4</v>
       </c>
-      <c r="BM117" s="23">
+      <c r="BM117" s="22">
         <v>-6.5</v>
       </c>
-      <c r="BN117" s="23">
+      <c r="BN117" s="22">
         <v>-4.2</v>
       </c>
     </row>
@@ -21595,7 +21602,7 @@
       <c r="AP118">
         <v>48</v>
       </c>
-      <c r="AQ118" s="17">
+      <c r="AQ118" s="16">
         <v>26.343</v>
       </c>
       <c r="AS118" s="12">
@@ -21659,10 +21666,10 @@
       <c r="BL118" s="11">
         <v>2.2000000000000002</v>
       </c>
-      <c r="BM118" s="23">
+      <c r="BM118" s="22">
         <v>9.4</v>
       </c>
-      <c r="BN118" s="23">
+      <c r="BN118" s="22">
         <v>7.6</v>
       </c>
     </row>
@@ -21778,7 +21785,7 @@
       <c r="AP119">
         <v>61.4</v>
       </c>
-      <c r="AQ119" s="17">
+      <c r="AQ119" s="16">
         <v>26.963999999999999</v>
       </c>
       <c r="AS119" s="12">
@@ -21842,10 +21849,10 @@
       <c r="BL119" s="11">
         <v>4.0999999999999996</v>
       </c>
-      <c r="BM119" s="23">
+      <c r="BM119" s="22">
         <v>-2.4</v>
       </c>
-      <c r="BN119" s="23">
+      <c r="BN119" s="22">
         <v>-0.1</v>
       </c>
     </row>
@@ -21961,7 +21968,7 @@
       <c r="AP120">
         <v>60.699999999999996</v>
       </c>
-      <c r="AQ120" s="17">
+      <c r="AQ120" s="16">
         <v>25.384</v>
       </c>
       <c r="AS120" s="12">
@@ -22025,10 +22032,10 @@
       <c r="BL120" s="11">
         <v>4.5</v>
       </c>
-      <c r="BM120" s="23">
+      <c r="BM120" s="22">
         <v>-1.5</v>
       </c>
-      <c r="BN120" s="23">
+      <c r="BN120" s="22">
         <v>0.1</v>
       </c>
     </row>
@@ -22144,7 +22151,7 @@
       <c r="AP121">
         <v>63</v>
       </c>
-      <c r="AQ121" s="17">
+      <c r="AQ121" s="16">
         <v>28.707999999999998</v>
       </c>
       <c r="AS121" s="12">
@@ -22208,10 +22215,10 @@
       <c r="BL121" s="11">
         <v>5.7</v>
       </c>
-      <c r="BM121" s="23">
+      <c r="BM121" s="22">
         <v>-10.7</v>
       </c>
-      <c r="BN121" s="23">
+      <c r="BN121" s="22">
         <v>-3.9</v>
       </c>
     </row>
@@ -22327,7 +22334,7 @@
       <c r="AP122">
         <v>61.9</v>
       </c>
-      <c r="AQ122" s="17">
+      <c r="AQ122" s="16">
         <v>17.149000000000001</v>
       </c>
       <c r="AS122" s="12">
@@ -22391,10 +22398,10 @@
       <c r="BL122" s="11">
         <v>4.7</v>
       </c>
-      <c r="BM122" s="23">
+      <c r="BM122" s="22">
         <v>-2.7</v>
       </c>
-      <c r="BN122" s="23">
+      <c r="BN122" s="22">
         <v>-0.2</v>
       </c>
     </row>
@@ -22510,7 +22517,7 @@
       <c r="AP123">
         <v>51.8</v>
       </c>
-      <c r="AQ123" s="17">
+      <c r="AQ123" s="16">
         <v>20.135000000000002</v>
       </c>
       <c r="AS123" s="12">
@@ -22574,10 +22581,10 @@
       <c r="BL123" s="11">
         <v>3.9</v>
       </c>
-      <c r="BM123" s="23">
+      <c r="BM123" s="22">
         <v>-5</v>
       </c>
-      <c r="BN123" s="23">
+      <c r="BN123" s="22">
         <v>-3</v>
       </c>
     </row>
@@ -22693,7 +22700,7 @@
       <c r="AP124">
         <v>54</v>
       </c>
-      <c r="AQ124" s="17">
+      <c r="AQ124" s="16">
         <v>23.184999999999999</v>
       </c>
       <c r="AS124" s="12">
@@ -22757,10 +22764,10 @@
       <c r="BL124" s="11">
         <v>3.9</v>
       </c>
-      <c r="BM124" s="23">
+      <c r="BM124" s="22">
         <v>-1.3</v>
       </c>
-      <c r="BN124" s="23">
+      <c r="BN124" s="22">
         <v>1.1000000000000001</v>
       </c>
     </row>
@@ -22876,7 +22883,7 @@
       <c r="AP125">
         <v>49.7</v>
       </c>
-      <c r="AQ125" s="17">
+      <c r="AQ125" s="16">
         <v>21.75</v>
       </c>
       <c r="AS125" s="12">
@@ -22940,10 +22947,10 @@
       <c r="BL125" s="11">
         <v>1.3</v>
       </c>
-      <c r="BM125" s="23">
+      <c r="BM125" s="22">
         <v>3.9</v>
       </c>
-      <c r="BN125" s="23">
+      <c r="BN125" s="22">
         <v>3.2</v>
       </c>
     </row>
@@ -23059,7 +23066,7 @@
       <c r="AP126">
         <v>46.1</v>
       </c>
-      <c r="AQ126" s="17">
+      <c r="AQ126" s="16">
         <v>22.042000000000002</v>
       </c>
       <c r="AS126" s="12">
@@ -23123,10 +23130,10 @@
       <c r="BL126" s="11">
         <v>2.4</v>
       </c>
-      <c r="BM126" s="23">
+      <c r="BM126" s="22">
         <v>0.3</v>
       </c>
-      <c r="BN126" s="23">
+      <c r="BN126" s="22">
         <v>-0.6</v>
       </c>
     </row>
@@ -23242,7 +23249,7 @@
       <c r="AP127">
         <v>43.300000000000004</v>
       </c>
-      <c r="AQ127" s="17">
+      <c r="AQ127" s="16">
         <v>24.038</v>
       </c>
       <c r="AS127" s="12">
@@ -23306,10 +23313,10 @@
       <c r="BL127" s="11">
         <v>-1.9</v>
       </c>
-      <c r="BM127" s="23">
+      <c r="BM127" s="22">
         <v>-1.3</v>
       </c>
-      <c r="BN127" s="23">
+      <c r="BN127" s="22">
         <v>-1.9</v>
       </c>
     </row>
@@ -23425,7 +23432,7 @@
       <c r="AP128">
         <v>44.3</v>
       </c>
-      <c r="AQ128" s="17">
+      <c r="AQ128" s="16">
         <v>22.445</v>
       </c>
       <c r="AS128" s="12">
@@ -23489,10 +23496,10 @@
       <c r="BL128" s="11">
         <v>0.3</v>
       </c>
-      <c r="BM128" s="23">
+      <c r="BM128" s="22">
         <v>-6.6</v>
       </c>
-      <c r="BN128" s="23">
+      <c r="BN128" s="22">
         <v>-6.7</v>
       </c>
     </row>
@@ -23608,7 +23615,7 @@
       <c r="AP129">
         <v>45.300000000000004</v>
       </c>
-      <c r="AQ129" s="17">
+      <c r="AQ129" s="16">
         <v>23.105</v>
       </c>
       <c r="AS129" s="12">
@@ -23672,10 +23679,10 @@
       <c r="BL129" s="11">
         <v>-1.8</v>
       </c>
-      <c r="BM129" s="23">
+      <c r="BM129" s="22">
         <v>1.9</v>
       </c>
-      <c r="BN129" s="23">
+      <c r="BN129" s="22">
         <v>-0.5</v>
       </c>
     </row>
@@ -23791,7 +23798,7 @@
       <c r="AP130">
         <v>50.7</v>
       </c>
-      <c r="AQ130" s="17">
+      <c r="AQ130" s="16">
         <v>25.369</v>
       </c>
       <c r="AS130" s="12">
@@ -23855,10 +23862,10 @@
       <c r="BL130" s="11">
         <v>1.6</v>
       </c>
-      <c r="BM130" s="23">
+      <c r="BM130" s="22">
         <v>-0.9</v>
       </c>
-      <c r="BN130" s="23">
+      <c r="BN130" s="22">
         <v>-0.4</v>
       </c>
     </row>
@@ -23974,7 +23981,7 @@
       <c r="AP131">
         <v>60.957900000000002</v>
       </c>
-      <c r="AQ131" s="17">
+      <c r="AQ131" s="16">
         <v>24.751000000000001</v>
       </c>
       <c r="AS131" s="12">
@@ -24038,10 +24045,10 @@
       <c r="BL131" s="11">
         <v>-0.3</v>
       </c>
-      <c r="BM131" s="23">
+      <c r="BM131" s="22">
         <v>9</v>
       </c>
-      <c r="BN131" s="23">
+      <c r="BN131" s="22">
         <v>5.9</v>
       </c>
     </row>
@@ -24145,7 +24152,7 @@
       <c r="AP132">
         <v>62.663899999999998</v>
       </c>
-      <c r="AQ132" s="17">
+      <c r="AQ132" s="16">
         <v>26.532</v>
       </c>
       <c r="AS132" s="12">
@@ -24209,10 +24216,10 @@
       <c r="BL132" s="11">
         <v>5.0999999999999996</v>
       </c>
-      <c r="BM132" s="23">
+      <c r="BM132" s="22">
         <v>-2.4</v>
       </c>
-      <c r="BN132" s="23">
+      <c r="BN132" s="22">
         <v>-0.1</v>
       </c>
     </row>
@@ -24316,7 +24323,7 @@
       <c r="AP133">
         <v>66.233399999999989</v>
       </c>
-      <c r="AQ133" s="17">
+      <c r="AQ133" s="16">
         <v>31.209</v>
       </c>
       <c r="AS133" s="12">
@@ -24380,10 +24387,10 @@
       <c r="BL133" s="11">
         <v>5.3</v>
       </c>
-      <c r="BM133" s="23">
+      <c r="BM133" s="22">
         <v>-0.4</v>
       </c>
-      <c r="BN133" s="23">
+      <c r="BN133" s="22">
         <v>7.9</v>
       </c>
     </row>
@@ -24487,7 +24494,7 @@
       <c r="AP134">
         <v>66.294899999999998</v>
       </c>
-      <c r="AQ134" s="17">
+      <c r="AQ134" s="16">
         <v>25.423999999999999</v>
       </c>
       <c r="AS134" s="12">
@@ -24551,10 +24558,10 @@
       <c r="BL134" s="11">
         <v>7.5</v>
       </c>
-      <c r="BM134" s="23">
+      <c r="BM134" s="22">
         <v>5.3</v>
       </c>
-      <c r="BN134" s="23">
+      <c r="BN134" s="22">
         <v>3.6</v>
       </c>
     </row>
@@ -24658,7 +24665,7 @@
       <c r="AP135">
         <v>58.067799999999998</v>
       </c>
-      <c r="AQ135" s="17">
+      <c r="AQ135" s="16">
         <v>25.82</v>
       </c>
       <c r="AS135" s="12">
@@ -24722,10 +24729,10 @@
       <c r="BL135" s="11">
         <v>6</v>
       </c>
-      <c r="BM135" s="23">
+      <c r="BM135" s="22">
         <v>0.9</v>
       </c>
-      <c r="BN135" s="23">
+      <c r="BN135" s="22">
         <v>-0.7</v>
       </c>
     </row>
@@ -24829,7 +24836,7 @@
       <c r="AP136">
         <v>56.808</v>
       </c>
-      <c r="AQ136" s="17">
+      <c r="AQ136" s="16">
         <v>31.329000000000001</v>
       </c>
       <c r="AS136" s="12">
@@ -24893,10 +24900,10 @@
       <c r="BL136" s="11">
         <v>7.6</v>
       </c>
-      <c r="BM136" s="23">
+      <c r="BM136" s="22">
         <v>-7.7</v>
       </c>
-      <c r="BN136" s="23">
+      <c r="BN136" s="22">
         <v>6.4</v>
       </c>
     </row>
@@ -25000,7 +25007,7 @@
       <c r="AP137">
         <v>54.719700000000003</v>
       </c>
-      <c r="AQ137" s="17">
+      <c r="AQ137" s="16">
         <v>26.048999999999999</v>
       </c>
       <c r="AS137" s="12">
@@ -25064,10 +25071,10 @@
       <c r="BL137" s="11">
         <v>1.4</v>
       </c>
-      <c r="BM137" s="23">
+      <c r="BM137" s="22">
         <v>1.3</v>
       </c>
-      <c r="BN137" s="23">
+      <c r="BN137" s="22">
         <v>-0.1</v>
       </c>
     </row>
@@ -25171,7 +25178,7 @@
       <c r="AP138">
         <v>55.9193</v>
       </c>
-      <c r="AQ138" s="17">
+      <c r="AQ138" s="16">
         <v>28.23</v>
       </c>
       <c r="AS138" s="12">
@@ -25235,10 +25242,10 @@
       <c r="BL138" s="11">
         <v>1.2</v>
       </c>
-      <c r="BM138" s="23">
+      <c r="BM138" s="22">
         <v>2.2999999999999998</v>
       </c>
-      <c r="BN138" s="23">
+      <c r="BN138" s="22">
         <v>1.7</v>
       </c>
     </row>
@@ -25354,7 +25361,7 @@
       <c r="AP139">
         <v>54.211600000000004</v>
       </c>
-      <c r="AQ139" s="17">
+      <c r="AQ139" s="16">
         <v>29.515000000000001</v>
       </c>
       <c r="AS139" s="12">
@@ -25418,10 +25425,10 @@
       <c r="BL139" s="11">
         <v>-0.8</v>
       </c>
-      <c r="BM139" s="23">
+      <c r="BM139" s="22">
         <v>2.5</v>
       </c>
-      <c r="BN139" s="23">
+      <c r="BN139" s="22">
         <v>2.5</v>
       </c>
     </row>
@@ -25537,7 +25544,7 @@
       <c r="AP140">
         <v>52.3626</v>
       </c>
-      <c r="AQ140" s="17">
+      <c r="AQ140" s="16">
         <v>24.634</v>
       </c>
       <c r="AS140" s="12">
@@ -25601,10 +25608,10 @@
       <c r="BL140" s="11">
         <v>-3.9</v>
       </c>
-      <c r="BM140" s="23">
+      <c r="BM140" s="22">
         <v>5.5</v>
       </c>
-      <c r="BN140" s="23">
+      <c r="BN140" s="22">
         <v>-6.8</v>
       </c>
     </row>
@@ -25720,7 +25727,7 @@
       <c r="AP141">
         <v>54.224100000000007</v>
       </c>
-      <c r="AQ141" s="17">
+      <c r="AQ141" s="16">
         <v>29.056000000000001</v>
       </c>
       <c r="AS141" s="12">
@@ -25784,10 +25791,10 @@
       <c r="BL141" s="11">
         <v>-1.1000000000000001</v>
       </c>
-      <c r="BM141" s="23">
+      <c r="BM141" s="22">
         <v>-1.7</v>
       </c>
-      <c r="BN141" s="23">
+      <c r="BN141" s="22">
         <v>-3.3</v>
       </c>
     </row>
@@ -25903,7 +25910,7 @@
       <c r="AP142">
         <v>54.401100000000007</v>
       </c>
-      <c r="AQ142" s="17">
+      <c r="AQ142" s="16">
         <v>30.751000000000001</v>
       </c>
       <c r="AS142" s="12">
@@ -25967,10 +25974,10 @@
       <c r="BL142" s="11">
         <v>1.8</v>
       </c>
-      <c r="BM142" s="23">
+      <c r="BM142" s="22">
         <v>2.5</v>
       </c>
-      <c r="BN142" s="23">
+      <c r="BN142" s="22">
         <v>6</v>
       </c>
     </row>
@@ -26086,7 +26093,7 @@
       <c r="AP143">
         <v>62.298973800000006</v>
       </c>
-      <c r="AQ143" s="17">
+      <c r="AQ143" s="16">
         <v>31.573</v>
       </c>
       <c r="AS143" s="12">
@@ -26150,10 +26157,10 @@
       <c r="BL143" s="11">
         <v>2.6</v>
       </c>
-      <c r="BM143" s="23">
+      <c r="BM143" s="22">
         <v>1.3</v>
       </c>
-      <c r="BN143" s="23">
+      <c r="BN143" s="22">
         <v>-1.8</v>
       </c>
     </row>
@@ -26269,7 +26276,7 @@
       <c r="AP144">
         <v>61.222630299999999</v>
       </c>
-      <c r="AQ144" s="17">
+      <c r="AQ144" s="16">
         <v>33.472999999999999</v>
       </c>
       <c r="AS144" s="12">
@@ -26333,10 +26340,10 @@
       <c r="BL144" s="11">
         <v>5.2</v>
       </c>
-      <c r="BM144" s="23">
+      <c r="BM144" s="22">
         <v>-4.8</v>
       </c>
-      <c r="BN144" s="23">
+      <c r="BN144" s="22">
         <v>1.4</v>
       </c>
     </row>
@@ -26452,7 +26459,7 @@
       <c r="AP145">
         <v>71.995705799999982</v>
       </c>
-      <c r="AQ145" s="17">
+      <c r="AQ145" s="16">
         <v>37.25</v>
       </c>
       <c r="AS145" s="12">
@@ -26516,10 +26523,10 @@
       <c r="BL145" s="11">
         <v>5.6</v>
       </c>
-      <c r="BM145" s="23">
+      <c r="BM145" s="22">
         <v>-4.5</v>
       </c>
-      <c r="BN145" s="23">
+      <c r="BN145" s="22">
         <v>6.9</v>
       </c>
     </row>
@@ -26635,7 +26642,7 @@
       <c r="AP146">
         <v>64.836412199999998</v>
       </c>
-      <c r="AQ146" s="17">
+      <c r="AQ146" s="16">
         <v>33.603999999999999</v>
       </c>
       <c r="AS146" s="12">
@@ -26699,10 +26706,10 @@
       <c r="BL146" s="11">
         <v>12.9</v>
       </c>
-      <c r="BM146" s="23">
+      <c r="BM146" s="22">
         <v>9.1</v>
       </c>
-      <c r="BN146" s="23">
+      <c r="BN146" s="22">
         <v>10.5</v>
       </c>
     </row>
@@ -26818,7 +26825,7 @@
       <c r="AP147">
         <v>58.590410200000008</v>
       </c>
-      <c r="AQ147" s="17">
+      <c r="AQ147" s="16">
         <v>31.297999999999998</v>
       </c>
       <c r="AS147" s="12">
@@ -26882,10 +26889,10 @@
       <c r="BL147" s="11">
         <v>7.8</v>
       </c>
-      <c r="BM147" s="23">
+      <c r="BM147" s="22">
         <v>2.5</v>
       </c>
-      <c r="BN147" s="23">
+      <c r="BN147" s="22">
         <v>-1.5</v>
       </c>
     </row>
@@ -27001,7 +27008,7 @@
       <c r="AP148">
         <v>65.840472000000005</v>
       </c>
-      <c r="AQ148" s="17">
+      <c r="AQ148" s="16">
         <v>36.627000000000002</v>
       </c>
       <c r="AS148" s="12">
@@ -27065,10 +27072,10 @@
       <c r="BL148" s="11">
         <v>9.3000000000000007</v>
       </c>
-      <c r="BM148" s="23">
+      <c r="BM148" s="22">
         <v>-6.9</v>
       </c>
-      <c r="BN148" s="23">
+      <c r="BN148" s="22">
         <v>8</v>
       </c>
     </row>
@@ -27184,7 +27191,7 @@
       <c r="AP149">
         <v>63.912609600000003</v>
       </c>
-      <c r="AQ149" s="17">
+      <c r="AQ149" s="16">
         <v>35.985999999999997</v>
       </c>
       <c r="AS149" s="12">
@@ -27248,10 +27255,10 @@
       <c r="BL149" s="11">
         <v>9.3000000000000007</v>
       </c>
-      <c r="BM149" s="23">
+      <c r="BM149" s="22">
         <v>-10.199999999999999</v>
       </c>
-      <c r="BN149" s="23">
+      <c r="BN149" s="22">
         <v>0.3</v>
       </c>
     </row>
@@ -27367,7 +27374,7 @@
       <c r="AP150">
         <v>60.50468260000001</v>
       </c>
-      <c r="AQ150" s="17">
+      <c r="AQ150" s="16">
         <v>36.502000000000002</v>
       </c>
       <c r="AS150" s="12">
@@ -27431,10 +27438,10 @@
       <c r="BL150" s="11">
         <v>7.6</v>
       </c>
-      <c r="BM150" s="23">
+      <c r="BM150" s="22">
         <v>-7</v>
       </c>
-      <c r="BN150" s="23">
+      <c r="BN150" s="22">
         <v>-5.5</v>
       </c>
     </row>
@@ -27550,7 +27557,7 @@
       <c r="AP151">
         <v>56.922180000000004</v>
       </c>
-      <c r="AQ151" s="17">
+      <c r="AQ151" s="16">
         <v>36.286000000000001</v>
       </c>
       <c r="AS151" s="12">
@@ -27614,10 +27621,10 @@
       <c r="BL151" s="11">
         <v>1</v>
       </c>
-      <c r="BM151" s="23">
+      <c r="BM151" s="22">
         <v>1.8</v>
       </c>
-      <c r="BN151" s="23">
+      <c r="BN151" s="22">
         <v>-0.9</v>
       </c>
     </row>
@@ -27733,7 +27740,7 @@
       <c r="AP152">
         <v>55.190180399999996</v>
       </c>
-      <c r="AQ152" s="17">
+      <c r="AQ152" s="16">
         <v>34.345999999999997</v>
       </c>
       <c r="AS152" s="11">
@@ -27797,10 +27804,10 @@
       <c r="BL152" s="11">
         <v>8.8000000000000007</v>
       </c>
-      <c r="BM152" s="23">
+      <c r="BM152" s="22">
         <v>-15.1</v>
       </c>
-      <c r="BN152" s="23">
+      <c r="BN152" s="22">
         <v>-6.9</v>
       </c>
     </row>
@@ -27916,7 +27923,7 @@
       <c r="AP153">
         <v>54.278324099999999</v>
       </c>
-      <c r="AQ153" s="17">
+      <c r="AQ153" s="16">
         <v>37.463000000000001</v>
       </c>
       <c r="AS153" s="11">
@@ -27980,10 +27987,10 @@
       <c r="BL153" s="11">
         <v>7.8</v>
       </c>
-      <c r="BM153" s="23">
+      <c r="BM153" s="22">
         <v>-2.7</v>
       </c>
-      <c r="BN153" s="23">
+      <c r="BN153" s="22">
         <v>2.1</v>
       </c>
     </row>
@@ -28099,7 +28106,7 @@
       <c r="AP154">
         <v>57.284358300000001</v>
       </c>
-      <c r="AQ154" s="17">
+      <c r="AQ154" s="16">
         <v>38.628999999999998</v>
       </c>
       <c r="AS154" s="11">
@@ -28163,10 +28170,10 @@
       <c r="BL154" s="11">
         <v>10.9</v>
       </c>
-      <c r="BM154" s="23">
+      <c r="BM154" s="22">
         <v>2.1</v>
       </c>
-      <c r="BN154" s="23">
+      <c r="BN154" s="22">
         <v>13.4</v>
       </c>
     </row>
@@ -28282,7 +28289,7 @@
       <c r="AP155">
         <v>62.859664564200017</v>
       </c>
-      <c r="AQ155" s="17">
+      <c r="AQ155" s="16">
         <v>41.295999999999999</v>
       </c>
       <c r="AS155" s="11">
@@ -28347,10 +28354,10 @@
       <c r="BL155" s="11">
         <v>13.6</v>
       </c>
-      <c r="BM155" s="23">
+      <c r="BM155" s="22">
         <v>-9</v>
       </c>
-      <c r="BN155" s="23">
+      <c r="BN155" s="22">
         <v>2.1</v>
       </c>
     </row>
@@ -28466,7 +28473,7 @@
       <c r="AP156">
         <v>63.242977099899989</v>
       </c>
-      <c r="AQ156" s="17">
+      <c r="AQ156" s="16">
         <v>40.253999999999998</v>
       </c>
       <c r="AS156" s="11">
@@ -28531,10 +28538,10 @@
       <c r="BL156" s="11">
         <v>13.7</v>
       </c>
-      <c r="BM156" s="23">
+      <c r="BM156" s="22">
         <v>-1.3</v>
       </c>
-      <c r="BN156" s="23">
+      <c r="BN156" s="22">
         <v>9.6999999999999993</v>
       </c>
     </row>
@@ -28650,7 +28657,7 @@
       <c r="AP157">
         <v>76.315448147999987</v>
       </c>
-      <c r="AQ157" s="17">
+      <c r="AQ157" s="16">
         <v>40.838000000000001</v>
       </c>
       <c r="AS157" s="11">
@@ -28715,10 +28722,10 @@
       <c r="BL157" s="11">
         <v>11.1</v>
       </c>
-      <c r="BM157" s="23">
+      <c r="BM157" s="22">
         <v>0.3</v>
       </c>
-      <c r="BN157" s="23">
+      <c r="BN157" s="22">
         <v>9.3000000000000007</v>
       </c>
     </row>
@@ -28834,7 +28841,7 @@
       <c r="AP158">
         <v>66.457322504999993</v>
       </c>
-      <c r="AQ158" s="17">
+      <c r="AQ158" s="16">
         <v>30.846</v>
       </c>
       <c r="AS158" s="11">
@@ -28878,10 +28885,10 @@
       <c r="BL158" s="11">
         <v>10.199999999999999</v>
       </c>
-      <c r="BM158" s="23">
+      <c r="BM158" s="22">
         <v>0.3</v>
       </c>
-      <c r="BN158" s="23">
+      <c r="BN158" s="22">
         <v>9</v>
       </c>
     </row>
@@ -28997,7 +29004,7 @@
       <c r="AP159">
         <v>61.344159479400005</v>
       </c>
-      <c r="AQ159" s="17">
+      <c r="AQ159" s="16">
         <v>34.746000000000002</v>
       </c>
       <c r="AS159" s="11">
@@ -29041,10 +29048,10 @@
       <c r="BL159" s="11">
         <v>12.2</v>
       </c>
-      <c r="BM159" s="23">
+      <c r="BM159" s="22">
         <v>4.0999999999999996</v>
       </c>
-      <c r="BN159" s="23">
+      <c r="BN159" s="22">
         <v>10.4</v>
       </c>
     </row>
@@ -29160,7 +29167,7 @@
       <c r="AP160">
         <v>68.34240993600001</v>
       </c>
-      <c r="AQ160" s="17">
+      <c r="AQ160" s="16">
         <v>37.029000000000003</v>
       </c>
       <c r="AS160" s="11">
@@ -29204,10 +29211,10 @@
       <c r="BL160" s="11">
         <v>11.1</v>
       </c>
-      <c r="BM160" s="23">
+      <c r="BM160" s="22">
         <v>7.5</v>
       </c>
-      <c r="BN160" s="23">
+      <c r="BN160" s="22">
         <v>4.9000000000000004</v>
       </c>
     </row>
@@ -29323,7 +29330,7 @@
       <c r="AP161">
         <v>65.574337449600009</v>
       </c>
-      <c r="AQ161" s="17">
+      <c r="AQ161" s="16">
         <v>36.670999999999999</v>
       </c>
       <c r="AS161" s="11">
@@ -29367,10 +29374,10 @@
       <c r="BL161" s="11">
         <v>6.6</v>
       </c>
-      <c r="BM161" s="23">
+      <c r="BM161" s="22">
         <v>-4.5</v>
       </c>
-      <c r="BN161" s="23">
+      <c r="BN161" s="22">
         <v>-0.8</v>
       </c>
     </row>
@@ -29477,7 +29484,7 @@
       <c r="AM162">
         <v>65.058300000000003</v>
       </c>
-      <c r="AQ162" s="17">
+      <c r="AQ162" s="16">
         <v>32.387</v>
       </c>
       <c r="AS162" s="11">
@@ -29521,10 +29528,10 @@
       <c r="BL162" s="11">
         <v>3.6</v>
       </c>
-      <c r="BM162" s="23">
+      <c r="BM162" s="22">
         <v>7.7</v>
       </c>
-      <c r="BN162" s="23">
+      <c r="BN162" s="22">
         <v>7.4</v>
       </c>
     </row>
@@ -29532,6 +29539,15 @@
       <c r="A163" s="2">
         <v>43617</v>
       </c>
+      <c r="E163">
+        <v>63.3</v>
+      </c>
+      <c r="F163">
+        <v>9.9</v>
+      </c>
+      <c r="G163" s="4">
+        <v>3.6</v>
+      </c>
       <c r="H163">
         <v>0</v>
       </c>
@@ -29607,16 +29623,23 @@
       <c r="AB163">
         <v>1</v>
       </c>
+      <c r="AC163">
+        <f>AC162</f>
+        <v>1.0898161701249609</v>
+      </c>
       <c r="AD163">
         <v>7.5</v>
       </c>
-      <c r="AE163" s="22">
-        <v>2.0840000000000001</v>
+      <c r="AE163" s="21">
+        <v>2.0070000000000001</v>
+      </c>
+      <c r="AL163">
+        <v>1.1299999999999999</v>
       </c>
       <c r="AM163">
         <v>63.075600000000001</v>
       </c>
-      <c r="AQ163" s="17">
+      <c r="AQ163" s="16">
         <v>32.375</v>
       </c>
       <c r="AS163" s="11">
@@ -29660,10 +29683,10 @@
       <c r="BL163" s="11">
         <v>-0.2</v>
       </c>
-      <c r="BM163" s="23">
+      <c r="BM163" s="22">
         <v>10.5</v>
       </c>
-      <c r="BN163" s="23">
+      <c r="BN163" s="22">
         <v>2</v>
       </c>
     </row>
@@ -29671,6 +29694,15 @@
       <c r="A164" s="2">
         <v>43647</v>
       </c>
+      <c r="E164">
+        <v>64</v>
+      </c>
+      <c r="F164">
+        <v>10.130000000000001</v>
+      </c>
+      <c r="G164" s="4">
+        <v>3.62</v>
+      </c>
       <c r="H164">
         <v>0</v>
       </c>
@@ -29740,16 +29772,23 @@
       <c r="Z164">
         <v>0</v>
       </c>
+      <c r="AC164">
+        <f t="shared" ref="AC164:AC173" si="47">AVERAGE(AC161:AC163)</f>
+        <v>1.0898161701249609</v>
+      </c>
       <c r="AD164">
         <v>7.5</v>
       </c>
       <c r="AE164">
-        <v>2.0209999999999999</v>
+        <v>2.0070000000000001</v>
+      </c>
+      <c r="AL164">
+        <v>1.1200000000000001</v>
       </c>
       <c r="AM164">
         <v>63.379100000000001</v>
       </c>
-      <c r="AQ164" s="17">
+      <c r="AQ164" s="16">
         <v>33.445999999999998</v>
       </c>
       <c r="AS164" s="11">
@@ -29793,10 +29832,10 @@
       <c r="BL164" s="11">
         <v>3.6</v>
       </c>
-      <c r="BM164" s="23">
+      <c r="BM164" s="22">
         <v>1.3</v>
       </c>
-      <c r="BN164" s="23">
+      <c r="BN164" s="22">
         <v>-6.9</v>
       </c>
     </row>
@@ -29804,6 +29843,15 @@
       <c r="A165" s="2">
         <v>43678</v>
       </c>
+      <c r="E165">
+        <v>59.3</v>
+      </c>
+      <c r="F165">
+        <v>10.86</v>
+      </c>
+      <c r="G165" s="4">
+        <v>3.68</v>
+      </c>
       <c r="H165">
         <v>0</v>
       </c>
@@ -29811,51 +29859,51 @@
         <v>1</v>
       </c>
       <c r="J165">
-        <f t="shared" ref="J165:U165" si="47">J153</f>
+        <f t="shared" ref="J165:U165" si="48">J153</f>
         <v>0</v>
       </c>
       <c r="K165">
-        <f t="shared" si="47"/>
+        <f t="shared" si="48"/>
         <v>0</v>
       </c>
       <c r="L165">
-        <f t="shared" si="47"/>
+        <f t="shared" si="48"/>
         <v>0</v>
       </c>
       <c r="M165">
-        <f t="shared" si="47"/>
+        <f t="shared" si="48"/>
         <v>0</v>
       </c>
       <c r="N165">
-        <f t="shared" si="47"/>
+        <f t="shared" si="48"/>
         <v>0</v>
       </c>
       <c r="O165">
-        <f t="shared" si="47"/>
+        <f t="shared" si="48"/>
         <v>0</v>
       </c>
       <c r="P165">
-        <f t="shared" si="47"/>
+        <f t="shared" si="48"/>
         <v>0</v>
       </c>
       <c r="Q165">
-        <f t="shared" si="47"/>
+        <f t="shared" si="48"/>
         <v>1</v>
       </c>
       <c r="R165">
-        <f t="shared" si="47"/>
+        <f t="shared" si="48"/>
         <v>0</v>
       </c>
       <c r="S165">
-        <f t="shared" si="47"/>
+        <f t="shared" si="48"/>
         <v>0</v>
       </c>
       <c r="T165">
-        <f t="shared" si="47"/>
+        <f t="shared" si="48"/>
         <v>0</v>
       </c>
       <c r="U165">
-        <f t="shared" si="47"/>
+        <f t="shared" si="48"/>
         <v>0</v>
       </c>
       <c r="V165" s="11">
@@ -29873,16 +29921,23 @@
       <c r="Z165">
         <v>0</v>
       </c>
+      <c r="AC165">
+        <f t="shared" si="47"/>
+        <v>1.0898161701249609</v>
+      </c>
       <c r="AD165">
         <v>7.25</v>
       </c>
       <c r="AE165">
-        <v>1.506</v>
+        <v>1.4990000000000001</v>
+      </c>
+      <c r="AL165">
+        <v>1.1100000000000001</v>
       </c>
       <c r="AM165">
         <v>66.489699999999999</v>
       </c>
-      <c r="AQ165" s="17">
+      <c r="AQ165" s="16">
         <v>34.369</v>
       </c>
       <c r="AS165" s="11">
@@ -29926,10 +29981,10 @@
       <c r="BL165" s="11">
         <v>2.1</v>
       </c>
-      <c r="BM165" s="23">
+      <c r="BM165" s="22">
         <v>-5.7</v>
       </c>
-      <c r="BN165" s="23">
+      <c r="BN165" s="22">
         <v>-3.4</v>
       </c>
     </row>
@@ -29937,6 +29992,15 @@
       <c r="A166" s="2">
         <v>43709</v>
       </c>
+      <c r="E166">
+        <v>62.3</v>
+      </c>
+      <c r="F166">
+        <v>10.86</v>
+      </c>
+      <c r="G166" s="4">
+        <v>4.21</v>
+      </c>
       <c r="H166">
         <v>0</v>
       </c>
@@ -29944,51 +30008,51 @@
         <v>1</v>
       </c>
       <c r="J166">
-        <f t="shared" ref="J166:U166" si="48">J154</f>
+        <f t="shared" ref="J166:U166" si="49">J154</f>
         <v>0</v>
       </c>
       <c r="K166">
-        <f t="shared" si="48"/>
+        <f t="shared" si="49"/>
         <v>0</v>
       </c>
       <c r="L166">
-        <f t="shared" si="48"/>
+        <f t="shared" si="49"/>
         <v>0</v>
       </c>
       <c r="M166">
-        <f t="shared" si="48"/>
+        <f t="shared" si="49"/>
         <v>0</v>
       </c>
       <c r="N166">
-        <f t="shared" si="48"/>
+        <f t="shared" si="49"/>
         <v>0</v>
       </c>
       <c r="O166">
-        <f t="shared" si="48"/>
+        <f t="shared" si="49"/>
         <v>0</v>
       </c>
       <c r="P166">
-        <f t="shared" si="48"/>
+        <f t="shared" si="49"/>
         <v>0</v>
       </c>
       <c r="Q166">
-        <f t="shared" si="48"/>
+        <f t="shared" si="49"/>
         <v>0</v>
       </c>
       <c r="R166">
-        <f t="shared" si="48"/>
+        <f t="shared" si="49"/>
         <v>1</v>
       </c>
       <c r="S166">
-        <f t="shared" si="48"/>
+        <f t="shared" si="49"/>
         <v>0</v>
       </c>
       <c r="T166">
-        <f t="shared" si="48"/>
+        <f t="shared" si="49"/>
         <v>0</v>
       </c>
       <c r="U166">
-        <f t="shared" si="48"/>
+        <f t="shared" si="49"/>
         <v>0</v>
       </c>
       <c r="V166" s="11">
@@ -30006,16 +30070,23 @@
       <c r="Z166">
         <v>0</v>
       </c>
+      <c r="AC166">
+        <f t="shared" si="47"/>
+        <v>1.0898161701249609</v>
+      </c>
       <c r="AD166">
         <v>7</v>
       </c>
       <c r="AE166">
-        <v>1.675</v>
+        <v>1.6879999999999999</v>
+      </c>
+      <c r="AL166">
+        <v>1.1000000000000001</v>
       </c>
       <c r="AM166">
         <v>64.415599999999998</v>
       </c>
-      <c r="AQ166" s="17">
+      <c r="AQ166" s="16">
         <v>35.546999999999997</v>
       </c>
       <c r="AS166" s="11">
@@ -30059,10 +30130,10 @@
       <c r="BL166" s="11">
         <v>5.2</v>
       </c>
-      <c r="BM166" s="23">
+      <c r="BM166" s="22">
         <v>3.5</v>
       </c>
-      <c r="BN166" s="23">
+      <c r="BN166" s="22">
         <v>2.2000000000000002</v>
       </c>
     </row>
@@ -30070,6 +30141,15 @@
       <c r="A167" s="2">
         <v>43739</v>
       </c>
+      <c r="E167">
+        <v>59.4</v>
+      </c>
+      <c r="F167">
+        <v>9.98</v>
+      </c>
+      <c r="G167">
+        <v>5.0599999999999996</v>
+      </c>
       <c r="H167">
         <v>0</v>
       </c>
@@ -30077,51 +30157,51 @@
         <v>1</v>
       </c>
       <c r="J167">
-        <f t="shared" ref="J167:U167" si="49">J155</f>
+        <f t="shared" ref="J167:U167" si="50">J155</f>
         <v>0</v>
       </c>
       <c r="K167">
-        <f t="shared" si="49"/>
+        <f t="shared" si="50"/>
         <v>0</v>
       </c>
       <c r="L167">
-        <f t="shared" si="49"/>
+        <f t="shared" si="50"/>
         <v>0</v>
       </c>
       <c r="M167">
-        <f t="shared" si="49"/>
+        <f t="shared" si="50"/>
         <v>0</v>
       </c>
       <c r="N167">
-        <f t="shared" si="49"/>
+        <f t="shared" si="50"/>
         <v>0</v>
       </c>
       <c r="O167">
-        <f t="shared" si="49"/>
+        <f t="shared" si="50"/>
         <v>0</v>
       </c>
       <c r="P167">
-        <f t="shared" si="49"/>
+        <f t="shared" si="50"/>
         <v>0</v>
       </c>
       <c r="Q167">
-        <f t="shared" si="49"/>
+        <f t="shared" si="50"/>
         <v>0</v>
       </c>
       <c r="R167">
-        <f t="shared" si="49"/>
+        <f t="shared" si="50"/>
         <v>0</v>
       </c>
       <c r="S167">
-        <f t="shared" si="49"/>
+        <f t="shared" si="50"/>
         <v>1</v>
       </c>
       <c r="T167">
-        <f t="shared" si="49"/>
+        <f t="shared" si="50"/>
         <v>0</v>
       </c>
       <c r="U167">
-        <f t="shared" si="49"/>
+        <f t="shared" si="50"/>
         <v>0</v>
       </c>
       <c r="V167" s="11">
@@ -30139,16 +30219,23 @@
       <c r="Z167">
         <v>0</v>
       </c>
+      <c r="AC167">
+        <f t="shared" si="47"/>
+        <v>1.0898161701249609</v>
+      </c>
       <c r="AD167">
         <v>7</v>
       </c>
       <c r="AE167">
-        <v>1.6910000000000001</v>
+        <v>1.6879999999999999</v>
+      </c>
+      <c r="AL167">
+        <v>1.1000000000000001</v>
       </c>
       <c r="AM167">
         <v>63.873399999999997</v>
       </c>
-      <c r="AQ167" s="17">
+      <c r="AQ167" s="16">
         <v>36.78</v>
       </c>
       <c r="AS167" s="11">
@@ -30192,10 +30279,10 @@
       <c r="BL167" s="11">
         <v>6.1</v>
       </c>
-      <c r="BM167" s="23">
+      <c r="BM167" s="22">
         <v>7.4</v>
       </c>
-      <c r="BN167" s="23">
+      <c r="BN167" s="22">
         <v>8.9</v>
       </c>
     </row>
@@ -30203,6 +30290,15 @@
       <c r="A168" s="2">
         <v>43770</v>
       </c>
+      <c r="E168">
+        <v>62.7</v>
+      </c>
+      <c r="F168">
+        <v>10.050000000000001</v>
+      </c>
+      <c r="G168">
+        <v>5.15</v>
+      </c>
       <c r="H168">
         <v>0</v>
       </c>
@@ -30210,51 +30306,51 @@
         <v>1</v>
       </c>
       <c r="J168">
-        <f t="shared" ref="J168:U168" si="50">J156</f>
+        <f t="shared" ref="J168:U168" si="51">J156</f>
         <v>0</v>
       </c>
       <c r="K168">
-        <f t="shared" si="50"/>
+        <f t="shared" si="51"/>
         <v>0</v>
       </c>
       <c r="L168">
-        <f t="shared" si="50"/>
+        <f t="shared" si="51"/>
         <v>0</v>
       </c>
       <c r="M168">
-        <f t="shared" si="50"/>
+        <f t="shared" si="51"/>
         <v>0</v>
       </c>
       <c r="N168">
-        <f t="shared" si="50"/>
+        <f t="shared" si="51"/>
         <v>0</v>
       </c>
       <c r="O168">
-        <f t="shared" si="50"/>
+        <f t="shared" si="51"/>
         <v>0</v>
       </c>
       <c r="P168">
-        <f t="shared" si="50"/>
+        <f t="shared" si="51"/>
         <v>0</v>
       </c>
       <c r="Q168">
-        <f t="shared" si="50"/>
+        <f t="shared" si="51"/>
         <v>0</v>
       </c>
       <c r="R168">
-        <f t="shared" si="50"/>
+        <f t="shared" si="51"/>
         <v>0</v>
       </c>
       <c r="S168">
-        <f t="shared" si="50"/>
+        <f t="shared" si="51"/>
         <v>0</v>
       </c>
       <c r="T168">
-        <f t="shared" si="50"/>
+        <f t="shared" si="51"/>
         <v>1</v>
       </c>
       <c r="U168">
-        <f t="shared" si="50"/>
+        <f t="shared" si="51"/>
         <v>0</v>
       </c>
       <c r="V168" s="11">
@@ -30272,16 +30368,23 @@
       <c r="Z168">
         <v>0</v>
       </c>
+      <c r="AC168">
+        <f t="shared" si="47"/>
+        <v>1.0898161701249609</v>
+      </c>
       <c r="AD168">
         <v>6.5</v>
       </c>
       <c r="AE168">
-        <v>1.776</v>
+        <v>1.774</v>
+      </c>
+      <c r="AL168">
+        <v>1.1000000000000001</v>
       </c>
       <c r="AM168">
         <v>64.081699999999998</v>
       </c>
-      <c r="AQ168" s="17">
+      <c r="AQ168" s="16">
         <v>35.49</v>
       </c>
       <c r="AS168" s="11">
@@ -30325,17 +30428,26 @@
       <c r="BL168" s="11">
         <v>4.9000000000000004</v>
       </c>
-      <c r="BM168" s="23">
+      <c r="BM168" s="22">
         <v>-2.1</v>
       </c>
-      <c r="BN168" s="23">
+      <c r="BN168" s="22">
         <v>2.5</v>
       </c>
     </row>
     <row r="169" spans="1:66" s="11" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A169" s="21">
+      <c r="A169" s="20">
         <v>43800</v>
       </c>
+      <c r="E169" s="11">
+        <v>65.900000000000006</v>
+      </c>
+      <c r="F169" s="11">
+        <v>10.050000000000001</v>
+      </c>
+      <c r="G169" s="11">
+        <v>4.62</v>
+      </c>
       <c r="H169" s="11">
         <v>0</v>
       </c>
@@ -30343,51 +30455,51 @@
         <v>1</v>
       </c>
       <c r="J169" s="11">
-        <f t="shared" ref="J169:U169" si="51">J157</f>
+        <f t="shared" ref="J169:U169" si="52">J157</f>
         <v>0</v>
       </c>
       <c r="K169" s="11">
-        <f t="shared" si="51"/>
+        <f t="shared" si="52"/>
         <v>0</v>
       </c>
       <c r="L169" s="11">
-        <f t="shared" si="51"/>
+        <f t="shared" si="52"/>
         <v>0</v>
       </c>
       <c r="M169" s="11">
-        <f t="shared" si="51"/>
+        <f t="shared" si="52"/>
         <v>0</v>
       </c>
       <c r="N169" s="11">
-        <f t="shared" si="51"/>
+        <f t="shared" si="52"/>
         <v>0</v>
       </c>
       <c r="O169" s="11">
-        <f t="shared" si="51"/>
+        <f t="shared" si="52"/>
         <v>0</v>
       </c>
       <c r="P169" s="11">
-        <f t="shared" si="51"/>
+        <f t="shared" si="52"/>
         <v>0</v>
       </c>
       <c r="Q169" s="11">
-        <f t="shared" si="51"/>
+        <f t="shared" si="52"/>
         <v>0</v>
       </c>
       <c r="R169" s="11">
-        <f t="shared" si="51"/>
+        <f t="shared" si="52"/>
         <v>0</v>
       </c>
       <c r="S169" s="11">
-        <f t="shared" si="51"/>
+        <f t="shared" si="52"/>
         <v>0</v>
       </c>
       <c r="T169" s="11">
-        <f t="shared" si="51"/>
+        <f t="shared" si="52"/>
         <v>0</v>
       </c>
       <c r="U169" s="11">
-        <f t="shared" si="51"/>
+        <f t="shared" si="52"/>
         <v>1</v>
       </c>
       <c r="V169" s="11">
@@ -30405,11 +30517,18 @@
       <c r="Z169" s="11">
         <v>0</v>
       </c>
+      <c r="AC169" s="11">
+        <f t="shared" si="47"/>
+        <v>1.0898161701249609</v>
+      </c>
       <c r="AD169" s="11">
         <v>6.25</v>
       </c>
       <c r="AE169" s="11">
         <v>1.919</v>
+      </c>
+      <c r="AL169" s="11">
+        <v>1.1100000000000001</v>
       </c>
       <c r="AM169" s="11">
         <v>61.905700000000003</v>
@@ -30458,10 +30577,10 @@
       <c r="BL169" s="11">
         <v>-0.9</v>
       </c>
-      <c r="BM169" s="23">
+      <c r="BM169" s="22">
         <v>-1.7</v>
       </c>
-      <c r="BN169" s="23">
+      <c r="BN169" s="22">
         <v>-12.5</v>
       </c>
     </row>
@@ -30518,16 +30637,20 @@
       <c r="Z170" s="11">
         <v>0</v>
       </c>
+      <c r="AC170" s="11">
+        <f t="shared" si="47"/>
+        <v>1.0898161701249609</v>
+      </c>
       <c r="AD170" s="11">
         <v>6.25</v>
       </c>
       <c r="AE170" s="11">
-        <v>1.52</v>
+        <v>1.5049999999999999</v>
       </c>
       <c r="AM170" s="11">
         <v>63.035899999999998</v>
       </c>
-      <c r="AQ170" s="17">
+      <c r="AQ170" s="16">
         <v>30.033999999999999</v>
       </c>
       <c r="AT170">
@@ -30594,16 +30717,20 @@
       <c r="Z171" s="11">
         <v>0</v>
       </c>
+      <c r="AC171" s="11">
+        <f>AVERAGE(AC168:AC170)</f>
+        <v>1.0898161701249609</v>
+      </c>
       <c r="AD171" s="11">
         <v>6</v>
       </c>
       <c r="AE171" s="11">
-        <v>1.127</v>
+        <v>1.163</v>
       </c>
       <c r="AM171" s="11">
         <v>66.990899999999996</v>
       </c>
-      <c r="AQ171" s="17">
+      <c r="AQ171" s="16">
         <v>28.123999999999999</v>
       </c>
       <c r="AT171">
@@ -30670,11 +30797,15 @@
       <c r="Z172" s="11">
         <v>0</v>
       </c>
+      <c r="AC172" s="11">
+        <f t="shared" si="47"/>
+        <v>1.0898161701249609</v>
+      </c>
       <c r="AD172" s="11">
         <v>5.5</v>
       </c>
       <c r="AE172" s="11">
-        <v>0.69799999999999995</v>
+        <v>0.66800000000000004</v>
       </c>
       <c r="AM172" s="11">
         <v>77.732500000000002</v>
@@ -30732,11 +30863,15 @@
       <c r="Z173" s="11">
         <v>0</v>
       </c>
+      <c r="AC173" s="11">
+        <f t="shared" si="47"/>
+        <v>1.0898161701249609</v>
+      </c>
       <c r="AD173" s="11">
         <v>5.5</v>
       </c>
       <c r="AE173" s="11">
-        <v>0.60899999999999999</v>
+        <v>0.64600000000000002</v>
       </c>
     </row>
   </sheetData>

--- a/data/data_month.xlsx
+++ b/data/data_month.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\DNS\balance_of_payments_model\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{122B4FE4-F4AC-4273-B7CF-3D34AA1FC2A7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96311329-1C4B-457E-9857-F69ECC1A619D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{6C71ADC8-FB5B-46E8-B9BB-33CF015882A6}"/>
   </bookViews>
@@ -242,10 +242,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0"/>
+    <numFmt numFmtId="165" formatCode="#,##0.0"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -280,8 +281,15 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
   </fonts>
-  <fills count="10">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -302,19 +310,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -391,18 +387,20 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="164" fontId="4" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="4" fillId="6" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="4" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="164" fontId="4" fillId="8" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="4" fillId="5" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -720,8 +718,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BFE8DC5-3CF9-4EEA-A486-440F262052B0}">
   <dimension ref="A1:BN173"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView tabSelected="1" topLeftCell="AR1" workbookViewId="0">
+      <selection activeCell="AX1" sqref="AX1:BD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -734,199 +732,199 @@
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="19" t="s">
+      <c r="B1" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="19" t="s">
+      <c r="D1" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="19" t="s">
+      <c r="E1" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="19" t="s">
+      <c r="F1" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="24" t="s">
+      <c r="G1" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="14" t="s">
+      <c r="H1" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="14" t="s">
+      <c r="I1" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="14" t="s">
+      <c r="J1" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="14" t="s">
+      <c r="K1" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="14" t="s">
+      <c r="L1" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="14" t="s">
+      <c r="M1" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="14" t="s">
+      <c r="N1" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="14" t="s">
+      <c r="O1" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="14" t="s">
+      <c r="P1" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="14" t="s">
+      <c r="Q1" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="14" t="s">
+      <c r="R1" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="14" t="s">
+      <c r="S1" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="14" t="s">
+      <c r="T1" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="14" t="s">
+      <c r="U1" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="14" t="s">
+      <c r="V1" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="14" t="s">
+      <c r="W1" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="14" t="s">
+      <c r="X1" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="14" t="s">
+      <c r="Y1" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="14" t="s">
+      <c r="Z1" s="13" t="s">
         <v>25</v>
       </c>
       <c r="AA1" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" s="14" t="s">
+      <c r="AB1" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" s="18" t="s">
+      <c r="AC1" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="AD1" s="14" t="s">
+      <c r="AD1" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="AE1" s="18" t="s">
+      <c r="AE1" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="AF1" s="18" t="s">
+      <c r="AF1" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="AG1" s="18" t="s">
+      <c r="AG1" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="AH1" s="18" t="s">
+      <c r="AH1" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="AI1" s="18" t="s">
+      <c r="AI1" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="AJ1" s="18" t="s">
+      <c r="AJ1" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="AK1" s="18" t="s">
+      <c r="AK1" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="AL1" s="18" t="s">
+      <c r="AL1" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="AM1" s="14" t="s">
+      <c r="AM1" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="AN1" s="25" t="s">
+      <c r="AN1" s="22" t="s">
         <v>39</v>
       </c>
-      <c r="AO1" s="25" t="s">
+      <c r="AO1" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="AP1" s="25" t="s">
+      <c r="AP1" s="22" t="s">
         <v>41</v>
       </c>
-      <c r="AQ1" s="14" t="s">
+      <c r="AQ1" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="AR1" s="18" t="s">
+      <c r="AR1" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="AS1" s="14" t="s">
+      <c r="AS1" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="AT1" s="14" t="s">
+      <c r="AT1" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="AU1" s="14" t="s">
+      <c r="AU1" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="AV1" s="14" t="s">
+      <c r="AV1" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="AW1" s="14" t="s">
+      <c r="AW1" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="AX1" s="13" t="s">
+      <c r="AX1" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="AY1" s="17" t="s">
+      <c r="AY1" s="25" t="s">
         <v>50</v>
       </c>
-      <c r="AZ1" s="17" t="s">
+      <c r="AZ1" s="25" t="s">
         <v>51</v>
       </c>
-      <c r="BA1" s="17" t="s">
+      <c r="BA1" s="25" t="s">
         <v>52</v>
       </c>
-      <c r="BB1" s="17" t="s">
+      <c r="BB1" s="25" t="s">
         <v>53</v>
       </c>
-      <c r="BC1" s="17" t="s">
+      <c r="BC1" s="25" t="s">
         <v>54</v>
       </c>
-      <c r="BD1" s="17" t="s">
+      <c r="BD1" s="25" t="s">
         <v>55</v>
       </c>
-      <c r="BE1" s="14" t="s">
+      <c r="BE1" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="BF1" s="14" t="s">
+      <c r="BF1" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="BG1" s="14" t="s">
+      <c r="BG1" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="BH1" s="14" t="s">
+      <c r="BH1" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="BI1" s="14" t="s">
+      <c r="BI1" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="BJ1" s="14" t="s">
+      <c r="BJ1" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="BK1" s="14" t="s">
+      <c r="BK1" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="BL1" s="14" t="s">
+      <c r="BL1" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="BM1" s="23" t="s">
+      <c r="BM1" s="20" t="s">
         <v>66</v>
       </c>
-      <c r="BN1" s="14" t="s">
+      <c r="BN1" s="13" t="s">
         <v>67</v>
       </c>
     </row>
@@ -1048,7 +1046,7 @@
       <c r="AP2">
         <v>60.7789</v>
       </c>
-      <c r="AQ2" s="16">
+      <c r="AQ2" s="14">
         <v>20.524000000000001</v>
       </c>
       <c r="AR2">
@@ -1058,19 +1056,19 @@
         <v>8.3109999999999999</v>
       </c>
       <c r="AX2">
-        <v>2269.8547122718346</v>
+        <v>2269.8547122718301</v>
       </c>
       <c r="AY2">
-        <v>1101.9679159642826</v>
+        <v>1101.9679159642801</v>
       </c>
       <c r="AZ2">
-        <v>375.35989775969091</v>
+        <v>375.35989775969102</v>
       </c>
       <c r="BA2">
-        <v>377.18462992236886</v>
+        <v>377.18462992236903</v>
       </c>
       <c r="BB2">
-        <v>745.82445635485976</v>
+        <v>745.82445635485999</v>
       </c>
       <c r="BC2">
         <v>419.43606208391299</v>
@@ -1211,7 +1209,7 @@
       <c r="AP3">
         <v>55.039199999999994</v>
       </c>
-      <c r="AQ3" s="16">
+      <c r="AQ3" s="14">
         <v>21.449000000000002</v>
       </c>
       <c r="AR3">
@@ -1221,19 +1219,19 @@
         <v>10.08</v>
       </c>
       <c r="AX3">
-        <v>2269.8547122718346</v>
+        <v>2269.8547122718301</v>
       </c>
       <c r="AY3">
-        <v>1101.9679159642826</v>
+        <v>1101.9679159642801</v>
       </c>
       <c r="AZ3">
-        <v>375.35989775969091</v>
+        <v>375.35989775969102</v>
       </c>
       <c r="BA3">
-        <v>377.18462992236886</v>
+        <v>377.18462992236903</v>
       </c>
       <c r="BB3">
-        <v>745.82445635485976</v>
+        <v>745.82445635485999</v>
       </c>
       <c r="BC3">
         <v>419.43606208391299</v>
@@ -1374,7 +1372,7 @@
       <c r="AP4">
         <v>58.553199999999997</v>
       </c>
-      <c r="AQ4" s="16">
+      <c r="AQ4" s="14">
         <v>24.439</v>
       </c>
       <c r="AR4">
@@ -1384,19 +1382,19 @@
         <v>12.353</v>
       </c>
       <c r="AX4">
-        <v>2269.8547122718346</v>
+        <v>2269.8547122718301</v>
       </c>
       <c r="AY4">
-        <v>1101.9679159642826</v>
+        <v>1101.9679159642801</v>
       </c>
       <c r="AZ4">
-        <v>375.35989775969091</v>
+        <v>375.35989775969102</v>
       </c>
       <c r="BA4">
-        <v>377.18462992236886</v>
+        <v>377.18462992236903</v>
       </c>
       <c r="BB4">
-        <v>745.82445635485976</v>
+        <v>745.82445635485999</v>
       </c>
       <c r="BC4">
         <v>419.43606208391299</v>
@@ -1537,7 +1535,7 @@
       <c r="AP5">
         <v>55.037599999999998</v>
       </c>
-      <c r="AQ5" s="16">
+      <c r="AQ5" s="14">
         <v>23.652000000000001</v>
       </c>
       <c r="AR5">
@@ -1547,25 +1545,25 @@
         <v>11.359</v>
       </c>
       <c r="AX5">
-        <v>2328.2848457611603</v>
+        <v>2328.2848457611599</v>
       </c>
       <c r="AY5">
-        <v>1167.2849208497239</v>
+        <v>1167.28492084972</v>
       </c>
       <c r="AZ5">
-        <v>396.04101466700513</v>
+        <v>396.04101466700502</v>
       </c>
       <c r="BA5">
-        <v>416.47346431408147</v>
+        <v>416.47346431408101</v>
       </c>
       <c r="BB5">
-        <v>752.74922399569562</v>
+        <v>752.74922399569596</v>
       </c>
       <c r="BC5">
-        <v>446.68480903926758</v>
+        <v>446.68480903926798</v>
       </c>
       <c r="BD5">
-        <v>42.421030973921539</v>
+        <v>42.421030973921503</v>
       </c>
       <c r="BE5">
         <v>12.292999999999999</v>
@@ -1700,7 +1698,7 @@
       <c r="AP6">
         <v>54.465900000000005</v>
       </c>
-      <c r="AQ6" s="16">
+      <c r="AQ6" s="14">
         <v>26.77</v>
       </c>
       <c r="AR6">
@@ -1710,25 +1708,25 @@
         <v>12.920999999999999</v>
       </c>
       <c r="AX6">
-        <v>2328.2848457611603</v>
+        <v>2328.2848457611599</v>
       </c>
       <c r="AY6">
-        <v>1167.2849208497239</v>
+        <v>1167.28492084972</v>
       </c>
       <c r="AZ6">
-        <v>396.04101466700513</v>
+        <v>396.04101466700502</v>
       </c>
       <c r="BA6">
-        <v>416.47346431408147</v>
+        <v>416.47346431408101</v>
       </c>
       <c r="BB6">
-        <v>752.74922399569562</v>
+        <v>752.74922399569596</v>
       </c>
       <c r="BC6">
-        <v>446.68480903926758</v>
+        <v>446.68480903926798</v>
       </c>
       <c r="BD6">
-        <v>42.421030973921539</v>
+        <v>42.421030973921503</v>
       </c>
       <c r="BE6">
         <v>13.849</v>
@@ -1863,7 +1861,7 @@
       <c r="AP7">
         <v>48.933800000000005</v>
       </c>
-      <c r="AQ7" s="16">
+      <c r="AQ7" s="14">
         <v>25.137</v>
       </c>
       <c r="AR7">
@@ -1873,25 +1871,25 @@
         <v>14.477</v>
       </c>
       <c r="AX7">
-        <v>2328.2848457611603</v>
+        <v>2328.2848457611599</v>
       </c>
       <c r="AY7">
-        <v>1167.2849208497239</v>
+        <v>1167.28492084972</v>
       </c>
       <c r="AZ7">
-        <v>396.04101466700513</v>
+        <v>396.04101466700502</v>
       </c>
       <c r="BA7">
-        <v>416.47346431408147</v>
+        <v>416.47346431408101</v>
       </c>
       <c r="BB7">
-        <v>752.74922399569562</v>
+        <v>752.74922399569596</v>
       </c>
       <c r="BC7">
-        <v>446.68480903926758</v>
+        <v>446.68480903926798</v>
       </c>
       <c r="BD7">
-        <v>42.421030973921539</v>
+        <v>42.421030973921503</v>
       </c>
       <c r="BE7">
         <v>10.66</v>
@@ -2026,7 +2024,7 @@
       <c r="AP8">
         <v>49.889199999999995</v>
       </c>
-      <c r="AQ8" s="16">
+      <c r="AQ8" s="14">
         <v>25.481999999999999</v>
       </c>
       <c r="AR8">
@@ -2036,25 +2034,25 @@
         <v>13.478999999999999</v>
       </c>
       <c r="AX8">
-        <v>2467.4950138434619</v>
+        <v>2467.4950138434601</v>
       </c>
       <c r="AY8">
-        <v>1229.1420034368023</v>
+        <v>1229.1420034368</v>
       </c>
       <c r="AZ8">
-        <v>417.26663311068756</v>
+        <v>417.26663311068802</v>
       </c>
       <c r="BA8">
-        <v>451.42118789408528</v>
+        <v>451.42118789408499</v>
       </c>
       <c r="BB8">
-        <v>763.46968080235922</v>
+        <v>763.46968080235899</v>
       </c>
       <c r="BC8">
-        <v>464.38837633992944</v>
+        <v>464.38837633993001</v>
       </c>
       <c r="BD8">
-        <v>70.58388493945715</v>
+        <v>70.583884939457207</v>
       </c>
       <c r="BE8">
         <v>12.003</v>
@@ -2189,7 +2187,7 @@
       <c r="AP9">
         <v>50.344900000000003</v>
       </c>
-      <c r="AQ9" s="16">
+      <c r="AQ9" s="14">
         <v>27.853000000000002</v>
       </c>
       <c r="AR9">
@@ -2199,25 +2197,25 @@
         <v>14.24</v>
       </c>
       <c r="AX9">
-        <v>2467.4950138434619</v>
+        <v>2467.4950138434601</v>
       </c>
       <c r="AY9">
-        <v>1229.1420034368023</v>
+        <v>1229.1420034368</v>
       </c>
       <c r="AZ9">
-        <v>417.26663311068756</v>
+        <v>417.26663311068802</v>
       </c>
       <c r="BA9">
-        <v>451.42118789408528</v>
+        <v>451.42118789408499</v>
       </c>
       <c r="BB9">
-        <v>763.46968080235922</v>
+        <v>763.46968080235899</v>
       </c>
       <c r="BC9">
-        <v>464.38837633992944</v>
+        <v>464.38837633993001</v>
       </c>
       <c r="BD9">
-        <v>70.58388493945715</v>
+        <v>70.583884939457207</v>
       </c>
       <c r="BE9">
         <v>13.613</v>
@@ -2352,7 +2350,7 @@
       <c r="AP10">
         <v>50.713000000000001</v>
       </c>
-      <c r="AQ10" s="16">
+      <c r="AQ10" s="14">
         <v>25.391999999999999</v>
       </c>
       <c r="AR10">
@@ -2362,25 +2360,25 @@
         <v>14.342000000000001</v>
       </c>
       <c r="AX10">
-        <v>2467.4950138434619</v>
+        <v>2467.4950138434601</v>
       </c>
       <c r="AY10">
-        <v>1229.1420034368023</v>
+        <v>1229.1420034368</v>
       </c>
       <c r="AZ10">
-        <v>417.26663311068756</v>
+        <v>417.26663311068802</v>
       </c>
       <c r="BA10">
-        <v>451.42118789408528</v>
+        <v>451.42118789408499</v>
       </c>
       <c r="BB10">
-        <v>763.46968080235922</v>
+        <v>763.46968080235899</v>
       </c>
       <c r="BC10">
-        <v>464.38837633992944</v>
+        <v>464.38837633993001</v>
       </c>
       <c r="BD10">
-        <v>70.58388493945715</v>
+        <v>70.583884939457207</v>
       </c>
       <c r="BE10">
         <v>11.05</v>
@@ -2515,7 +2513,7 @@
       <c r="AP11">
         <v>54.541499999999999</v>
       </c>
-      <c r="AQ11" s="16">
+      <c r="AQ11" s="14">
         <v>24.048999999999999</v>
       </c>
       <c r="AR11">
@@ -2525,25 +2523,25 @@
         <v>15.821</v>
       </c>
       <c r="AX11">
-        <v>2544.6702388378417</v>
+        <v>2544.6702388378399</v>
       </c>
       <c r="AY11">
-        <v>1294.0650790822215</v>
+        <v>1294.0650790822201</v>
       </c>
       <c r="AZ11">
-        <v>434.96879051115343</v>
+        <v>434.96879051115297</v>
       </c>
       <c r="BA11">
-        <v>490.5158349333235</v>
+        <v>490.51583493332402</v>
       </c>
       <c r="BB11">
-        <v>747.48739468965061</v>
+        <v>747.48739468965096</v>
       </c>
       <c r="BC11">
-        <v>512.59570944526138</v>
+        <v>512.59570944526104</v>
       </c>
       <c r="BD11">
-        <v>90.228849066754037</v>
+        <v>90.228849066754094</v>
       </c>
       <c r="BE11">
         <v>8.2279999999999998</v>
@@ -2678,7 +2676,7 @@
       <c r="AP12">
         <v>57.801300000000005</v>
       </c>
-      <c r="AQ12" s="16">
+      <c r="AQ12" s="14">
         <v>24.382000000000001</v>
       </c>
       <c r="AR12">
@@ -2688,25 +2686,25 @@
         <v>16.18</v>
       </c>
       <c r="AX12">
-        <v>2544.6702388378417</v>
+        <v>2544.6702388378399</v>
       </c>
       <c r="AY12">
-        <v>1294.0650790822215</v>
+        <v>1294.0650790822201</v>
       </c>
       <c r="AZ12">
-        <v>434.96879051115343</v>
+        <v>434.96879051115297</v>
       </c>
       <c r="BA12">
-        <v>490.5158349333235</v>
+        <v>490.51583493332402</v>
       </c>
       <c r="BB12">
-        <v>747.48739468965061</v>
+        <v>747.48739468965096</v>
       </c>
       <c r="BC12">
-        <v>512.59570944526138</v>
+        <v>512.59570944526104</v>
       </c>
       <c r="BD12">
-        <v>90.228849066754037</v>
+        <v>90.228849066754094</v>
       </c>
       <c r="BE12">
         <v>8.202</v>
@@ -2841,7 +2839,7 @@
       <c r="AP13">
         <v>60.1721</v>
       </c>
-      <c r="AQ13" s="16">
+      <c r="AQ13" s="14">
         <v>28.353999999999999</v>
       </c>
       <c r="AR13">
@@ -2851,25 +2849,25 @@
         <v>19.625</v>
       </c>
       <c r="AX13">
-        <v>2544.6702388378417</v>
+        <v>2544.6702388378399</v>
       </c>
       <c r="AY13">
-        <v>1294.0650790822215</v>
+        <v>1294.0650790822201</v>
       </c>
       <c r="AZ13">
-        <v>434.96879051115343</v>
+        <v>434.96879051115297</v>
       </c>
       <c r="BA13">
-        <v>490.5158349333235</v>
+        <v>490.51583493332402</v>
       </c>
       <c r="BB13">
-        <v>747.48739468965061</v>
+        <v>747.48739468965096</v>
       </c>
       <c r="BC13">
-        <v>512.59570944526138</v>
+        <v>512.59570944526104</v>
       </c>
       <c r="BD13">
-        <v>90.228849066754037</v>
+        <v>90.228849066754094</v>
       </c>
       <c r="BE13">
         <v>8.7289999999999992</v>
@@ -3005,7 +3003,7 @@
       <c r="AP14">
         <v>60.8384</v>
       </c>
-      <c r="AQ14" s="16">
+      <c r="AQ14" s="14">
         <v>21.286999999999999</v>
       </c>
       <c r="AR14">
@@ -3015,25 +3013,25 @@
         <v>11.654999999999999</v>
       </c>
       <c r="AX14">
-        <v>2656.7123409942333</v>
+        <v>2656.7123409942301</v>
       </c>
       <c r="AY14">
-        <v>1331.8378166545369</v>
+        <v>1331.8378166545399</v>
       </c>
       <c r="AZ14">
-        <v>457.26873018064157</v>
+        <v>457.26873018064202</v>
       </c>
       <c r="BA14">
-        <v>509.89378299987084</v>
+        <v>509.89378299987101</v>
       </c>
       <c r="BB14">
-        <v>754.24837890712513</v>
+        <v>754.24837890712502</v>
       </c>
       <c r="BC14">
-        <v>534.72857346999547</v>
+        <v>534.72857346999501</v>
       </c>
       <c r="BD14">
-        <v>138.19220572205418</v>
+        <v>138.19220572205401</v>
       </c>
       <c r="BE14">
         <v>9.6319999999999997</v>
@@ -3169,7 +3167,7 @@
       <c r="AP15">
         <v>55.001400000000004</v>
       </c>
-      <c r="AQ15" s="16">
+      <c r="AQ15" s="14">
         <v>22.945</v>
       </c>
       <c r="AR15">
@@ -3179,25 +3177,25 @@
         <v>14.073</v>
       </c>
       <c r="AX15">
-        <v>2656.7123409942333</v>
+        <v>2656.7123409942301</v>
       </c>
       <c r="AY15">
-        <v>1331.8378166545369</v>
+        <v>1331.8378166545399</v>
       </c>
       <c r="AZ15">
-        <v>457.26873018064157</v>
+        <v>457.26873018064202</v>
       </c>
       <c r="BA15">
-        <v>509.89378299987084</v>
+        <v>509.89378299987101</v>
       </c>
       <c r="BB15">
-        <v>754.24837890712513</v>
+        <v>754.24837890712502</v>
       </c>
       <c r="BC15">
-        <v>534.72857346999547</v>
+        <v>534.72857346999501</v>
       </c>
       <c r="BD15">
-        <v>138.19220572205418</v>
+        <v>138.19220572205401</v>
       </c>
       <c r="BE15">
         <v>8.8719999999999999</v>
@@ -3333,7 +3331,7 @@
       <c r="AP16">
         <v>59.426199999999994</v>
       </c>
-      <c r="AQ16" s="16">
+      <c r="AQ16" s="14">
         <v>25.945</v>
       </c>
       <c r="AR16">
@@ -3343,25 +3341,25 @@
         <v>16.884</v>
       </c>
       <c r="AX16">
-        <v>2656.7123409942333</v>
+        <v>2656.7123409942301</v>
       </c>
       <c r="AY16">
-        <v>1331.8378166545369</v>
+        <v>1331.8378166545399</v>
       </c>
       <c r="AZ16">
-        <v>457.26873018064157</v>
+        <v>457.26873018064202</v>
       </c>
       <c r="BA16">
-        <v>509.89378299987084</v>
+        <v>509.89378299987101</v>
       </c>
       <c r="BB16">
-        <v>754.24837890712513</v>
+        <v>754.24837890712502</v>
       </c>
       <c r="BC16">
-        <v>534.72857346999547</v>
+        <v>534.72857346999501</v>
       </c>
       <c r="BD16">
-        <v>138.19220572205418</v>
+        <v>138.19220572205401</v>
       </c>
       <c r="BE16">
         <v>9.0609999999999999</v>
@@ -3497,7 +3495,7 @@
       <c r="AP17">
         <v>56.155199999999994</v>
       </c>
-      <c r="AQ17" s="16">
+      <c r="AQ17" s="14">
         <v>26.994</v>
       </c>
       <c r="AR17">
@@ -3507,25 +3505,25 @@
         <v>16.693999999999999</v>
       </c>
       <c r="AX17">
-        <v>2839.9291059263846</v>
+        <v>2839.9291059263801</v>
       </c>
       <c r="AY17">
-        <v>1428.554467528138</v>
+        <v>1428.5544675281401</v>
       </c>
       <c r="AZ17">
-        <v>482.44131155024644</v>
+        <v>482.44131155024701</v>
       </c>
       <c r="BA17">
-        <v>572.17243054386051</v>
+        <v>572.17243054386097</v>
       </c>
       <c r="BB17">
-        <v>791.16452934925758</v>
+        <v>791.16452934925803</v>
       </c>
       <c r="BC17">
-        <v>570.24865775542139</v>
+        <v>570.24865775542105</v>
       </c>
       <c r="BD17">
-        <v>135.84502471030319</v>
+        <v>135.84502471030299</v>
       </c>
       <c r="BE17">
         <v>10.3</v>
@@ -3661,7 +3659,7 @@
       <c r="AP18">
         <v>53.566900000000004</v>
       </c>
-      <c r="AQ18" s="16">
+      <c r="AQ18" s="14">
         <v>28.681000000000001</v>
       </c>
       <c r="AR18">
@@ -3671,25 +3669,25 @@
         <v>17.452999999999999</v>
       </c>
       <c r="AX18">
-        <v>2839.9291059263846</v>
+        <v>2839.9291059263801</v>
       </c>
       <c r="AY18">
-        <v>1428.554467528138</v>
+        <v>1428.5544675281401</v>
       </c>
       <c r="AZ18">
-        <v>482.44131155024644</v>
+        <v>482.44131155024701</v>
       </c>
       <c r="BA18">
-        <v>572.17243054386051</v>
+        <v>572.17243054386097</v>
       </c>
       <c r="BB18">
-        <v>791.16452934925758</v>
+        <v>791.16452934925803</v>
       </c>
       <c r="BC18">
-        <v>570.24865775542139</v>
+        <v>570.24865775542105</v>
       </c>
       <c r="BD18">
-        <v>135.84502471030319</v>
+        <v>135.84502471030299</v>
       </c>
       <c r="BE18">
         <v>11.228</v>
@@ -3825,7 +3823,7 @@
       <c r="AP19">
         <v>48.597000000000001</v>
       </c>
-      <c r="AQ19" s="16">
+      <c r="AQ19" s="14">
         <v>26.193999999999999</v>
       </c>
       <c r="AR19">
@@ -3835,25 +3833,25 @@
         <v>18.541</v>
       </c>
       <c r="AX19">
-        <v>2839.9291059263846</v>
+        <v>2839.9291059263801</v>
       </c>
       <c r="AY19">
-        <v>1428.554467528138</v>
+        <v>1428.5544675281401</v>
       </c>
       <c r="AZ19">
-        <v>482.44131155024644</v>
+        <v>482.44131155024701</v>
       </c>
       <c r="BA19">
-        <v>572.17243054386051</v>
+        <v>572.17243054386097</v>
       </c>
       <c r="BB19">
-        <v>791.16452934925758</v>
+        <v>791.16452934925803</v>
       </c>
       <c r="BC19">
-        <v>570.24865775542139</v>
+        <v>570.24865775542105</v>
       </c>
       <c r="BD19">
-        <v>135.84502471030319</v>
+        <v>135.84502471030299</v>
       </c>
       <c r="BE19">
         <v>7.6529999999999996</v>
@@ -3989,7 +3987,7 @@
       <c r="AP20">
         <v>48.499300000000005</v>
       </c>
-      <c r="AQ20" s="16">
+      <c r="AQ20" s="14">
         <v>29.082999999999998</v>
       </c>
       <c r="AR20">
@@ -3999,25 +3997,25 @@
         <v>19.332000000000001</v>
       </c>
       <c r="AX20">
-        <v>3019.2374528909804</v>
+        <v>3019.23745289098</v>
       </c>
       <c r="AY20">
-        <v>1526.8593317275154</v>
+        <v>1526.8593317275199</v>
       </c>
       <c r="AZ20">
-        <v>510.35027832980057</v>
+        <v>510.35027832980097</v>
       </c>
       <c r="BA20">
-        <v>603.46618252804058</v>
+        <v>603.46618252804103</v>
       </c>
       <c r="BB20">
-        <v>822.80920229028379</v>
+        <v>822.80920229028402</v>
       </c>
       <c r="BC20">
-        <v>595.02479074382325</v>
+        <v>595.02479074382302</v>
       </c>
       <c r="BD20">
-        <v>150.77724875916329</v>
+        <v>150.777248759163</v>
       </c>
       <c r="BE20">
         <v>9.7509999999999994</v>
@@ -4153,7 +4151,7 @@
       <c r="AP21">
         <v>47.406300000000002</v>
       </c>
-      <c r="AQ21" s="16">
+      <c r="AQ21" s="14">
         <v>30.318000000000001</v>
       </c>
       <c r="AR21">
@@ -4163,25 +4161,25 @@
         <v>19.995000000000001</v>
       </c>
       <c r="AX21">
-        <v>3019.2374528909804</v>
+        <v>3019.23745289098</v>
       </c>
       <c r="AY21">
-        <v>1526.8593317275154</v>
+        <v>1526.8593317275199</v>
       </c>
       <c r="AZ21">
-        <v>510.35027832980057</v>
+        <v>510.35027832980097</v>
       </c>
       <c r="BA21">
-        <v>603.46618252804058</v>
+        <v>603.46618252804103</v>
       </c>
       <c r="BB21">
-        <v>822.80920229028379</v>
+        <v>822.80920229028402</v>
       </c>
       <c r="BC21">
-        <v>595.02479074382325</v>
+        <v>595.02479074382302</v>
       </c>
       <c r="BD21">
-        <v>150.77724875916329</v>
+        <v>150.777248759163</v>
       </c>
       <c r="BE21">
         <v>10.323</v>
@@ -4317,7 +4315,7 @@
       <c r="AP22">
         <v>48.5319</v>
       </c>
-      <c r="AQ22" s="16">
+      <c r="AQ22" s="14">
         <v>27.68</v>
       </c>
       <c r="AR22">
@@ -4327,25 +4325,25 @@
         <v>18.693000000000001</v>
       </c>
       <c r="AX22">
-        <v>3019.2374528909804</v>
+        <v>3019.23745289098</v>
       </c>
       <c r="AY22">
-        <v>1526.8593317275154</v>
+        <v>1526.8593317275199</v>
       </c>
       <c r="AZ22">
-        <v>510.35027832980057</v>
+        <v>510.35027832980097</v>
       </c>
       <c r="BA22">
-        <v>603.46618252804058</v>
+        <v>603.46618252804103</v>
       </c>
       <c r="BB22">
-        <v>822.80920229028379</v>
+        <v>822.80920229028402</v>
       </c>
       <c r="BC22">
-        <v>595.02479074382325</v>
+        <v>595.02479074382302</v>
       </c>
       <c r="BD22">
-        <v>150.77724875916329</v>
+        <v>150.777248759163</v>
       </c>
       <c r="BE22">
         <v>8.9870000000000001</v>
@@ -4481,7 +4479,7 @@
       <c r="AP23">
         <v>54.2271</v>
       </c>
-      <c r="AQ23" s="16">
+      <c r="AQ23" s="14">
         <v>34.436999999999998</v>
       </c>
       <c r="AR23">
@@ -4491,25 +4489,25 @@
         <v>22.225000000000001</v>
       </c>
       <c r="AX23">
-        <v>3332.7719917509107</v>
+        <v>3332.7719917509098</v>
       </c>
       <c r="AY23">
-        <v>1628.962311434663</v>
+        <v>1628.96231143466</v>
       </c>
       <c r="AZ23">
-        <v>545.55285796573662</v>
+        <v>545.55285796573696</v>
       </c>
       <c r="BA23">
-        <v>727.88790185461357</v>
+        <v>727.88790185461403</v>
       </c>
       <c r="BB23">
-        <v>945.92610191661981</v>
+        <v>945.92610191662004</v>
       </c>
       <c r="BC23">
-        <v>636.40922045860862</v>
+        <v>636.40922045860896</v>
       </c>
       <c r="BD23">
-        <v>120.85203903788624</v>
+        <v>120.852039037886</v>
       </c>
       <c r="BE23">
         <v>12.212</v>
@@ -4645,7 +4643,7 @@
       <c r="AP24">
         <v>58.793800000000005</v>
       </c>
-      <c r="AQ24" s="16">
+      <c r="AQ24" s="14">
         <v>35.197000000000003</v>
       </c>
       <c r="AR24">
@@ -4655,25 +4653,25 @@
         <v>22.61</v>
       </c>
       <c r="AX24">
-        <v>3332.7719917509107</v>
+        <v>3332.7719917509098</v>
       </c>
       <c r="AY24">
-        <v>1628.962311434663</v>
+        <v>1628.96231143466</v>
       </c>
       <c r="AZ24">
-        <v>545.55285796573662</v>
+        <v>545.55285796573696</v>
       </c>
       <c r="BA24">
-        <v>727.88790185461357</v>
+        <v>727.88790185461403</v>
       </c>
       <c r="BB24">
-        <v>945.92610191661981</v>
+        <v>945.92610191662004</v>
       </c>
       <c r="BC24">
-        <v>636.40922045860862</v>
+        <v>636.40922045860896</v>
       </c>
       <c r="BD24">
-        <v>120.85203903788624</v>
+        <v>120.852039037886</v>
       </c>
       <c r="BE24">
         <v>12.587</v>
@@ -4809,7 +4807,7 @@
       <c r="AP25">
         <v>61.6967</v>
       </c>
-      <c r="AQ25" s="16">
+      <c r="AQ25" s="14">
         <v>37.768999999999998</v>
       </c>
       <c r="AR25">
@@ -4819,25 +4817,25 @@
         <v>24.928000000000001</v>
       </c>
       <c r="AX25">
-        <v>3332.7719917509107</v>
+        <v>3332.7719917509098</v>
       </c>
       <c r="AY25">
-        <v>1628.962311434663</v>
+        <v>1628.96231143466</v>
       </c>
       <c r="AZ25">
-        <v>545.55285796573662</v>
+        <v>545.55285796573696</v>
       </c>
       <c r="BA25">
-        <v>727.88790185461357</v>
+        <v>727.88790185461403</v>
       </c>
       <c r="BB25">
-        <v>945.92610191661981</v>
+        <v>945.92610191662004</v>
       </c>
       <c r="BC25">
-        <v>636.40922045860862</v>
+        <v>636.40922045860896</v>
       </c>
       <c r="BD25">
-        <v>120.85203903788624</v>
+        <v>120.852039037886</v>
       </c>
       <c r="BE25">
         <v>12.840999999999999</v>
@@ -4973,7 +4971,7 @@
       <c r="AP26">
         <v>61.690899999999999</v>
       </c>
-      <c r="AQ26" s="16">
+      <c r="AQ26" s="14">
         <v>33.869999999999997</v>
       </c>
       <c r="AR26">
@@ -4983,25 +4981,25 @@
         <v>15.558</v>
       </c>
       <c r="AX26">
-        <v>3478.5839871455869</v>
+        <v>3478.5839871455901</v>
       </c>
       <c r="AY26">
-        <v>1683.8342360984568</v>
+        <v>1683.83423609846</v>
       </c>
       <c r="AZ26">
-        <v>579.73177279046706</v>
+        <v>579.73177279046695</v>
       </c>
       <c r="BA26">
         <v>750.25548980167503</v>
       </c>
       <c r="BB26">
-        <v>1056.3888113933126</v>
+        <v>1056.3888113933101</v>
       </c>
       <c r="BC26">
-        <v>692.17431381244387</v>
+        <v>692.17431381244398</v>
       </c>
       <c r="BD26">
-        <v>100.54799087411948</v>
+        <v>100.54799087411899</v>
       </c>
       <c r="BE26">
         <v>18.312000000000001</v>
@@ -5137,7 +5135,7 @@
       <c r="AP27">
         <v>57.986899999999999</v>
       </c>
-      <c r="AQ27" s="16">
+      <c r="AQ27" s="14">
         <v>35.094999999999999</v>
       </c>
       <c r="AR27">
@@ -5147,25 +5145,25 @@
         <v>20.977</v>
       </c>
       <c r="AX27">
-        <v>3478.5839871455869</v>
+        <v>3478.5839871455901</v>
       </c>
       <c r="AY27">
-        <v>1683.8342360984568</v>
+        <v>1683.83423609846</v>
       </c>
       <c r="AZ27">
-        <v>579.73177279046706</v>
+        <v>579.73177279046695</v>
       </c>
       <c r="BA27">
         <v>750.25548980167503</v>
       </c>
       <c r="BB27">
-        <v>1056.3888113933126</v>
+        <v>1056.3888113933101</v>
       </c>
       <c r="BC27">
-        <v>692.17431381244387</v>
+        <v>692.17431381244398</v>
       </c>
       <c r="BD27">
-        <v>100.54799087411948</v>
+        <v>100.54799087411899</v>
       </c>
       <c r="BE27">
         <v>14.118</v>
@@ -5301,7 +5299,7 @@
       <c r="AP28">
         <v>60.579300000000003</v>
       </c>
-      <c r="AQ28" s="16">
+      <c r="AQ28" s="14">
         <v>39.406999999999996</v>
       </c>
       <c r="AR28">
@@ -5311,25 +5309,25 @@
         <v>23.238</v>
       </c>
       <c r="AX28">
-        <v>3478.5839871455869</v>
+        <v>3478.5839871455901</v>
       </c>
       <c r="AY28">
-        <v>1683.8342360984568</v>
+        <v>1683.83423609846</v>
       </c>
       <c r="AZ28">
-        <v>579.73177279046706</v>
+        <v>579.73177279046695</v>
       </c>
       <c r="BA28">
         <v>750.25548980167503</v>
       </c>
       <c r="BB28">
-        <v>1056.3888113933126</v>
+        <v>1056.3888113933101</v>
       </c>
       <c r="BC28">
-        <v>692.17431381244387</v>
+        <v>692.17431381244398</v>
       </c>
       <c r="BD28">
-        <v>100.54799087411948</v>
+        <v>100.54799087411899</v>
       </c>
       <c r="BE28">
         <v>16.169</v>
@@ -5465,7 +5463,7 @@
       <c r="AP29">
         <v>57.860500000000002</v>
       </c>
-      <c r="AQ29" s="16">
+      <c r="AQ29" s="14">
         <v>40.524999999999999</v>
       </c>
       <c r="AR29">
@@ -5475,25 +5473,25 @@
         <v>25.210999999999999</v>
       </c>
       <c r="AX29">
-        <v>3743.2952900168784</v>
+        <v>3743.2952900168798</v>
       </c>
       <c r="AY29">
-        <v>1802.4125365219554</v>
+        <v>1802.41253652196</v>
       </c>
       <c r="AZ29">
-        <v>620.30110862279821</v>
+        <v>620.30110862279798</v>
       </c>
       <c r="BA29">
-        <v>809.74290981597517</v>
+        <v>809.74290981597505</v>
       </c>
       <c r="BB29">
-        <v>1087.6991124551776</v>
+        <v>1087.6991124551801</v>
       </c>
       <c r="BC29">
-        <v>744.4746817321128</v>
+        <v>744.47468173211303</v>
       </c>
       <c r="BD29">
-        <v>167.61430433308456</v>
+        <v>167.61430433308499</v>
       </c>
       <c r="BE29">
         <v>15.314</v>
@@ -5629,7 +5627,7 @@
       <c r="AP30">
         <v>56.198399999999999</v>
       </c>
-      <c r="AQ30" s="16">
+      <c r="AQ30" s="14">
         <v>42.478000000000002</v>
       </c>
       <c r="AR30">
@@ -5639,25 +5637,25 @@
         <v>24.286000000000001</v>
       </c>
       <c r="AX30">
-        <v>3743.2952900168784</v>
+        <v>3743.2952900168798</v>
       </c>
       <c r="AY30">
-        <v>1802.4125365219554</v>
+        <v>1802.41253652196</v>
       </c>
       <c r="AZ30">
-        <v>620.30110862279821</v>
+        <v>620.30110862279798</v>
       </c>
       <c r="BA30">
-        <v>809.74290981597517</v>
+        <v>809.74290981597505</v>
       </c>
       <c r="BB30">
-        <v>1087.6991124551776</v>
+        <v>1087.6991124551801</v>
       </c>
       <c r="BC30">
-        <v>744.4746817321128</v>
+        <v>744.47468173211303</v>
       </c>
       <c r="BD30">
-        <v>167.61430433308456</v>
+        <v>167.61430433308499</v>
       </c>
       <c r="BE30">
         <v>18.192</v>
@@ -5793,7 +5791,7 @@
       <c r="AP31">
         <v>51.569000000000003</v>
       </c>
-      <c r="AQ31" s="16">
+      <c r="AQ31" s="14">
         <v>43.024000000000001</v>
       </c>
       <c r="AR31">
@@ -5803,25 +5801,25 @@
         <v>25.311</v>
       </c>
       <c r="AX31">
-        <v>3743.2952900168784</v>
+        <v>3743.2952900168798</v>
       </c>
       <c r="AY31">
-        <v>1802.4125365219554</v>
+        <v>1802.41253652196</v>
       </c>
       <c r="AZ31">
-        <v>620.30110862279821</v>
+        <v>620.30110862279798</v>
       </c>
       <c r="BA31">
-        <v>809.74290981597517</v>
+        <v>809.74290981597505</v>
       </c>
       <c r="BB31">
-        <v>1087.6991124551776</v>
+        <v>1087.6991124551801</v>
       </c>
       <c r="BC31">
-        <v>744.4746817321128</v>
+        <v>744.47468173211303</v>
       </c>
       <c r="BD31">
-        <v>167.61430433308456</v>
+        <v>167.61430433308499</v>
       </c>
       <c r="BE31">
         <v>17.713000000000001</v>
@@ -5957,7 +5955,7 @@
       <c r="AP32">
         <v>49.344999999999999</v>
       </c>
-      <c r="AQ32" s="16">
+      <c r="AQ32" s="14">
         <v>46.545999999999999</v>
       </c>
       <c r="AR32">
@@ -5967,25 +5965,25 @@
         <v>28.686</v>
       </c>
       <c r="AX32">
-        <v>3914.3224731000355</v>
+        <v>3914.32247310004</v>
       </c>
       <c r="AY32">
-        <v>1927.9771387387402</v>
+        <v>1927.97713873874</v>
       </c>
       <c r="AZ32">
-        <v>657.88307976032172</v>
+        <v>657.88307976032195</v>
       </c>
       <c r="BA32">
-        <v>826.28497963343034</v>
+        <v>826.28497963343</v>
       </c>
       <c r="BB32">
-        <v>1182.0304031025487</v>
+        <v>1182.0304031025501</v>
       </c>
       <c r="BC32">
-        <v>798.32673981851542</v>
+        <v>798.32673981851599</v>
       </c>
       <c r="BD32">
-        <v>118.47361168351001</v>
+        <v>118.47361168351</v>
       </c>
       <c r="BE32">
         <v>17.86</v>
@@ -6121,7 +6119,7 @@
       <c r="AP33">
         <v>48.5122</v>
       </c>
-      <c r="AQ33" s="16">
+      <c r="AQ33" s="14">
         <v>44.951999999999998</v>
       </c>
       <c r="AR33">
@@ -6131,25 +6129,25 @@
         <v>27.13</v>
       </c>
       <c r="AX33">
-        <v>3914.3224731000355</v>
+        <v>3914.32247310004</v>
       </c>
       <c r="AY33">
-        <v>1927.9771387387402</v>
+        <v>1927.97713873874</v>
       </c>
       <c r="AZ33">
-        <v>657.88307976032172</v>
+        <v>657.88307976032195</v>
       </c>
       <c r="BA33">
-        <v>826.28497963343034</v>
+        <v>826.28497963343</v>
       </c>
       <c r="BB33">
-        <v>1182.0304031025487</v>
+        <v>1182.0304031025501</v>
       </c>
       <c r="BC33">
-        <v>798.32673981851542</v>
+        <v>798.32673981851599</v>
       </c>
       <c r="BD33">
-        <v>118.47361168351001</v>
+        <v>118.47361168351</v>
       </c>
       <c r="BE33">
         <v>17.821999999999999</v>
@@ -6285,7 +6283,7 @@
       <c r="AP34">
         <v>51.951500000000003</v>
       </c>
-      <c r="AQ34" s="16">
+      <c r="AQ34" s="14">
         <v>42.973999999999997</v>
       </c>
       <c r="AR34">
@@ -6295,25 +6293,25 @@
         <v>27.23</v>
       </c>
       <c r="AX34">
-        <v>3914.3224731000355</v>
+        <v>3914.32247310004</v>
       </c>
       <c r="AY34">
-        <v>1927.9771387387402</v>
+        <v>1927.97713873874</v>
       </c>
       <c r="AZ34">
-        <v>657.88307976032172</v>
+        <v>657.88307976032195</v>
       </c>
       <c r="BA34">
-        <v>826.28497963343034</v>
+        <v>826.28497963343</v>
       </c>
       <c r="BB34">
-        <v>1182.0304031025487</v>
+        <v>1182.0304031025501</v>
       </c>
       <c r="BC34">
-        <v>798.32673981851542</v>
+        <v>798.32673981851599</v>
       </c>
       <c r="BD34">
-        <v>118.47361168351001</v>
+        <v>118.47361168351</v>
       </c>
       <c r="BE34">
         <v>15.744</v>
@@ -6449,7 +6447,7 @@
       <c r="AP35">
         <v>56.078499999999998</v>
       </c>
-      <c r="AQ35" s="16">
+      <c r="AQ35" s="14">
         <v>38.383000000000003</v>
       </c>
       <c r="AR35">
@@ -6459,25 +6457,25 @@
         <v>26.710999999999999</v>
       </c>
       <c r="AX35">
-        <v>3612.3683273659012</v>
+        <v>3612.3683273658999</v>
       </c>
       <c r="AY35">
-        <v>1955.5322456181602</v>
+        <v>1955.53224561816</v>
       </c>
       <c r="AZ35">
-        <v>696.17288614323343</v>
+        <v>696.17288614323297</v>
       </c>
       <c r="BA35">
         <v>857.91150495456395</v>
       </c>
       <c r="BB35">
-        <v>958.81874316068286</v>
+        <v>958.81874316068297</v>
       </c>
       <c r="BC35">
-        <v>743.20995973406787</v>
+        <v>743.20995973406798</v>
       </c>
       <c r="BD35">
-        <v>-112.85709277667122</v>
+        <v>-112.857092776671</v>
       </c>
       <c r="BE35">
         <v>11.672000000000001</v>
@@ -6613,7 +6611,7 @@
       <c r="AP36">
         <v>54.581199999999995</v>
       </c>
-      <c r="AQ36" s="16">
+      <c r="AQ36" s="14">
         <v>29.353000000000002</v>
       </c>
       <c r="AR36">
@@ -6623,25 +6621,25 @@
         <v>21.076000000000001</v>
       </c>
       <c r="AX36">
-        <v>3612.3683273659012</v>
+        <v>3612.3683273658999</v>
       </c>
       <c r="AY36">
-        <v>1955.5322456181602</v>
+        <v>1955.53224561816</v>
       </c>
       <c r="AZ36">
-        <v>696.17288614323343</v>
+        <v>696.17288614323297</v>
       </c>
       <c r="BA36">
         <v>857.91150495456395</v>
       </c>
       <c r="BB36">
-        <v>958.81874316068286</v>
+        <v>958.81874316068297</v>
       </c>
       <c r="BC36">
-        <v>743.20995973406787</v>
+        <v>743.20995973406798</v>
       </c>
       <c r="BD36">
-        <v>-112.85709277667122</v>
+        <v>-112.857092776671</v>
       </c>
       <c r="BE36">
         <v>8.2769999999999992</v>
@@ -6777,7 +6775,7 @@
       <c r="AP37">
         <v>57.623400000000004</v>
       </c>
-      <c r="AQ37" s="16">
+      <c r="AQ37" s="14">
         <v>29.692</v>
       </c>
       <c r="AR37">
@@ -6787,25 +6785,25 @@
         <v>23.257999999999999</v>
       </c>
       <c r="AX37">
-        <v>3612.3683273659012</v>
+        <v>3612.3683273658999</v>
       </c>
       <c r="AY37">
-        <v>1955.5322456181602</v>
+        <v>1955.53224561816</v>
       </c>
       <c r="AZ37">
-        <v>696.17288614323343</v>
+        <v>696.17288614323297</v>
       </c>
       <c r="BA37">
         <v>857.91150495456395</v>
       </c>
       <c r="BB37">
-        <v>958.81874316068286</v>
+        <v>958.81874316068297</v>
       </c>
       <c r="BC37">
-        <v>743.20995973406787</v>
+        <v>743.20995973406798</v>
       </c>
       <c r="BD37">
-        <v>-112.85709277667122</v>
+        <v>-112.857092776671</v>
       </c>
       <c r="BE37">
         <v>6.4340000000000002</v>
@@ -6941,7 +6939,7 @@
       <c r="AP38">
         <v>55.0199</v>
       </c>
-      <c r="AQ38" s="16">
+      <c r="AQ38" s="14">
         <v>18.867999999999999</v>
       </c>
       <c r="AR38">
@@ -6951,25 +6949,25 @@
         <v>10.28</v>
       </c>
       <c r="AX38">
-        <v>3252.2015864780919</v>
+        <v>3252.2015864780901</v>
       </c>
       <c r="AY38">
-        <v>1916.0042639105359</v>
+        <v>1916.00426391054</v>
       </c>
       <c r="AZ38">
-        <v>659.29729229633722</v>
+        <v>659.29729229633699</v>
       </c>
       <c r="BA38">
-        <v>764.96516937579088</v>
+        <v>764.96516937579099</v>
       </c>
       <c r="BB38">
-        <v>779.75521978356721</v>
+        <v>779.75521978356699</v>
       </c>
       <c r="BC38">
-        <v>670.74751059619973</v>
+        <v>670.74751059619996</v>
       </c>
       <c r="BD38">
-        <v>-197.07284829193941</v>
+        <v>-197.07284829193901</v>
       </c>
       <c r="BE38">
         <v>8.5879999999999992</v>
@@ -7105,7 +7103,7 @@
       <c r="AP39">
         <v>49.463999999999999</v>
       </c>
-      <c r="AQ39" s="16">
+      <c r="AQ39" s="14">
         <v>17.419</v>
       </c>
       <c r="AR39">
@@ -7115,25 +7113,25 @@
         <v>13.21</v>
       </c>
       <c r="AX39">
-        <v>3252.2015864780919</v>
+        <v>3252.2015864780901</v>
       </c>
       <c r="AY39">
-        <v>1916.0042639105359</v>
+        <v>1916.00426391054</v>
       </c>
       <c r="AZ39">
-        <v>659.29729229633722</v>
+        <v>659.29729229633699</v>
       </c>
       <c r="BA39">
-        <v>764.96516937579088</v>
+        <v>764.96516937579099</v>
       </c>
       <c r="BB39">
-        <v>779.75521978356721</v>
+        <v>779.75521978356699</v>
       </c>
       <c r="BC39">
-        <v>670.74751059619973</v>
+        <v>670.74751059619996</v>
       </c>
       <c r="BD39">
-        <v>-197.07284829193941</v>
+        <v>-197.07284829193901</v>
       </c>
       <c r="BE39">
         <v>4.2089999999999996</v>
@@ -7269,7 +7267,7 @@
       <c r="AP40">
         <v>48.945999999999998</v>
       </c>
-      <c r="AQ40" s="16">
+      <c r="AQ40" s="14">
         <v>21.466999999999999</v>
       </c>
       <c r="AR40">
@@ -7279,25 +7277,25 @@
         <v>14.23</v>
       </c>
       <c r="AX40">
-        <v>3252.2015864780919</v>
+        <v>3252.2015864780901</v>
       </c>
       <c r="AY40">
-        <v>1916.0042639105359</v>
+        <v>1916.00426391054</v>
       </c>
       <c r="AZ40">
-        <v>659.29729229633722</v>
+        <v>659.29729229633699</v>
       </c>
       <c r="BA40">
-        <v>764.96516937579088</v>
+        <v>764.96516937579099</v>
       </c>
       <c r="BB40">
-        <v>779.75521978356721</v>
+        <v>779.75521978356699</v>
       </c>
       <c r="BC40">
-        <v>670.74751059619973</v>
+        <v>670.74751059619996</v>
       </c>
       <c r="BD40">
-        <v>-197.07284829193941</v>
+        <v>-197.07284829193901</v>
       </c>
       <c r="BE40">
         <v>7.2370000000000001</v>
@@ -7433,7 +7431,7 @@
       <c r="AP41">
         <v>44.070999999999998</v>
       </c>
-      <c r="AQ41" s="16">
+      <c r="AQ41" s="14">
         <v>18.835999999999999</v>
       </c>
       <c r="AR41">
@@ -7443,25 +7441,25 @@
         <v>14.146000000000001</v>
       </c>
       <c r="AX41">
-        <v>3403.1549427279756</v>
+        <v>3403.1549427279801</v>
       </c>
       <c r="AY41">
-        <v>1922.1432980877989</v>
+        <v>1922.1432980878001</v>
       </c>
       <c r="AZ41">
-        <v>691.17521708913989</v>
+        <v>691.17521708914001</v>
       </c>
       <c r="BA41">
-        <v>734.38043010202875</v>
+        <v>734.38043010202898</v>
       </c>
       <c r="BB41">
-        <v>850.56635883153069</v>
+        <v>850.56635883153103</v>
       </c>
       <c r="BC41">
-        <v>631.12471942905324</v>
+        <v>631.12471942905302</v>
       </c>
       <c r="BD41">
-        <v>-163.98564195346935</v>
+        <v>-163.98564195346901</v>
       </c>
       <c r="BE41">
         <v>4.6900000000000004</v>
@@ -7597,7 +7595,7 @@
       <c r="AP42">
         <v>40.2438</v>
       </c>
-      <c r="AQ42" s="16">
+      <c r="AQ42" s="14">
         <v>21.158999999999999</v>
       </c>
       <c r="AR42">
@@ -7607,25 +7605,25 @@
         <v>13.115</v>
       </c>
       <c r="AX42">
-        <v>3403.1549427279756</v>
+        <v>3403.1549427279801</v>
       </c>
       <c r="AY42">
-        <v>1922.1432980877989</v>
+        <v>1922.1432980878001</v>
       </c>
       <c r="AZ42">
-        <v>691.17521708913989</v>
+        <v>691.17521708914001</v>
       </c>
       <c r="BA42">
-        <v>734.38043010202875</v>
+        <v>734.38043010202898</v>
       </c>
       <c r="BB42">
-        <v>850.56635883153069</v>
+        <v>850.56635883153103</v>
       </c>
       <c r="BC42">
-        <v>631.12471942905324</v>
+        <v>631.12471942905302</v>
       </c>
       <c r="BD42">
-        <v>-163.98564195346935</v>
+        <v>-163.98564195346901</v>
       </c>
       <c r="BE42">
         <v>8.0440000000000005</v>
@@ -7761,7 +7759,7 @@
       <c r="AP43">
         <v>36.573599999999999</v>
       </c>
-      <c r="AQ43" s="16">
+      <c r="AQ43" s="14">
         <v>23.573</v>
       </c>
       <c r="AR43">
@@ -7771,25 +7769,25 @@
         <v>14.669</v>
       </c>
       <c r="AX43">
-        <v>3403.1549427279756</v>
+        <v>3403.1549427279801</v>
       </c>
       <c r="AY43">
-        <v>1922.1432980877989</v>
+        <v>1922.1432980878001</v>
       </c>
       <c r="AZ43">
-        <v>691.17521708913989</v>
+        <v>691.17521708914001</v>
       </c>
       <c r="BA43">
-        <v>734.38043010202875</v>
+        <v>734.38043010202898</v>
       </c>
       <c r="BB43">
-        <v>850.56635883153069</v>
+        <v>850.56635883153103</v>
       </c>
       <c r="BC43">
-        <v>631.12471942905324</v>
+        <v>631.12471942905302</v>
       </c>
       <c r="BD43">
-        <v>-163.98564195346935</v>
+        <v>-163.98564195346901</v>
       </c>
       <c r="BE43">
         <v>8.9039999999999999</v>
@@ -7925,7 +7923,7 @@
       <c r="AP44">
         <v>41.738099999999996</v>
       </c>
-      <c r="AQ44" s="16">
+      <c r="AQ44" s="14">
         <v>26.166</v>
       </c>
       <c r="AR44">
@@ -7935,25 +7933,25 @@
         <v>15.212999999999999</v>
       </c>
       <c r="AX44">
-        <v>3609.6682326073787</v>
+        <v>3609.6682326073801</v>
       </c>
       <c r="AY44">
-        <v>1931.5757256887971</v>
+        <v>1931.5757256888</v>
       </c>
       <c r="AZ44">
-        <v>709.87943335325269</v>
+        <v>709.87943335325303</v>
       </c>
       <c r="BA44">
-        <v>759.59434714616236</v>
+        <v>759.59434714616202</v>
       </c>
       <c r="BB44">
-        <v>983.32126389669929</v>
+        <v>983.32126389669895</v>
       </c>
       <c r="BC44">
-        <v>634.46963472000482</v>
+        <v>634.46963472000505</v>
       </c>
       <c r="BD44">
-        <v>-140.23290275752774</v>
+        <v>-140.232902757528</v>
       </c>
       <c r="BE44">
         <v>10.952999999999999</v>
@@ -8089,7 +8087,7 @@
       <c r="AP45">
         <v>43.4908</v>
       </c>
-      <c r="AQ45" s="16">
+      <c r="AQ45" s="14">
         <v>26.805</v>
       </c>
       <c r="AR45">
@@ -8099,25 +8097,25 @@
         <v>14.818</v>
       </c>
       <c r="AX45">
-        <v>3609.6682326073787</v>
+        <v>3609.6682326073801</v>
       </c>
       <c r="AY45">
-        <v>1931.5757256887971</v>
+        <v>1931.5757256888</v>
       </c>
       <c r="AZ45">
-        <v>709.87943335325269</v>
+        <v>709.87943335325303</v>
       </c>
       <c r="BA45">
-        <v>759.59434714616236</v>
+        <v>759.59434714616202</v>
       </c>
       <c r="BB45">
-        <v>983.32126389669929</v>
+        <v>983.32126389669895</v>
       </c>
       <c r="BC45">
-        <v>634.46963472000482</v>
+        <v>634.46963472000505</v>
       </c>
       <c r="BD45">
-        <v>-140.23290275752774</v>
+        <v>-140.232902757528</v>
       </c>
       <c r="BE45">
         <v>11.987</v>
@@ -8253,7 +8251,7 @@
       <c r="AP46">
         <v>45.974899999999998</v>
       </c>
-      <c r="AQ46" s="16">
+      <c r="AQ46" s="14">
         <v>28.613</v>
       </c>
       <c r="AR46">
@@ -8263,25 +8261,25 @@
         <v>16.811</v>
       </c>
       <c r="AX46">
-        <v>3609.6682326073787</v>
+        <v>3609.6682326073801</v>
       </c>
       <c r="AY46">
-        <v>1931.5757256887971</v>
+        <v>1931.5757256888</v>
       </c>
       <c r="AZ46">
-        <v>709.87943335325269</v>
+        <v>709.87943335325303</v>
       </c>
       <c r="BA46">
-        <v>759.59434714616236</v>
+        <v>759.59434714616202</v>
       </c>
       <c r="BB46">
-        <v>983.32126389669929</v>
+        <v>983.32126389669895</v>
       </c>
       <c r="BC46">
-        <v>634.46963472000482</v>
+        <v>634.46963472000505</v>
       </c>
       <c r="BD46">
-        <v>-140.23290275752774</v>
+        <v>-140.232902757528</v>
       </c>
       <c r="BE46">
         <v>11.802</v>
@@ -8417,7 +8415,7 @@
       <c r="AP47">
         <v>55.893900000000002</v>
       </c>
-      <c r="AQ47" s="16">
+      <c r="AQ47" s="14">
         <v>30.161999999999999</v>
       </c>
       <c r="AR47">
@@ -8427,25 +8425,25 @@
         <v>18.408999999999999</v>
       </c>
       <c r="AX47">
-        <v>3589.713646993197</v>
+        <v>3589.7136469932002</v>
       </c>
       <c r="AY47">
-        <v>1983.3171112350644</v>
+        <v>1983.3171112350601</v>
       </c>
       <c r="AZ47">
-        <v>735.85354445674454</v>
+        <v>735.853544456745</v>
       </c>
       <c r="BA47">
         <v>740.18483333312599</v>
       </c>
       <c r="BB47">
-        <v>970.1166733232576</v>
+        <v>970.11667332325806</v>
       </c>
       <c r="BC47">
         <v>682.13071928676004</v>
       </c>
       <c r="BD47">
-        <v>-157.6277960682356</v>
+        <v>-157.62779606823599</v>
       </c>
       <c r="BE47">
         <v>11.753</v>
@@ -8581,7 +8579,7 @@
       <c r="AP48">
         <v>58.200400000000002</v>
       </c>
-      <c r="AQ48" s="16">
+      <c r="AQ48" s="14">
         <v>30.4</v>
       </c>
       <c r="AR48">
@@ -8591,25 +8589,25 @@
         <v>18.442</v>
       </c>
       <c r="AX48">
-        <v>3589.713646993197</v>
+        <v>3589.7136469932002</v>
       </c>
       <c r="AY48">
-        <v>1983.3171112350644</v>
+        <v>1983.3171112350601</v>
       </c>
       <c r="AZ48">
-        <v>735.85354445674454</v>
+        <v>735.853544456745</v>
       </c>
       <c r="BA48">
         <v>740.18483333312599</v>
       </c>
       <c r="BB48">
-        <v>970.1166733232576</v>
+        <v>970.11667332325806</v>
       </c>
       <c r="BC48">
         <v>682.13071928676004</v>
       </c>
       <c r="BD48">
-        <v>-157.6277960682356</v>
+        <v>-157.62779606823599</v>
       </c>
       <c r="BE48">
         <v>11.958</v>
@@ -8745,7 +8743,7 @@
       <c r="AP49">
         <v>63.019800000000004</v>
       </c>
-      <c r="AQ49" s="16">
+      <c r="AQ49" s="14">
         <v>33.686999999999998</v>
       </c>
       <c r="AR49">
@@ -8755,25 +8753,25 @@
         <v>20.58</v>
       </c>
       <c r="AX49">
-        <v>3589.713646993197</v>
+        <v>3589.7136469932002</v>
       </c>
       <c r="AY49">
-        <v>1983.3171112350644</v>
+        <v>1983.3171112350601</v>
       </c>
       <c r="AZ49">
-        <v>735.85354445674454</v>
+        <v>735.853544456745</v>
       </c>
       <c r="BA49">
         <v>740.18483333312599</v>
       </c>
       <c r="BB49">
-        <v>970.1166733232576</v>
+        <v>970.11667332325806</v>
       </c>
       <c r="BC49">
         <v>682.13071928676004</v>
       </c>
       <c r="BD49">
-        <v>-157.6277960682356</v>
+        <v>-157.62779606823599</v>
       </c>
       <c r="BE49">
         <v>13.106999999999999</v>
@@ -8909,7 +8907,7 @@
       <c r="AP50">
         <v>63.948399999999999</v>
       </c>
-      <c r="AQ50" s="16">
+      <c r="AQ50" s="14">
         <v>26.977</v>
       </c>
       <c r="AR50">
@@ -8919,25 +8917,25 @@
         <v>11.141999999999999</v>
       </c>
       <c r="AX50">
-        <v>3900.4099318644821</v>
+        <v>3900.4099318644799</v>
       </c>
       <c r="AY50">
-        <v>2086.2741966859307</v>
+        <v>2086.2741966859298</v>
       </c>
       <c r="AZ50">
-        <v>713.41058440614381</v>
+        <v>713.41058440614404</v>
       </c>
       <c r="BA50">
-        <v>798.46438757373437</v>
+        <v>798.46438757373403</v>
       </c>
       <c r="BB50">
         <v>1063.1878275502199</v>
       </c>
       <c r="BC50">
-        <v>697.59933087333513</v>
+        <v>697.59933087333502</v>
       </c>
       <c r="BD50">
-        <v>-63.327733478211485</v>
+        <v>-63.327733478211499</v>
       </c>
       <c r="BE50">
         <v>15.835000000000001</v>
@@ -9073,7 +9071,7 @@
       <c r="AP51">
         <v>57.767099999999999</v>
       </c>
-      <c r="AQ51" s="16">
+      <c r="AQ51" s="14">
         <v>30.094000000000001</v>
       </c>
       <c r="AR51">
@@ -9083,25 +9081,25 @@
         <v>15.239000000000001</v>
       </c>
       <c r="AX51">
-        <v>3900.4099318644821</v>
+        <v>3900.4099318644799</v>
       </c>
       <c r="AY51">
-        <v>2086.2741966859307</v>
+        <v>2086.2741966859298</v>
       </c>
       <c r="AZ51">
-        <v>713.41058440614381</v>
+        <v>713.41058440614404</v>
       </c>
       <c r="BA51">
-        <v>798.46438757373437</v>
+        <v>798.46438757373403</v>
       </c>
       <c r="BB51">
         <v>1063.1878275502199</v>
       </c>
       <c r="BC51">
-        <v>697.59933087333513</v>
+        <v>697.59933087333502</v>
       </c>
       <c r="BD51">
-        <v>-63.327733478211485</v>
+        <v>-63.327733478211499</v>
       </c>
       <c r="BE51">
         <v>14.855</v>
@@ -9237,7 +9235,7 @@
       <c r="AP52">
         <v>60.208500000000001</v>
       </c>
-      <c r="AQ52" s="16">
+      <c r="AQ52" s="14">
         <v>32.991999999999997</v>
       </c>
       <c r="AR52">
@@ -9247,25 +9245,25 @@
         <v>18.436</v>
       </c>
       <c r="AX52">
-        <v>3900.4099318644821</v>
+        <v>3900.4099318644799</v>
       </c>
       <c r="AY52">
-        <v>2086.2741966859307</v>
+        <v>2086.2741966859298</v>
       </c>
       <c r="AZ52">
-        <v>713.41058440614381</v>
+        <v>713.41058440614404</v>
       </c>
       <c r="BA52">
-        <v>798.46438757373437</v>
+        <v>798.46438757373403</v>
       </c>
       <c r="BB52">
         <v>1063.1878275502199</v>
       </c>
       <c r="BC52">
-        <v>697.59933087333513</v>
+        <v>697.59933087333502</v>
       </c>
       <c r="BD52">
-        <v>-63.327733478211485</v>
+        <v>-63.327733478211499</v>
       </c>
       <c r="BE52">
         <v>14.555999999999999</v>
@@ -9401,7 +9399,7 @@
       <c r="AP53">
         <v>56.155199999999994</v>
       </c>
-      <c r="AQ53" s="16">
+      <c r="AQ53" s="14">
         <v>32.692999999999998</v>
       </c>
       <c r="AR53">
@@ -9411,25 +9409,25 @@
         <v>18.904</v>
       </c>
       <c r="AX53">
-        <v>4040.8047557897403</v>
+        <v>4040.8047557897398</v>
       </c>
       <c r="AY53">
-        <v>2143.9965496408349</v>
+        <v>2143.9965496408399</v>
       </c>
       <c r="AZ53">
-        <v>737.4391706523196</v>
+        <v>737.43917065231994</v>
       </c>
       <c r="BA53">
-        <v>856.24320304027151</v>
+        <v>856.24320304027196</v>
       </c>
       <c r="BB53">
-        <v>1099.3080354005181</v>
+        <v>1099.3080354005201</v>
       </c>
       <c r="BC53">
         <v>762.20137595944504</v>
       </c>
       <c r="BD53">
-        <v>-33.980826984759005</v>
+        <v>-33.980826984758998</v>
       </c>
       <c r="BE53">
         <v>13.789</v>
@@ -9565,7 +9563,7 @@
       <c r="AP54">
         <v>51.290099999999995</v>
       </c>
-      <c r="AQ54" s="16">
+      <c r="AQ54" s="14">
         <v>31.106000000000002</v>
       </c>
       <c r="AR54">
@@ -9575,25 +9573,25 @@
         <v>19.053000000000001</v>
       </c>
       <c r="AX54">
-        <v>4040.8047557897403</v>
+        <v>4040.8047557897398</v>
       </c>
       <c r="AY54">
-        <v>2143.9965496408349</v>
+        <v>2143.9965496408399</v>
       </c>
       <c r="AZ54">
-        <v>737.4391706523196</v>
+        <v>737.43917065231994</v>
       </c>
       <c r="BA54">
-        <v>856.24320304027151</v>
+        <v>856.24320304027196</v>
       </c>
       <c r="BB54">
-        <v>1099.3080354005181</v>
+        <v>1099.3080354005201</v>
       </c>
       <c r="BC54">
         <v>762.20137595944504</v>
       </c>
       <c r="BD54">
-        <v>-33.980826984759005</v>
+        <v>-33.980826984758998</v>
       </c>
       <c r="BE54">
         <v>12.053000000000001</v>
@@ -9729,7 +9727,7 @@
       <c r="AP55">
         <v>44.164400000000001</v>
       </c>
-      <c r="AQ55" s="16">
+      <c r="AQ55" s="14">
         <v>31.553999999999998</v>
       </c>
       <c r="AR55">
@@ -9739,25 +9737,25 @@
         <v>19.327000000000002</v>
       </c>
       <c r="AX55">
-        <v>4040.8047557897403</v>
+        <v>4040.8047557897398</v>
       </c>
       <c r="AY55">
-        <v>2143.9965496408349</v>
+        <v>2143.9965496408399</v>
       </c>
       <c r="AZ55">
-        <v>737.4391706523196</v>
+        <v>737.43917065231994</v>
       </c>
       <c r="BA55">
-        <v>856.24320304027151</v>
+        <v>856.24320304027196</v>
       </c>
       <c r="BB55">
-        <v>1099.3080354005181</v>
+        <v>1099.3080354005201</v>
       </c>
       <c r="BC55">
         <v>762.20137595944504</v>
       </c>
       <c r="BD55">
-        <v>-33.980826984759005</v>
+        <v>-33.980826984758998</v>
       </c>
       <c r="BE55">
         <v>12.227</v>
@@ -9893,7 +9891,7 @@
       <c r="AP56">
         <v>44.154900000000005</v>
       </c>
-      <c r="AQ56" s="16">
+      <c r="AQ56" s="14">
         <v>30.725999999999999</v>
       </c>
       <c r="AR56">
@@ -9903,25 +9901,25 @@
         <v>20.811</v>
       </c>
       <c r="AX56">
-        <v>4190.4714198427755</v>
+        <v>4190.4714198427801</v>
       </c>
       <c r="AY56">
-        <v>2197.3812475988266</v>
+        <v>2197.3812475988302</v>
       </c>
       <c r="AZ56">
-        <v>759.72136068393593</v>
+        <v>759.72136068393604</v>
       </c>
       <c r="BA56">
-        <v>889.56309286289559</v>
+        <v>889.56309286289604</v>
       </c>
       <c r="BB56">
-        <v>1122.199375102007</v>
+        <v>1122.19937510201</v>
       </c>
       <c r="BC56">
         <v>835.90061354039005</v>
       </c>
       <c r="BD56">
-        <v>57.506957135500521</v>
+        <v>57.5069571355005</v>
       </c>
       <c r="BE56">
         <v>9.9149999999999991</v>
@@ -10057,7 +10055,7 @@
       <c r="AP57">
         <v>43.550400000000003</v>
       </c>
-      <c r="AQ57" s="16">
+      <c r="AQ57" s="14">
         <v>31.26</v>
       </c>
       <c r="AR57">
@@ -10067,25 +10065,25 @@
         <v>23.605</v>
       </c>
       <c r="AX57">
-        <v>4190.4714198427755</v>
+        <v>4190.4714198427801</v>
       </c>
       <c r="AY57">
-        <v>2197.3812475988266</v>
+        <v>2197.3812475988302</v>
       </c>
       <c r="AZ57">
-        <v>759.72136068393593</v>
+        <v>759.72136068393604</v>
       </c>
       <c r="BA57">
-        <v>889.56309286289559</v>
+        <v>889.56309286289604</v>
       </c>
       <c r="BB57">
-        <v>1122.199375102007</v>
+        <v>1122.19937510201</v>
       </c>
       <c r="BC57">
         <v>835.90061354039005</v>
       </c>
       <c r="BD57">
-        <v>57.506957135500521</v>
+        <v>57.5069571355005</v>
       </c>
       <c r="BE57">
         <v>7.6550000000000002</v>
@@ -10221,7 +10219,7 @@
       <c r="AP58">
         <v>48.197600000000001</v>
       </c>
-      <c r="AQ58" s="16">
+      <c r="AQ58" s="14">
         <v>33.67</v>
       </c>
       <c r="AR58">
@@ -10231,25 +10229,25 @@
         <v>23.209</v>
       </c>
       <c r="AX58">
-        <v>4190.4714198427755</v>
+        <v>4190.4714198427801</v>
       </c>
       <c r="AY58">
-        <v>2197.3812475988266</v>
+        <v>2197.3812475988302</v>
       </c>
       <c r="AZ58">
-        <v>759.72136068393593</v>
+        <v>759.72136068393604</v>
       </c>
       <c r="BA58">
-        <v>889.56309286289559</v>
+        <v>889.56309286289604</v>
       </c>
       <c r="BB58">
-        <v>1122.199375102007</v>
+        <v>1122.19937510201</v>
       </c>
       <c r="BC58">
         <v>835.90061354039005</v>
       </c>
       <c r="BD58">
-        <v>57.506957135500521</v>
+        <v>57.5069571355005</v>
       </c>
       <c r="BE58">
         <v>10.461</v>
@@ -10385,7 +10383,7 @@
       <c r="AP59">
         <v>58.560099999999998</v>
       </c>
-      <c r="AQ59" s="16">
+      <c r="AQ59" s="14">
         <v>34.588999999999999</v>
       </c>
       <c r="AR59">
@@ -10395,25 +10393,25 @@
         <v>24.452999999999999</v>
       </c>
       <c r="AX59">
-        <v>4397.1370347904067</v>
+        <v>4397.1370347904103</v>
       </c>
       <c r="AY59">
-        <v>2282.875664403979</v>
+        <v>2282.87566440398</v>
       </c>
       <c r="AZ59">
-        <v>795.19146940983217</v>
+        <v>795.19146940983205</v>
       </c>
       <c r="BA59">
         <v>913.86503142399795</v>
       </c>
       <c r="BB59">
-        <v>1193.0426156233248</v>
+        <v>1193.04261562332</v>
       </c>
       <c r="BC59">
-        <v>896.34961137046378</v>
+        <v>896.349611370464</v>
       </c>
       <c r="BD59">
-        <v>108.5118652997365</v>
+        <v>108.511865299737</v>
       </c>
       <c r="BE59">
         <v>10.135999999999999</v>
@@ -10549,7 +10547,7 @@
       <c r="AP60">
         <v>59.748800000000003</v>
       </c>
-      <c r="AQ60" s="16">
+      <c r="AQ60" s="14">
         <v>34.506</v>
       </c>
       <c r="AR60">
@@ -10559,25 +10557,25 @@
         <v>24.544</v>
       </c>
       <c r="AX60">
-        <v>4397.1370347904067</v>
+        <v>4397.1370347904103</v>
       </c>
       <c r="AY60">
-        <v>2282.875664403979</v>
+        <v>2282.87566440398</v>
       </c>
       <c r="AZ60">
-        <v>795.19146940983217</v>
+        <v>795.19146940983205</v>
       </c>
       <c r="BA60">
         <v>913.86503142399795</v>
       </c>
       <c r="BB60">
-        <v>1193.0426156233248</v>
+        <v>1193.04261562332</v>
       </c>
       <c r="BC60">
-        <v>896.34961137046378</v>
+        <v>896.349611370464</v>
       </c>
       <c r="BD60">
-        <v>108.5118652997365</v>
+        <v>108.511865299737</v>
       </c>
       <c r="BE60">
         <v>9.9619999999999997</v>
@@ -10713,7 +10711,7 @@
       <c r="AP61">
         <v>63.603900000000003</v>
       </c>
-      <c r="AQ61" s="16">
+      <c r="AQ61" s="14">
         <v>42.506999999999998</v>
       </c>
       <c r="AR61">
@@ -10723,25 +10721,25 @@
         <v>26.956</v>
       </c>
       <c r="AX61">
-        <v>4397.1370347904067</v>
+        <v>4397.1370347904103</v>
       </c>
       <c r="AY61">
-        <v>2282.875664403979</v>
+        <v>2282.87566440398</v>
       </c>
       <c r="AZ61">
-        <v>795.19146940983217</v>
+        <v>795.19146940983205</v>
       </c>
       <c r="BA61">
         <v>913.86503142399795</v>
       </c>
       <c r="BB61">
-        <v>1193.0426156233248</v>
+        <v>1193.04261562332</v>
       </c>
       <c r="BC61">
-        <v>896.34961137046378</v>
+        <v>896.349611370464</v>
       </c>
       <c r="BD61">
-        <v>108.5118652997365</v>
+        <v>108.511865299737</v>
       </c>
       <c r="BE61">
         <v>15.551</v>
@@ -10877,7 +10875,7 @@
       <c r="AP62">
         <v>63.857399999999998</v>
       </c>
-      <c r="AQ62" s="16">
+      <c r="AQ62" s="14">
         <v>29.59</v>
       </c>
       <c r="AR62">
@@ -10890,22 +10888,22 @@
         <v>4664.5871673597303</v>
       </c>
       <c r="AY62">
-        <v>2383.8723840940288</v>
+        <v>2383.8723840940302</v>
       </c>
       <c r="AZ62">
         <v>840.96820631026696</v>
       </c>
       <c r="BA62">
-        <v>945.71307333685127</v>
+        <v>945.71307333685104</v>
       </c>
       <c r="BB62">
-        <v>1269.9071070396042</v>
+        <v>1269.9071070396001</v>
       </c>
       <c r="BC62">
-        <v>938.79600222568024</v>
+        <v>938.79600222568001</v>
       </c>
       <c r="BD62">
-        <v>162.92239880465937</v>
+        <v>162.922398804659</v>
       </c>
       <c r="BE62">
         <v>13.362</v>
@@ -11041,7 +11039,7 @@
       <c r="AP63">
         <v>57.392900000000004</v>
       </c>
-      <c r="AQ63" s="16">
+      <c r="AQ63" s="14">
         <v>39.622999999999998</v>
       </c>
       <c r="AR63">
@@ -11054,22 +11052,22 @@
         <v>4664.5871673597303</v>
       </c>
       <c r="AY63">
-        <v>2383.8723840940288</v>
+        <v>2383.8723840940302</v>
       </c>
       <c r="AZ63">
         <v>840.96820631026696</v>
       </c>
       <c r="BA63">
-        <v>945.71307333685127</v>
+        <v>945.71307333685104</v>
       </c>
       <c r="BB63">
-        <v>1269.9071070396042</v>
+        <v>1269.9071070396001</v>
       </c>
       <c r="BC63">
-        <v>938.79600222568024</v>
+        <v>938.79600222568001</v>
       </c>
       <c r="BD63">
-        <v>162.92239880465937</v>
+        <v>162.922398804659</v>
       </c>
       <c r="BE63">
         <v>17.952999999999999</v>
@@ -11205,7 +11203,7 @@
       <c r="AP64">
         <v>61.660499999999999</v>
       </c>
-      <c r="AQ64" s="16">
+      <c r="AQ64" s="14">
         <v>42.460999999999999</v>
       </c>
       <c r="AR64">
@@ -11218,22 +11216,22 @@
         <v>4664.5871673597303</v>
       </c>
       <c r="AY64">
-        <v>2383.8723840940288</v>
+        <v>2383.8723840940302</v>
       </c>
       <c r="AZ64">
         <v>840.96820631026696</v>
       </c>
       <c r="BA64">
-        <v>945.71307333685127</v>
+        <v>945.71307333685104</v>
       </c>
       <c r="BB64">
-        <v>1269.9071070396042</v>
+        <v>1269.9071070396001</v>
       </c>
       <c r="BC64">
-        <v>938.79600222568024</v>
+        <v>938.79600222568001</v>
       </c>
       <c r="BD64">
-        <v>162.92239880465937</v>
+        <v>162.922398804659</v>
       </c>
       <c r="BE64">
         <v>15.667</v>
@@ -11369,7 +11367,7 @@
       <c r="AP65">
         <v>57.192399999999999</v>
       </c>
-      <c r="AQ65" s="16">
+      <c r="AQ65" s="14">
         <v>45.802999999999997</v>
       </c>
       <c r="AR65">
@@ -11379,25 +11377,25 @@
         <v>26.919</v>
       </c>
       <c r="AX65">
-        <v>4924.0612859019657</v>
+        <v>4924.0612859019702</v>
       </c>
       <c r="AY65">
-        <v>2472.6978484546985</v>
+        <v>2472.6978484546999</v>
       </c>
       <c r="AZ65">
-        <v>868.94428679847545</v>
+        <v>868.94428679847499</v>
       </c>
       <c r="BA65">
-        <v>999.10861552093775</v>
+        <v>999.10861552093797</v>
       </c>
       <c r="BB65">
-        <v>1385.7602116273883</v>
+        <v>1385.7602116273899</v>
       </c>
       <c r="BC65">
-        <v>986.55957946852016</v>
+        <v>986.55957946852004</v>
       </c>
       <c r="BD65">
-        <v>184.10990296898549</v>
+        <v>184.10990296898601</v>
       </c>
       <c r="BE65">
         <v>18.884</v>
@@ -11533,7 +11531,7 @@
       <c r="AP66">
         <v>57.7224</v>
       </c>
-      <c r="AQ66" s="16">
+      <c r="AQ66" s="14">
         <v>44.039000000000001</v>
       </c>
       <c r="AR66">
@@ -11543,25 +11541,25 @@
         <v>27.93</v>
       </c>
       <c r="AX66">
-        <v>4924.0612859019657</v>
+        <v>4924.0612859019702</v>
       </c>
       <c r="AY66">
-        <v>2472.6978484546985</v>
+        <v>2472.6978484546999</v>
       </c>
       <c r="AZ66">
-        <v>868.94428679847545</v>
+        <v>868.94428679847499</v>
       </c>
       <c r="BA66">
-        <v>999.10861552093775</v>
+        <v>999.10861552093797</v>
       </c>
       <c r="BB66">
-        <v>1385.7602116273883</v>
+        <v>1385.7602116273899</v>
       </c>
       <c r="BC66">
-        <v>986.55957946852016</v>
+        <v>986.55957946852004</v>
       </c>
       <c r="BD66">
-        <v>184.10990296898549</v>
+        <v>184.10990296898601</v>
       </c>
       <c r="BE66">
         <v>16.109000000000002</v>
@@ -11697,7 +11695,7 @@
       <c r="AP67">
         <v>50.682699999999997</v>
       </c>
-      <c r="AQ67" s="16">
+      <c r="AQ67" s="14">
         <v>43.655999999999999</v>
       </c>
       <c r="AR67">
@@ -11707,25 +11705,25 @@
         <v>27.478000000000002</v>
       </c>
       <c r="AX67">
-        <v>4924.0612859019657</v>
+        <v>4924.0612859019702</v>
       </c>
       <c r="AY67">
-        <v>2472.6978484546985</v>
+        <v>2472.6978484546999</v>
       </c>
       <c r="AZ67">
-        <v>868.94428679847545</v>
+        <v>868.94428679847499</v>
       </c>
       <c r="BA67">
-        <v>999.10861552093775</v>
+        <v>999.10861552093797</v>
       </c>
       <c r="BB67">
-        <v>1385.7602116273883</v>
+        <v>1385.7602116273899</v>
       </c>
       <c r="BC67">
-        <v>986.55957946852016</v>
+        <v>986.55957946852004</v>
       </c>
       <c r="BD67">
-        <v>184.10990296898549</v>
+        <v>184.10990296898601</v>
       </c>
       <c r="BE67">
         <v>16.178000000000001</v>
@@ -11861,7 +11859,7 @@
       <c r="AP68">
         <v>48.429400000000001</v>
       </c>
-      <c r="AQ68" s="16">
+      <c r="AQ68" s="14">
         <v>41.435000000000002</v>
       </c>
       <c r="AR68">
@@ -11871,25 +11869,25 @@
         <v>26.855</v>
       </c>
       <c r="AX68">
-        <v>5107.9962256568588</v>
+        <v>5107.9962256568597</v>
       </c>
       <c r="AY68">
-        <v>2539.6718794679941</v>
+        <v>2539.67187946799</v>
       </c>
       <c r="AZ68">
-        <v>885.23749413764642</v>
+        <v>885.23749413764597</v>
       </c>
       <c r="BA68">
-        <v>1052.929700499936</v>
+        <v>1052.9297004999401</v>
       </c>
       <c r="BB68">
-        <v>1413.6393237190721</v>
+        <v>1413.63932371907</v>
       </c>
       <c r="BC68">
-        <v>985.84298044225636</v>
+        <v>985.84298044225602</v>
       </c>
       <c r="BD68">
-        <v>202.36080827446736</v>
+        <v>202.36080827446699</v>
       </c>
       <c r="BE68">
         <v>14.58</v>
@@ -12025,7 +12023,7 @@
       <c r="AP69">
         <v>45.873599999999996</v>
       </c>
-      <c r="AQ69" s="16">
+      <c r="AQ69" s="14">
         <v>43.841999999999999</v>
       </c>
       <c r="AR69">
@@ -12035,25 +12033,25 @@
         <v>29.428000000000001</v>
       </c>
       <c r="AX69">
-        <v>5107.9962256568588</v>
+        <v>5107.9962256568597</v>
       </c>
       <c r="AY69">
-        <v>2539.6718794679941</v>
+        <v>2539.67187946799</v>
       </c>
       <c r="AZ69">
-        <v>885.23749413764642</v>
+        <v>885.23749413764597</v>
       </c>
       <c r="BA69">
-        <v>1052.929700499936</v>
+        <v>1052.9297004999401</v>
       </c>
       <c r="BB69">
-        <v>1413.6393237190721</v>
+        <v>1413.63932371907</v>
       </c>
       <c r="BC69">
-        <v>985.84298044225636</v>
+        <v>985.84298044225602</v>
       </c>
       <c r="BD69">
-        <v>202.36080827446736</v>
+        <v>202.36080827446699</v>
       </c>
       <c r="BE69">
         <v>14.414</v>
@@ -12189,7 +12187,7 @@
       <c r="AP70">
         <v>48.318400000000004</v>
       </c>
-      <c r="AQ70" s="16">
+      <c r="AQ70" s="14">
         <v>43.036999999999999</v>
       </c>
       <c r="AR70">
@@ -12199,25 +12197,25 @@
         <v>26.841000000000001</v>
       </c>
       <c r="AX70">
-        <v>5107.9962256568588</v>
+        <v>5107.9962256568597</v>
       </c>
       <c r="AY70">
-        <v>2539.6718794679941</v>
+        <v>2539.67187946799</v>
       </c>
       <c r="AZ70">
-        <v>885.23749413764642</v>
+        <v>885.23749413764597</v>
       </c>
       <c r="BA70">
-        <v>1052.929700499936</v>
+        <v>1052.9297004999401</v>
       </c>
       <c r="BB70">
-        <v>1413.6393237190721</v>
+        <v>1413.63932371907</v>
       </c>
       <c r="BC70">
-        <v>985.84298044225636</v>
+        <v>985.84298044225602</v>
       </c>
       <c r="BD70">
-        <v>202.36080827446736</v>
+        <v>202.36080827446699</v>
       </c>
       <c r="BE70">
         <v>16.196000000000002</v>
@@ -12353,7 +12351,7 @@
       <c r="AP71">
         <v>56.381599999999999</v>
       </c>
-      <c r="AQ71" s="16">
+      <c r="AQ71" s="14">
         <v>45.247</v>
       </c>
       <c r="AR71">
@@ -12363,25 +12361,25 @@
         <v>28.702000000000002</v>
       </c>
       <c r="AX71">
-        <v>5278.0711630196465</v>
+        <v>5278.0711630196502</v>
       </c>
       <c r="AY71">
-        <v>2623.5148768757772</v>
+        <v>2623.5148768757799</v>
       </c>
       <c r="AZ71">
-        <v>906.27431470115732</v>
+        <v>906.27431470115698</v>
       </c>
       <c r="BA71">
-        <v>1112.9001754402448</v>
+        <v>1112.90017544024</v>
       </c>
       <c r="BB71">
-        <v>1531.5975039087673</v>
+        <v>1531.59750390877</v>
       </c>
       <c r="BC71">
-        <v>1075.3968904140204</v>
+        <v>1075.3968904140199</v>
       </c>
       <c r="BD71">
-        <v>179.18118250772054</v>
+        <v>179.18118250772099</v>
       </c>
       <c r="BE71">
         <v>16.545000000000002</v>
@@ -12517,7 +12515,7 @@
       <c r="AP72">
         <v>60.137599999999999</v>
       </c>
-      <c r="AQ72" s="16">
+      <c r="AQ72" s="14">
         <v>46.427</v>
       </c>
       <c r="AR72">
@@ -12527,25 +12525,25 @@
         <v>29.754999999999999</v>
       </c>
       <c r="AX72">
-        <v>5278.0711630196465</v>
+        <v>5278.0711630196502</v>
       </c>
       <c r="AY72">
-        <v>2623.5148768757772</v>
+        <v>2623.5148768757799</v>
       </c>
       <c r="AZ72">
-        <v>906.27431470115732</v>
+        <v>906.27431470115698</v>
       </c>
       <c r="BA72">
-        <v>1112.9001754402448</v>
+        <v>1112.90017544024</v>
       </c>
       <c r="BB72">
-        <v>1531.5975039087673</v>
+        <v>1531.59750390877</v>
       </c>
       <c r="BC72">
-        <v>1075.3968904140204</v>
+        <v>1075.3968904140199</v>
       </c>
       <c r="BD72">
-        <v>179.18118250772054</v>
+        <v>179.18118250772099</v>
       </c>
       <c r="BE72">
         <v>16.672000000000001</v>
@@ -12681,7 +12679,7 @@
       <c r="AP73">
         <v>63.189699999999995</v>
       </c>
-      <c r="AQ73" s="16">
+      <c r="AQ73" s="14">
         <v>50.247999999999998</v>
       </c>
       <c r="AR73">
@@ -12691,30 +12689,30 @@
         <v>29.954999999999998</v>
       </c>
       <c r="AX73">
-        <v>5278.0711630196465</v>
+        <v>5278.0711630196502</v>
       </c>
       <c r="AY73">
-        <v>2623.5148768757772</v>
+        <v>2623.5148768757799</v>
       </c>
       <c r="AZ73">
-        <v>906.27431470115732</v>
+        <v>906.27431470115698</v>
       </c>
       <c r="BA73">
-        <v>1112.9001754402448</v>
+        <v>1112.90017544024</v>
       </c>
       <c r="BB73">
-        <v>1531.5975039087673</v>
+        <v>1531.59750390877</v>
       </c>
       <c r="BC73">
-        <v>1075.3968904140204</v>
+        <v>1075.3968904140199</v>
       </c>
       <c r="BD73">
-        <v>179.18118250772054</v>
+        <v>179.18118250772099</v>
       </c>
       <c r="BE73">
         <v>20.292999999999999</v>
       </c>
-      <c r="BM73" s="22"/>
+      <c r="BM73" s="19"/>
     </row>
     <row r="74" spans="1:66" s="8" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A74" s="6">
@@ -12878,25 +12876,25 @@
         <v>26.241</v>
       </c>
       <c r="AX74" s="8">
-        <v>5435.8365284617767</v>
+        <v>5435.8365284617803</v>
       </c>
       <c r="AY74" s="8">
-        <v>2735.3225891237485</v>
+        <v>2735.3225891237498</v>
       </c>
       <c r="AZ74" s="8">
         <v>965.09817007754702</v>
       </c>
       <c r="BA74" s="8">
-        <v>1134.7316397243937</v>
-      </c>
-      <c r="BB74" s="8">
-        <v>1534.7600683176097</v>
-      </c>
-      <c r="BC74" s="8">
-        <v>1110.0548655937293</v>
-      </c>
-      <c r="BD74" s="8">
-        <v>175.97892681220688</v>
+        <v>1134.7316397243901</v>
+      </c>
+      <c r="BB74">
+        <v>1534.7600683176099</v>
+      </c>
+      <c r="BC74">
+        <v>1110.05486559373</v>
+      </c>
+      <c r="BD74">
+        <v>175.97892681220699</v>
       </c>
       <c r="BE74" s="8">
         <v>20.399999999999999</v>
@@ -12922,10 +12920,10 @@
       <c r="BL74" s="8">
         <v>15</v>
       </c>
-      <c r="BM74" s="22">
+      <c r="BM74" s="19">
         <v>2.8</v>
       </c>
-      <c r="BN74" s="22">
+      <c r="BN74" s="19">
         <v>12.2</v>
       </c>
     </row>
@@ -13068,7 +13066,7 @@
       <c r="AP75">
         <v>60.015000000000001</v>
       </c>
-      <c r="AQ75" s="16">
+      <c r="AQ75" s="14">
         <v>44.877000000000002</v>
       </c>
       <c r="AR75">
@@ -13091,25 +13089,25 @@
         <v>31.396000000000001</v>
       </c>
       <c r="AX75">
-        <v>5435.8365284617767</v>
+        <v>5435.8365284617803</v>
       </c>
       <c r="AY75">
-        <v>2735.3225891237485</v>
+        <v>2735.3225891237498</v>
       </c>
       <c r="AZ75">
         <v>965.09817007754702</v>
       </c>
       <c r="BA75">
-        <v>1134.7316397243937</v>
+        <v>1134.7316397243901</v>
       </c>
       <c r="BB75">
-        <v>1534.7600683176097</v>
+        <v>1534.7600683176099</v>
       </c>
       <c r="BC75">
-        <v>1110.0548655937293</v>
+        <v>1110.05486559373</v>
       </c>
       <c r="BD75">
-        <v>175.97892681220688</v>
+        <v>175.97892681220699</v>
       </c>
       <c r="BE75" s="11">
         <v>20.2</v>
@@ -13135,10 +13133,10 @@
       <c r="BL75" s="11">
         <v>13.5</v>
       </c>
-      <c r="BM75" s="22">
+      <c r="BM75" s="19">
         <v>6.9</v>
       </c>
-      <c r="BN75" s="22">
+      <c r="BN75" s="19">
         <v>17</v>
       </c>
     </row>
@@ -13281,7 +13279,7 @@
       <c r="AP76">
         <v>61.813000000000002</v>
       </c>
-      <c r="AQ76" s="16">
+      <c r="AQ76" s="14">
         <v>46.658000000000001</v>
       </c>
       <c r="AR76">
@@ -13304,25 +13302,25 @@
         <v>36.005000000000003</v>
       </c>
       <c r="AX76">
-        <v>5435.8365284617767</v>
+        <v>5435.8365284617803</v>
       </c>
       <c r="AY76">
-        <v>2735.3225891237485</v>
+        <v>2735.3225891237498</v>
       </c>
       <c r="AZ76">
         <v>965.09817007754702</v>
       </c>
       <c r="BA76">
-        <v>1134.7316397243937</v>
+        <v>1134.7316397243901</v>
       </c>
       <c r="BB76">
-        <v>1534.7600683176097</v>
+        <v>1534.7600683176099</v>
       </c>
       <c r="BC76">
-        <v>1110.0548655937293</v>
+        <v>1110.05486559373</v>
       </c>
       <c r="BD76">
-        <v>175.97892681220688</v>
+        <v>175.97892681220699</v>
       </c>
       <c r="BE76" s="11">
         <v>18.3</v>
@@ -13348,10 +13346,10 @@
       <c r="BL76" s="11">
         <v>10.8</v>
       </c>
-      <c r="BM76" s="22">
+      <c r="BM76" s="19">
         <v>1.9</v>
       </c>
-      <c r="BN76" s="22">
+      <c r="BN76" s="19">
         <v>6.1</v>
       </c>
     </row>
@@ -13494,7 +13492,7 @@
       <c r="AP77">
         <v>55.698</v>
       </c>
-      <c r="AQ77" s="16">
+      <c r="AQ77" s="14">
         <v>44.902999999999999</v>
       </c>
       <c r="AR77">
@@ -13517,25 +13515,25 @@
         <v>34.471000000000004</v>
       </c>
       <c r="AX77">
-        <v>5601.1022859889335</v>
+        <v>5601.1022859889299</v>
       </c>
       <c r="AY77">
-        <v>2822.5362901736075</v>
+        <v>2822.5362901736098</v>
       </c>
       <c r="AZ77">
         <v>993.06500724877003</v>
       </c>
       <c r="BA77">
-        <v>1153.3891672614852</v>
+        <v>1153.38916726149</v>
       </c>
       <c r="BB77">
-        <v>1517.5913084388476</v>
+        <v>1517.5913084388501</v>
       </c>
       <c r="BC77">
-        <v>1122.7333523674863</v>
+        <v>1122.7333523674899</v>
       </c>
       <c r="BD77">
-        <v>237.25386523370949</v>
+        <v>237.25386523371</v>
       </c>
       <c r="BE77" s="11">
         <v>18.100000000000001</v>
@@ -13561,10 +13559,10 @@
       <c r="BL77" s="11">
         <v>9.6999999999999993</v>
       </c>
-      <c r="BM77" s="22">
+      <c r="BM77" s="19">
         <v>13.6</v>
       </c>
-      <c r="BN77" s="22">
+      <c r="BN77" s="19">
         <v>14.9</v>
       </c>
     </row>
@@ -13707,7 +13705,7 @@
       <c r="AP78">
         <v>51.690100000000001</v>
       </c>
-      <c r="AQ78" s="16">
+      <c r="AQ78" s="14">
         <v>45.472999999999999</v>
       </c>
       <c r="AR78">
@@ -13730,25 +13728,25 @@
         <v>36.855999999999995</v>
       </c>
       <c r="AX78">
-        <v>5601.1022859889335</v>
+        <v>5601.1022859889299</v>
       </c>
       <c r="AY78">
-        <v>2822.5362901736075</v>
+        <v>2822.5362901736098</v>
       </c>
       <c r="AZ78">
         <v>993.06500724877003</v>
       </c>
       <c r="BA78">
-        <v>1153.3891672614852</v>
+        <v>1153.38916726149</v>
       </c>
       <c r="BB78">
-        <v>1517.5913084388476</v>
+        <v>1517.5913084388501</v>
       </c>
       <c r="BC78">
-        <v>1122.7333523674863</v>
+        <v>1122.7333523674899</v>
       </c>
       <c r="BD78">
-        <v>237.25386523370949</v>
+        <v>237.25386523371</v>
       </c>
       <c r="BE78" s="11">
         <v>17.3</v>
@@ -13774,10 +13772,10 @@
       <c r="BL78" s="11">
         <v>9.6999999999999993</v>
       </c>
-      <c r="BM78" s="22">
+      <c r="BM78" s="19">
         <v>-3.2</v>
       </c>
-      <c r="BN78" s="22">
+      <c r="BN78" s="19">
         <v>-0.5</v>
       </c>
     </row>
@@ -13920,7 +13918,7 @@
       <c r="AP79">
         <v>45.814099999999996</v>
       </c>
-      <c r="AQ79" s="16">
+      <c r="AQ79" s="14">
         <v>40.81</v>
       </c>
       <c r="AR79">
@@ -13943,25 +13941,25 @@
         <v>36.478999999999999</v>
       </c>
       <c r="AX79">
-        <v>5601.1022859889335</v>
+        <v>5601.1022859889299</v>
       </c>
       <c r="AY79">
-        <v>2822.5362901736075</v>
+        <v>2822.5362901736098</v>
       </c>
       <c r="AZ79">
         <v>993.06500724877003</v>
       </c>
       <c r="BA79">
-        <v>1153.3891672614852</v>
+        <v>1153.38916726149</v>
       </c>
       <c r="BB79">
-        <v>1517.5913084388476</v>
+        <v>1517.5913084388501</v>
       </c>
       <c r="BC79">
-        <v>1122.7333523674863</v>
+        <v>1122.7333523674899</v>
       </c>
       <c r="BD79">
-        <v>237.25386523370949</v>
+        <v>237.25386523371</v>
       </c>
       <c r="BE79" s="11">
         <v>13.8</v>
@@ -13987,10 +13985,10 @@
       <c r="BL79" s="11">
         <v>-3.3</v>
       </c>
-      <c r="BM79" s="22">
+      <c r="BM79" s="19">
         <v>9</v>
       </c>
-      <c r="BN79" s="22">
+      <c r="BN79" s="19">
         <v>3.8</v>
       </c>
     </row>
@@ -14133,7 +14131,7 @@
       <c r="AP80">
         <v>44.8277</v>
       </c>
-      <c r="AQ80" s="16">
+      <c r="AQ80" s="14">
         <v>41.155000000000001</v>
       </c>
       <c r="AR80">
@@ -14156,25 +14154,25 @@
         <v>40.9</v>
       </c>
       <c r="AX80">
-        <v>5731.0479240070554</v>
+        <v>5731.0479240070599</v>
       </c>
       <c r="AY80">
-        <v>2938.4049926730836</v>
+        <v>2938.40499267308</v>
       </c>
       <c r="AZ80">
-        <v>1030.1458401082696</v>
+        <v>1030.14584010827</v>
       </c>
       <c r="BA80">
-        <v>1201.6001367985634</v>
+        <v>1201.60013679856</v>
       </c>
       <c r="BB80">
         <v>1525.62709536126</v>
       </c>
       <c r="BC80">
-        <v>1169.4122509066071</v>
+        <v>1169.4122509066101</v>
       </c>
       <c r="BD80">
-        <v>204.68210997248556</v>
+        <v>204.68210997248599</v>
       </c>
       <c r="BE80" s="11">
         <v>11.5</v>
@@ -14200,10 +14198,10 @@
       <c r="BL80" s="11">
         <v>0.8</v>
       </c>
-      <c r="BM80" s="22">
+      <c r="BM80" s="19">
         <v>14.5</v>
       </c>
-      <c r="BN80" s="22">
+      <c r="BN80" s="19">
         <v>19.7</v>
       </c>
     </row>
@@ -14346,7 +14344,7 @@
       <c r="AP81">
         <v>44.692800000000005</v>
       </c>
-      <c r="AQ81" s="16">
+      <c r="AQ81" s="14">
         <v>41.119</v>
       </c>
       <c r="AR81">
@@ -14369,25 +14367,25 @@
         <v>41.459000000000003</v>
       </c>
       <c r="AX81">
-        <v>5731.0479240070554</v>
+        <v>5731.0479240070599</v>
       </c>
       <c r="AY81">
-        <v>2938.4049926730836</v>
+        <v>2938.40499267308</v>
       </c>
       <c r="AZ81">
-        <v>1030.1458401082696</v>
+        <v>1030.14584010827</v>
       </c>
       <c r="BA81">
-        <v>1201.6001367985634</v>
+        <v>1201.60013679856</v>
       </c>
       <c r="BB81">
         <v>1525.62709536126</v>
       </c>
       <c r="BC81">
-        <v>1169.4122509066071</v>
+        <v>1169.4122509066101</v>
       </c>
       <c r="BD81">
-        <v>204.68210997248556</v>
+        <v>204.68210997248599</v>
       </c>
       <c r="BE81" s="11">
         <v>11.2</v>
@@ -14413,10 +14411,10 @@
       <c r="BL81" s="11">
         <v>-1.9</v>
       </c>
-      <c r="BM81" s="22">
+      <c r="BM81" s="19">
         <v>3.7</v>
       </c>
-      <c r="BN81" s="22">
+      <c r="BN81" s="19">
         <v>-2.2000000000000002</v>
       </c>
     </row>
@@ -14559,7 +14557,7 @@
       <c r="AP82">
         <v>49.830599999999997</v>
       </c>
-      <c r="AQ82" s="16">
+      <c r="AQ82" s="14">
         <v>42.93</v>
       </c>
       <c r="AR82">
@@ -14582,25 +14580,25 @@
         <v>36.364000000000004</v>
       </c>
       <c r="AX82">
-        <v>5731.0479240070554</v>
+        <v>5731.0479240070599</v>
       </c>
       <c r="AY82">
-        <v>2938.4049926730836</v>
+        <v>2938.40499267308</v>
       </c>
       <c r="AZ82">
-        <v>1030.1458401082696</v>
+        <v>1030.14584010827</v>
       </c>
       <c r="BA82">
-        <v>1201.6001367985634</v>
+        <v>1201.60013679856</v>
       </c>
       <c r="BB82">
         <v>1525.62709536126</v>
       </c>
       <c r="BC82">
-        <v>1169.4122509066071</v>
+        <v>1169.4122509066101</v>
       </c>
       <c r="BD82">
-        <v>204.68210997248556</v>
+        <v>204.68210997248599</v>
       </c>
       <c r="BE82" s="11">
         <v>15.6</v>
@@ -14626,10 +14624,10 @@
       <c r="BL82" s="11">
         <v>6.6</v>
       </c>
-      <c r="BM82" s="22">
+      <c r="BM82" s="19">
         <v>6.5</v>
       </c>
-      <c r="BN82" s="22">
+      <c r="BN82" s="19">
         <v>10.7</v>
       </c>
     </row>
@@ -14772,7 +14770,7 @@
       <c r="AP83">
         <v>54.110800000000005</v>
       </c>
-      <c r="AQ83" s="16">
+      <c r="AQ83" s="14">
         <v>46.54</v>
       </c>
       <c r="AR83">
@@ -14795,25 +14793,25 @@
         <v>41.756999999999998</v>
       </c>
       <c r="AX83">
-        <v>5840.5324390175147</v>
+        <v>5840.5324390175101</v>
       </c>
       <c r="AY83">
-        <v>3040.8602186058611</v>
+        <v>3040.8602186058602</v>
       </c>
       <c r="AZ83">
-        <v>1055.0831479369822</v>
+        <v>1055.0831479369799</v>
       </c>
       <c r="BA83">
-        <v>1218.4813905083749</v>
+        <v>1218.4813905083799</v>
       </c>
       <c r="BB83">
-        <v>1525.1645820434733</v>
+        <v>1525.1645820434701</v>
       </c>
       <c r="BC83">
-        <v>1180.510181138495</v>
+        <v>1180.5101811385</v>
       </c>
       <c r="BD83">
-        <v>181.45328106131819</v>
+        <v>181.45328106131799</v>
       </c>
       <c r="BE83" s="11">
         <v>14.4</v>
@@ -14839,10 +14837,10 @@
       <c r="BL83" s="11">
         <v>4.2</v>
       </c>
-      <c r="BM83" s="22">
+      <c r="BM83" s="19">
         <v>10.7</v>
       </c>
-      <c r="BN83" s="22">
+      <c r="BN83" s="19">
         <v>15.2</v>
       </c>
     </row>
@@ -14985,7 +14983,7 @@
       <c r="AP84">
         <v>57.545400000000001</v>
       </c>
-      <c r="AQ84" s="16">
+      <c r="AQ84" s="14">
         <v>45.268000000000001</v>
       </c>
       <c r="AR84">
@@ -15008,25 +15006,25 @@
         <v>38.987000000000002</v>
       </c>
       <c r="AX84">
-        <v>5840.5324390175147</v>
+        <v>5840.5324390175101</v>
       </c>
       <c r="AY84">
-        <v>3040.8602186058611</v>
+        <v>3040.8602186058602</v>
       </c>
       <c r="AZ84">
-        <v>1055.0831479369822</v>
+        <v>1055.0831479369799</v>
       </c>
       <c r="BA84">
-        <v>1218.4813905083749</v>
+        <v>1218.4813905083799</v>
       </c>
       <c r="BB84">
-        <v>1525.1645820434733</v>
+        <v>1525.1645820434701</v>
       </c>
       <c r="BC84">
-        <v>1180.510181138495</v>
+        <v>1180.5101811385</v>
       </c>
       <c r="BD84">
-        <v>181.45328106131819</v>
+        <v>181.45328106131799</v>
       </c>
       <c r="BE84" s="11">
         <v>14.7</v>
@@ -15052,10 +15050,10 @@
       <c r="BL84" s="11">
         <v>5.4</v>
       </c>
-      <c r="BM84" s="22">
+      <c r="BM84" s="19">
         <v>9.9</v>
       </c>
-      <c r="BN84" s="22">
+      <c r="BN84" s="19">
         <v>13.1</v>
       </c>
     </row>
@@ -15198,7 +15196,7 @@
       <c r="AP85">
         <v>65.379300000000001</v>
       </c>
-      <c r="AQ85" s="16">
+      <c r="AQ85" s="14">
         <v>48.203000000000003</v>
       </c>
       <c r="AR85">
@@ -15221,25 +15219,25 @@
         <v>43.655000000000001</v>
       </c>
       <c r="AX85">
-        <v>5840.5324390175147</v>
+        <v>5840.5324390175101</v>
       </c>
       <c r="AY85">
-        <v>3040.8602186058611</v>
+        <v>3040.8602186058602</v>
       </c>
       <c r="AZ85">
-        <v>1055.0831479369822</v>
+        <v>1055.0831479369799</v>
       </c>
       <c r="BA85">
-        <v>1218.4813905083749</v>
+        <v>1218.4813905083799</v>
       </c>
       <c r="BB85">
-        <v>1525.1645820434733</v>
+        <v>1525.1645820434701</v>
       </c>
       <c r="BC85">
-        <v>1180.510181138495</v>
+        <v>1180.5101811385</v>
       </c>
       <c r="BD85">
-        <v>181.45328106131819</v>
+        <v>181.45328106131799</v>
       </c>
       <c r="BE85" s="11">
         <v>16.3</v>
@@ -15265,10 +15263,10 @@
       <c r="BL85" s="11">
         <v>0.7</v>
       </c>
-      <c r="BM85" s="22">
+      <c r="BM85" s="19">
         <v>16.2</v>
       </c>
-      <c r="BN85" s="22">
+      <c r="BN85" s="19">
         <v>8.1</v>
       </c>
     </row>
@@ -15411,7 +15409,7 @@
       <c r="AP86">
         <v>65.194400000000002</v>
       </c>
-      <c r="AQ86" s="16">
+      <c r="AQ86" s="14">
         <v>38.713999999999999</v>
       </c>
       <c r="AR86">
@@ -15434,25 +15432,25 @@
         <v>31.012</v>
       </c>
       <c r="AX86">
-        <v>5862.7052561759947</v>
+        <v>5862.7052561760001</v>
       </c>
       <c r="AY86">
-        <v>3069.0099749433284</v>
+        <v>3069.0099749433298</v>
       </c>
       <c r="AZ86">
-        <v>1085.3582961368907</v>
+        <v>1085.35829613689</v>
       </c>
       <c r="BA86">
-        <v>1278.3175236250206</v>
+        <v>1278.3175236250199</v>
       </c>
       <c r="BB86">
-        <v>1499.0966295598512</v>
+        <v>1499.09662955985</v>
       </c>
       <c r="BC86">
-        <v>1217.7358922508279</v>
+        <v>1217.7358922508299</v>
       </c>
       <c r="BD86">
-        <v>148.6587241617311</v>
+        <v>148.65872416173099</v>
       </c>
       <c r="BE86" s="11">
         <v>17</v>
@@ -15478,10 +15476,10 @@
       <c r="BL86" s="11">
         <v>8.9</v>
       </c>
-      <c r="BM86" s="22">
+      <c r="BM86" s="19">
         <v>10.9</v>
       </c>
-      <c r="BN86" s="22">
+      <c r="BN86" s="19">
         <v>16.399999999999999</v>
       </c>
     </row>
@@ -15624,7 +15622,7 @@
       <c r="AP87">
         <v>57.401000000000003</v>
       </c>
-      <c r="AQ87" s="16">
+      <c r="AQ87" s="14">
         <v>41.762999999999998</v>
       </c>
       <c r="AR87">
@@ -15647,25 +15645,25 @@
         <v>34.184000000000005</v>
       </c>
       <c r="AX87">
-        <v>5862.7052561759947</v>
+        <v>5862.7052561760001</v>
       </c>
       <c r="AY87">
-        <v>3069.0099749433284</v>
+        <v>3069.0099749433298</v>
       </c>
       <c r="AZ87">
-        <v>1085.3582961368907</v>
+        <v>1085.35829613689</v>
       </c>
       <c r="BA87">
-        <v>1278.3175236250206</v>
+        <v>1278.3175236250199</v>
       </c>
       <c r="BB87">
-        <v>1499.0966295598512</v>
+        <v>1499.09662955985</v>
       </c>
       <c r="BC87">
-        <v>1217.7358922508279</v>
+        <v>1217.7358922508299</v>
       </c>
       <c r="BD87">
-        <v>148.6587241617311</v>
+        <v>148.65872416173099</v>
       </c>
       <c r="BE87" s="11">
         <v>15.3</v>
@@ -15691,10 +15689,10 @@
       <c r="BL87" s="11">
         <v>7.9</v>
       </c>
-      <c r="BM87" s="22">
+      <c r="BM87" s="19">
         <v>16.5</v>
       </c>
-      <c r="BN87" s="22">
+      <c r="BN87" s="19">
         <v>20.7</v>
       </c>
     </row>
@@ -15837,7 +15835,7 @@
       <c r="AP88">
         <v>60.065899999999999</v>
       </c>
-      <c r="AQ88" s="16">
+      <c r="AQ88" s="14">
         <v>44.356000000000002</v>
       </c>
       <c r="AR88">
@@ -15860,25 +15858,25 @@
         <v>37.07</v>
       </c>
       <c r="AX88">
-        <v>5862.7052561759947</v>
+        <v>5862.7052561760001</v>
       </c>
       <c r="AY88">
-        <v>3069.0099749433284</v>
+        <v>3069.0099749433298</v>
       </c>
       <c r="AZ88">
-        <v>1085.3582961368907</v>
+        <v>1085.35829613689</v>
       </c>
       <c r="BA88">
-        <v>1278.3175236250206</v>
+        <v>1278.3175236250199</v>
       </c>
       <c r="BB88">
-        <v>1499.0966295598512</v>
+        <v>1499.09662955985</v>
       </c>
       <c r="BC88">
-        <v>1217.7358922508279</v>
+        <v>1217.7358922508299</v>
       </c>
       <c r="BD88">
-        <v>148.6587241617311</v>
+        <v>148.65872416173099</v>
       </c>
       <c r="BE88" s="11">
         <v>16</v>
@@ -15904,10 +15902,10 @@
       <c r="BL88" s="11">
         <v>7.9</v>
       </c>
-      <c r="BM88" s="22">
+      <c r="BM88" s="19">
         <v>58.8</v>
       </c>
-      <c r="BN88" s="22">
+      <c r="BN88" s="19">
         <v>62.4</v>
       </c>
     </row>
@@ -16050,7 +16048,7 @@
       <c r="AP89">
         <v>55.3431</v>
       </c>
-      <c r="AQ89" s="16">
+      <c r="AQ89" s="14">
         <v>44.332999999999998</v>
       </c>
       <c r="AR89">
@@ -16073,25 +16071,25 @@
         <v>39.849000000000004</v>
       </c>
       <c r="AX89">
-        <v>5963.7821768496433</v>
+        <v>5963.7821768496397</v>
       </c>
       <c r="AY89">
-        <v>3181.0865243890858</v>
+        <v>3181.0865243890898</v>
       </c>
       <c r="AZ89">
-        <v>1110.5364033892272</v>
+        <v>1110.5364033892299</v>
       </c>
       <c r="BA89">
-        <v>1271.6490708265362</v>
+        <v>1271.6490708265401</v>
       </c>
       <c r="BB89">
-        <v>1526.1599963196124</v>
+        <v>1526.1599963196099</v>
       </c>
       <c r="BC89">
-        <v>1232.8198076825861</v>
+        <v>1232.81980768259</v>
       </c>
       <c r="BD89">
-        <v>107.1699896077677</v>
+        <v>107.169989607768</v>
       </c>
       <c r="BE89" s="11">
         <v>14.5</v>
@@ -16117,10 +16115,10 @@
       <c r="BL89" s="11">
         <v>3.8</v>
       </c>
-      <c r="BM89" s="22">
+      <c r="BM89" s="19">
         <v>11.2</v>
       </c>
-      <c r="BN89" s="22">
+      <c r="BN89" s="19">
         <v>13.2</v>
       </c>
     </row>
@@ -16263,7 +16261,7 @@
       <c r="AP90">
         <v>52.215300000000006</v>
       </c>
-      <c r="AQ90" s="16">
+      <c r="AQ90" s="14">
         <v>40.878999999999998</v>
       </c>
       <c r="AR90">
@@ -16286,25 +16284,25 @@
         <v>36.482999999999997</v>
       </c>
       <c r="AX90">
-        <v>5963.7821768496433</v>
+        <v>5963.7821768496397</v>
       </c>
       <c r="AY90">
-        <v>3181.0865243890858</v>
+        <v>3181.0865243890898</v>
       </c>
       <c r="AZ90">
-        <v>1110.5364033892272</v>
+        <v>1110.5364033892299</v>
       </c>
       <c r="BA90">
-        <v>1271.6490708265362</v>
+        <v>1271.6490708265401</v>
       </c>
       <c r="BB90">
-        <v>1526.1599963196124</v>
+        <v>1526.1599963196099</v>
       </c>
       <c r="BC90">
-        <v>1232.8198076825861</v>
+        <v>1232.81980768259</v>
       </c>
       <c r="BD90">
-        <v>107.1699896077677</v>
+        <v>107.169989607768</v>
       </c>
       <c r="BE90" s="11">
         <v>14.5</v>
@@ -16330,10 +16328,10 @@
       <c r="BL90" s="11">
         <v>2.8</v>
       </c>
-      <c r="BM90" s="22">
+      <c r="BM90" s="19">
         <v>12.9</v>
       </c>
-      <c r="BN90" s="22">
+      <c r="BN90" s="19">
         <v>18.8</v>
       </c>
     </row>
@@ -16476,7 +16474,7 @@
       <c r="AP91">
         <v>44.678400000000003</v>
       </c>
-      <c r="AQ91" s="16">
+      <c r="AQ91" s="14">
         <v>41.707000000000001</v>
       </c>
       <c r="AR91">
@@ -16499,25 +16497,25 @@
         <v>39.742999999999995</v>
       </c>
       <c r="AX91">
-        <v>5963.7821768496433</v>
+        <v>5963.7821768496397</v>
       </c>
       <c r="AY91">
-        <v>3181.0865243890858</v>
+        <v>3181.0865243890898</v>
       </c>
       <c r="AZ91">
-        <v>1110.5364033892272</v>
+        <v>1110.5364033892299</v>
       </c>
       <c r="BA91">
-        <v>1271.6490708265362</v>
+        <v>1271.6490708265401</v>
       </c>
       <c r="BB91">
-        <v>1526.1599963196124</v>
+        <v>1526.1599963196099</v>
       </c>
       <c r="BC91">
-        <v>1232.8198076825861</v>
+        <v>1232.81980768259</v>
       </c>
       <c r="BD91">
-        <v>107.1699896077677</v>
+        <v>107.169989607768</v>
       </c>
       <c r="BE91" s="11">
         <v>13.5</v>
@@ -16543,10 +16541,10 @@
       <c r="BL91" s="11">
         <v>-5.2</v>
       </c>
-      <c r="BM91" s="22">
+      <c r="BM91" s="19">
         <v>-5.3</v>
       </c>
-      <c r="BN91" s="22">
+      <c r="BN91" s="19">
         <v>-5.0999999999999996</v>
       </c>
     </row>
@@ -16689,7 +16687,7 @@
       <c r="AP92">
         <v>46.085000000000001</v>
       </c>
-      <c r="AQ92" s="16">
+      <c r="AQ92" s="14">
         <v>43.585000000000001</v>
       </c>
       <c r="AR92">
@@ -16712,25 +16710,25 @@
         <v>43.363</v>
       </c>
       <c r="AX92">
-        <v>6159.1273262761924</v>
+        <v>6159.1273262761897</v>
       </c>
       <c r="AY92">
-        <v>3284.9889362722515</v>
+        <v>3284.9889362722502</v>
       </c>
       <c r="AZ92">
-        <v>1143.7816617166652</v>
+        <v>1143.78166171667</v>
       </c>
       <c r="BA92">
-        <v>1276.882811822107</v>
+        <v>1276.8828118221099</v>
       </c>
       <c r="BB92">
-        <v>1646.001319676803</v>
+        <v>1646.0013196768</v>
       </c>
       <c r="BC92">
-        <v>1265.6764459195513</v>
+        <v>1265.6764459195499</v>
       </c>
       <c r="BD92">
-        <v>73.149042707917033</v>
+        <v>73.149042707917005</v>
       </c>
       <c r="BE92" s="11">
         <v>13.3</v>
@@ -16756,10 +16754,10 @@
       <c r="BL92" s="11">
         <v>-1.8</v>
       </c>
-      <c r="BM92" s="22">
+      <c r="BM92" s="19">
         <v>0.3</v>
       </c>
-      <c r="BN92" s="22">
+      <c r="BN92" s="19">
         <v>7.3</v>
       </c>
     </row>
@@ -16902,7 +16900,7 @@
       <c r="AP93">
         <v>47.759599999999999</v>
       </c>
-      <c r="AQ93" s="16">
+      <c r="AQ93" s="14">
         <v>42.399000000000001</v>
       </c>
       <c r="AR93">
@@ -16925,25 +16923,25 @@
         <v>42.451000000000001</v>
       </c>
       <c r="AX93">
-        <v>6159.1273262761924</v>
+        <v>6159.1273262761897</v>
       </c>
       <c r="AY93">
-        <v>3284.9889362722515</v>
+        <v>3284.9889362722502</v>
       </c>
       <c r="AZ93">
-        <v>1143.7816617166652</v>
+        <v>1143.78166171667</v>
       </c>
       <c r="BA93">
-        <v>1276.882811822107</v>
+        <v>1276.8828118221099</v>
       </c>
       <c r="BB93">
-        <v>1646.001319676803</v>
+        <v>1646.0013196768</v>
       </c>
       <c r="BC93">
-        <v>1265.6764459195513</v>
+        <v>1265.6764459195499</v>
       </c>
       <c r="BD93">
-        <v>73.149042707917033</v>
+        <v>73.149042707917005</v>
       </c>
       <c r="BE93" s="11">
         <v>14</v>
@@ -16969,10 +16967,10 @@
       <c r="BL93" s="11">
         <v>-0.7</v>
       </c>
-      <c r="BM93" s="22">
+      <c r="BM93" s="19">
         <v>0.1</v>
       </c>
-      <c r="BN93" s="22">
+      <c r="BN93" s="19">
         <v>6.2</v>
       </c>
     </row>
@@ -17115,7 +17113,7 @@
       <c r="AP94">
         <v>53.337499999999999</v>
       </c>
-      <c r="AQ94" s="16">
+      <c r="AQ94" s="14">
         <v>44.674999999999997</v>
       </c>
       <c r="AR94">
@@ -17138,25 +17136,25 @@
         <v>39.692</v>
       </c>
       <c r="AX94">
-        <v>6159.1273262761924</v>
+        <v>6159.1273262761897</v>
       </c>
       <c r="AY94">
-        <v>3284.9889362722515</v>
+        <v>3284.9889362722502</v>
       </c>
       <c r="AZ94">
-        <v>1143.7816617166652</v>
+        <v>1143.78166171667</v>
       </c>
       <c r="BA94">
-        <v>1276.882811822107</v>
+        <v>1276.8828118221099</v>
       </c>
       <c r="BB94">
-        <v>1646.001319676803</v>
+        <v>1646.0013196768</v>
       </c>
       <c r="BC94">
-        <v>1265.6764459195513</v>
+        <v>1265.6764459195499</v>
       </c>
       <c r="BD94">
-        <v>73.149042707917033</v>
+        <v>73.149042707917005</v>
       </c>
       <c r="BE94" s="11">
         <v>16</v>
@@ -17182,10 +17180,10 @@
       <c r="BL94" s="11">
         <v>1.9</v>
       </c>
-      <c r="BM94" s="22">
+      <c r="BM94" s="19">
         <v>7</v>
       </c>
-      <c r="BN94" s="22">
+      <c r="BN94" s="19">
         <v>-1.3</v>
       </c>
     </row>
@@ -17328,7 +17326,7 @@
       <c r="AP95">
         <v>62.709099999999999</v>
       </c>
-      <c r="AQ95" s="16">
+      <c r="AQ95" s="14">
         <v>43.39</v>
       </c>
       <c r="AR95">
@@ -17351,25 +17349,25 @@
         <v>41.548000000000002</v>
       </c>
       <c r="AX95">
-        <v>6271.8740712826793</v>
+        <v>6271.8740712826802</v>
       </c>
       <c r="AY95">
-        <v>3329.3637904871916</v>
+        <v>3329.3637904871898</v>
       </c>
       <c r="AZ95">
-        <v>1167.7550897646936</v>
+        <v>1167.75508976469</v>
       </c>
       <c r="BA95">
-        <v>1305.6295215408497</v>
+        <v>1305.62952154085</v>
       </c>
       <c r="BB95">
-        <v>1605.3575109273315</v>
+        <v>1605.3575109273299</v>
       </c>
       <c r="BC95">
-        <v>1248.2777704951075</v>
+        <v>1248.27777049511</v>
       </c>
       <c r="BD95">
-        <v>112.0459290577199</v>
+        <v>112.04592905772</v>
       </c>
       <c r="BE95" s="11">
         <v>12.7</v>
@@ -17395,10 +17393,10 @@
       <c r="BL95" s="11">
         <v>0.2</v>
       </c>
-      <c r="BM95" s="22">
+      <c r="BM95" s="19">
         <v>6.2</v>
       </c>
-      <c r="BN95" s="22">
+      <c r="BN95" s="19">
         <v>10.4</v>
       </c>
     </row>
@@ -17541,7 +17539,7 @@
       <c r="AP96">
         <v>58.092100000000002</v>
       </c>
-      <c r="AQ96" s="16">
+      <c r="AQ96" s="14">
         <v>46.668999999999997</v>
       </c>
       <c r="AR96">
@@ -17564,25 +17562,25 @@
         <v>38.692999999999998</v>
       </c>
       <c r="AX96">
-        <v>6271.8740712826793</v>
+        <v>6271.8740712826802</v>
       </c>
       <c r="AY96">
-        <v>3329.3637904871916</v>
+        <v>3329.3637904871898</v>
       </c>
       <c r="AZ96">
-        <v>1167.7550897646936</v>
+        <v>1167.75508976469</v>
       </c>
       <c r="BA96">
-        <v>1305.6295215408497</v>
+        <v>1305.62952154085</v>
       </c>
       <c r="BB96">
-        <v>1605.3575109273315</v>
+        <v>1605.3575109273299</v>
       </c>
       <c r="BC96">
-        <v>1248.2777704951075</v>
+        <v>1248.27777049511</v>
       </c>
       <c r="BD96">
-        <v>112.0459290577199</v>
+        <v>112.04592905772</v>
       </c>
       <c r="BE96" s="11">
         <v>16.899999999999999</v>
@@ -17608,10 +17606,10 @@
       <c r="BL96" s="11">
         <v>6.4</v>
       </c>
-      <c r="BM96" s="22">
+      <c r="BM96" s="19">
         <v>5.8</v>
       </c>
-      <c r="BN96" s="22">
+      <c r="BN96" s="19">
         <v>16</v>
       </c>
     </row>
@@ -17754,7 +17752,7 @@
       <c r="AP97">
         <v>64.730699999999999</v>
       </c>
-      <c r="AQ97" s="16">
+      <c r="AQ97" s="14">
         <v>49.366</v>
       </c>
       <c r="AR97">
@@ -17777,25 +17775,25 @@
         <v>45.581000000000003</v>
       </c>
       <c r="AX97">
-        <v>6271.8740712826793</v>
+        <v>6271.8740712826802</v>
       </c>
       <c r="AY97">
-        <v>3329.3637904871916</v>
+        <v>3329.3637904871898</v>
       </c>
       <c r="AZ97">
-        <v>1167.7550897646936</v>
+        <v>1167.75508976469</v>
       </c>
       <c r="BA97">
-        <v>1305.6295215408497</v>
+        <v>1305.62952154085</v>
       </c>
       <c r="BB97">
-        <v>1605.3575109273315</v>
+        <v>1605.3575109273299</v>
       </c>
       <c r="BC97">
-        <v>1248.2777704951075</v>
+        <v>1248.27777049511</v>
       </c>
       <c r="BD97">
-        <v>112.0459290577199</v>
+        <v>112.04592905772</v>
       </c>
       <c r="BE97" s="11">
         <v>16.899999999999999</v>
@@ -17821,10 +17819,10 @@
       <c r="BL97" s="11">
         <v>1.2</v>
       </c>
-      <c r="BM97" s="22">
+      <c r="BM97" s="19">
         <v>0.1</v>
       </c>
-      <c r="BN97" s="22">
+      <c r="BN97" s="19">
         <v>5.4</v>
       </c>
     </row>
@@ -17942,7 +17940,7 @@
       <c r="AP98">
         <v>66.124800000000008</v>
       </c>
-      <c r="AQ98" s="16">
+      <c r="AQ98" s="14">
         <v>39.529000000000003</v>
       </c>
       <c r="AS98" s="12">
@@ -17962,25 +17960,25 @@
         <v>30.377000000000002</v>
       </c>
       <c r="AX98">
-        <v>6330.9502876248043</v>
+        <v>6330.9502876248098</v>
       </c>
       <c r="AY98">
-        <v>3338.5103550836379</v>
+        <v>3338.5103550836402</v>
       </c>
       <c r="AZ98">
-        <v>1130.9728639142736</v>
+        <v>1130.97286391427</v>
       </c>
       <c r="BA98">
-        <v>1282.6995033883466</v>
+        <v>1282.69950338835</v>
       </c>
       <c r="BB98">
-        <v>1684.1185126803264</v>
+        <v>1684.11851268033</v>
       </c>
       <c r="BC98">
-        <v>1324.1465290632457</v>
+        <v>1324.14652906325</v>
       </c>
       <c r="BD98">
-        <v>218.79558162146546</v>
+        <v>218.795581621466</v>
       </c>
       <c r="BE98" s="11">
         <v>18.600000000000001</v>
@@ -18006,10 +18004,10 @@
       <c r="BL98" s="11">
         <v>9.6</v>
       </c>
-      <c r="BM98" s="22">
+      <c r="BM98" s="19">
         <v>13</v>
       </c>
-      <c r="BN98" s="22">
+      <c r="BN98" s="19">
         <v>28.6</v>
       </c>
     </row>
@@ -18125,7 +18123,7 @@
       <c r="AP99">
         <v>58.046500000000002</v>
       </c>
-      <c r="AQ99" s="16">
+      <c r="AQ99" s="14">
         <v>36.338999999999999</v>
       </c>
       <c r="AS99" s="12">
@@ -18145,25 +18143,25 @@
         <v>31.988999999999997</v>
       </c>
       <c r="AX99">
-        <v>6330.9502876248043</v>
+        <v>6330.9502876248098</v>
       </c>
       <c r="AY99">
-        <v>3338.5103550836379</v>
+        <v>3338.5103550836402</v>
       </c>
       <c r="AZ99">
-        <v>1130.9728639142736</v>
+        <v>1130.97286391427</v>
       </c>
       <c r="BA99">
-        <v>1282.6995033883466</v>
+        <v>1282.69950338835</v>
       </c>
       <c r="BB99">
-        <v>1684.1185126803264</v>
+        <v>1684.11851268033</v>
       </c>
       <c r="BC99">
-        <v>1324.1465290632457</v>
+        <v>1324.14652906325</v>
       </c>
       <c r="BD99">
-        <v>218.79558162146546</v>
+        <v>218.795581621466</v>
       </c>
       <c r="BE99" s="11">
         <v>12.3</v>
@@ -18189,10 +18187,10 @@
       <c r="BL99" s="11">
         <v>6.1</v>
       </c>
-      <c r="BM99" s="22">
+      <c r="BM99" s="19">
         <v>1.9</v>
       </c>
-      <c r="BN99" s="22">
+      <c r="BN99" s="19">
         <v>15.8</v>
       </c>
     </row>
@@ -18308,7 +18306,7 @@
       <c r="AP100">
         <v>57.052900000000001</v>
       </c>
-      <c r="AQ100" s="16">
+      <c r="AQ100" s="14">
         <v>46.944000000000003</v>
       </c>
       <c r="AS100" s="12">
@@ -18328,25 +18326,25 @@
         <v>36.271999999999998</v>
       </c>
       <c r="AX100">
-        <v>6330.9502876248043</v>
+        <v>6330.9502876248098</v>
       </c>
       <c r="AY100">
-        <v>3338.5103550836379</v>
+        <v>3338.5103550836402</v>
       </c>
       <c r="AZ100">
-        <v>1130.9728639142736</v>
+        <v>1130.97286391427</v>
       </c>
       <c r="BA100">
-        <v>1282.6995033883466</v>
+        <v>1282.69950338835</v>
       </c>
       <c r="BB100">
-        <v>1684.1185126803264</v>
+        <v>1684.11851268033</v>
       </c>
       <c r="BC100">
-        <v>1324.1465290632457</v>
+        <v>1324.14652906325</v>
       </c>
       <c r="BD100">
-        <v>218.79558162146546</v>
+        <v>218.795581621466</v>
       </c>
       <c r="BE100" s="11">
         <v>19.600000000000001</v>
@@ -18372,10 +18370,10 @@
       <c r="BL100" s="11">
         <v>9.9</v>
       </c>
-      <c r="BM100" s="22">
+      <c r="BM100" s="19">
         <v>-13.7</v>
       </c>
-      <c r="BN100" s="22">
+      <c r="BN100" s="19">
         <v>6.5</v>
       </c>
     </row>
@@ -18491,7 +18489,7 @@
       <c r="AP101">
         <v>52.281599999999997</v>
       </c>
-      <c r="AQ101" s="16">
+      <c r="AQ101" s="14">
         <v>47.521999999999998</v>
       </c>
       <c r="AS101" s="12">
@@ -18511,25 +18509,25 @@
         <v>37.753</v>
       </c>
       <c r="AX101">
-        <v>6550.3987394330516</v>
+        <v>6550.3987394330497</v>
       </c>
       <c r="AY101">
-        <v>3462.677910015158</v>
+        <v>3462.6779100151598</v>
       </c>
       <c r="AZ101">
-        <v>1165.8042600725773</v>
+        <v>1165.8042600725801</v>
       </c>
       <c r="BA101">
-        <v>1337.4325952364532</v>
+        <v>1337.43259523645</v>
       </c>
       <c r="BB101">
-        <v>1777.4980238238541</v>
+        <v>1777.49802382385</v>
       </c>
       <c r="BC101">
-        <v>1326.5368707180476</v>
+        <v>1326.5368707180501</v>
       </c>
       <c r="BD101">
-        <v>133.52282100305715</v>
+        <v>133.522821003057</v>
       </c>
       <c r="BE101" s="11">
         <v>19.8</v>
@@ -18555,10 +18553,10 @@
       <c r="BL101" s="11">
         <v>9.1999999999999993</v>
       </c>
-      <c r="BM101" s="22">
+      <c r="BM101" s="19">
         <v>-1.4</v>
       </c>
-      <c r="BN101" s="22">
+      <c r="BN101" s="19">
         <v>22.4</v>
       </c>
     </row>
@@ -18674,7 +18672,7 @@
       <c r="AP102">
         <v>53.210099999999997</v>
       </c>
-      <c r="AQ102" s="16">
+      <c r="AQ102" s="14">
         <v>43.945</v>
       </c>
       <c r="AS102" s="12">
@@ -18694,25 +18692,25 @@
         <v>36.459000000000003</v>
       </c>
       <c r="AX102">
-        <v>6550.3987394330516</v>
+        <v>6550.3987394330497</v>
       </c>
       <c r="AY102">
-        <v>3462.677910015158</v>
+        <v>3462.6779100151598</v>
       </c>
       <c r="AZ102">
-        <v>1165.8042600725773</v>
+        <v>1165.8042600725801</v>
       </c>
       <c r="BA102">
-        <v>1337.4325952364532</v>
+        <v>1337.43259523645</v>
       </c>
       <c r="BB102">
-        <v>1777.4980238238541</v>
+        <v>1777.49802382385</v>
       </c>
       <c r="BC102">
-        <v>1326.5368707180476</v>
+        <v>1326.5368707180501</v>
       </c>
       <c r="BD102">
-        <v>133.52282100305715</v>
+        <v>133.522821003057</v>
       </c>
       <c r="BE102" s="11">
         <v>17.8</v>
@@ -18738,10 +18736,10 @@
       <c r="BL102" s="11">
         <v>7.6</v>
       </c>
-      <c r="BM102" s="22">
+      <c r="BM102" s="19">
         <v>-1.5</v>
       </c>
-      <c r="BN102" s="22">
+      <c r="BN102" s="19">
         <v>14</v>
       </c>
     </row>
@@ -18857,7 +18855,7 @@
       <c r="AP103">
         <v>46.73</v>
       </c>
-      <c r="AQ103" s="16">
+      <c r="AQ103" s="14">
         <v>40.6</v>
       </c>
       <c r="AS103" s="12">
@@ -18877,25 +18875,25 @@
         <v>38.145000000000003</v>
       </c>
       <c r="AX103">
-        <v>6550.3987394330516</v>
+        <v>6550.3987394330497</v>
       </c>
       <c r="AY103">
-        <v>3462.677910015158</v>
+        <v>3462.6779100151598</v>
       </c>
       <c r="AZ103">
-        <v>1165.8042600725773</v>
+        <v>1165.8042600725801</v>
       </c>
       <c r="BA103">
-        <v>1337.4325952364532</v>
+        <v>1337.43259523645</v>
       </c>
       <c r="BB103">
-        <v>1777.4980238238541</v>
+        <v>1777.49802382385</v>
       </c>
       <c r="BC103">
-        <v>1326.5368707180476</v>
+        <v>1326.5368707180501</v>
       </c>
       <c r="BD103">
-        <v>133.52282100305715</v>
+        <v>133.522821003057</v>
       </c>
       <c r="BE103" s="11">
         <v>13.9</v>
@@ -18921,10 +18919,10 @@
       <c r="BL103" s="11">
         <v>-5</v>
       </c>
-      <c r="BM103" s="22">
+      <c r="BM103" s="19">
         <v>10.199999999999999</v>
       </c>
-      <c r="BN103" s="22">
+      <c r="BN103" s="19">
         <v>-1.9</v>
       </c>
     </row>
@@ -19040,7 +19038,7 @@
       <c r="AP104">
         <v>43.067599999999999</v>
       </c>
-      <c r="AQ104" s="16">
+      <c r="AQ104" s="14">
         <v>46.185000000000002</v>
       </c>
       <c r="AS104" s="12">
@@ -19060,25 +19058,25 @@
         <v>42.152999999999999</v>
       </c>
       <c r="AX104">
-        <v>6606.5354158963637</v>
+        <v>6606.5354158963601</v>
       </c>
       <c r="AY104">
-        <v>3541.6015823719258</v>
+        <v>3541.6015823719299</v>
       </c>
       <c r="AZ104">
-        <v>1194.9770678563889</v>
+        <v>1194.97706785639</v>
       </c>
       <c r="BA104">
-        <v>1398.7007200051312</v>
+        <v>1398.7007200051301</v>
       </c>
       <c r="BB104">
-        <v>1756.2630657472664</v>
+        <v>1756.26306574727</v>
       </c>
       <c r="BC104">
-        <v>1293.8542717075732</v>
+        <v>1293.85427170757</v>
       </c>
       <c r="BD104">
-        <v>8.847251623224869</v>
+        <v>8.8472516232248708</v>
       </c>
       <c r="BE104" s="11">
         <v>17</v>
@@ -19104,10 +19102,10 @@
       <c r="BL104" s="11">
         <v>2.1</v>
       </c>
-      <c r="BM104" s="22">
+      <c r="BM104" s="19">
         <v>-10.199999999999999</v>
       </c>
-      <c r="BN104" s="22">
+      <c r="BN104" s="19">
         <v>-1.7</v>
       </c>
     </row>
@@ -19223,7 +19221,7 @@
       <c r="AP105">
         <v>43.179300000000005</v>
       </c>
-      <c r="AQ105" s="16">
+      <c r="AQ105" s="14">
         <v>41.412999999999997</v>
       </c>
       <c r="AS105" s="12">
@@ -19243,25 +19241,25 @@
         <v>38.378</v>
       </c>
       <c r="AX105">
-        <v>6606.5354158963637</v>
+        <v>6606.5354158963601</v>
       </c>
       <c r="AY105">
-        <v>3541.6015823719258</v>
+        <v>3541.6015823719299</v>
       </c>
       <c r="AZ105">
-        <v>1194.9770678563889</v>
+        <v>1194.97706785639</v>
       </c>
       <c r="BA105">
-        <v>1398.7007200051312</v>
+        <v>1398.7007200051301</v>
       </c>
       <c r="BB105">
-        <v>1756.2630657472664</v>
+        <v>1756.26306574727</v>
       </c>
       <c r="BC105">
-        <v>1293.8542717075732</v>
+        <v>1293.85427170757</v>
       </c>
       <c r="BD105">
-        <v>8.847251623224869</v>
+        <v>8.8472516232248708</v>
       </c>
       <c r="BE105" s="11">
         <v>16.100000000000001</v>
@@ -19287,10 +19285,10 @@
       <c r="BL105" s="11">
         <v>3</v>
       </c>
-      <c r="BM105" s="22">
+      <c r="BM105" s="19">
         <v>-5.9</v>
       </c>
-      <c r="BN105" s="22">
+      <c r="BN105" s="19">
         <v>-11.9</v>
       </c>
     </row>
@@ -19406,7 +19404,7 @@
       <c r="AP106">
         <v>45.983199999999997</v>
       </c>
-      <c r="AQ106" s="16">
+      <c r="AQ106" s="14">
         <v>38.054000000000002</v>
       </c>
       <c r="AS106" s="12">
@@ -19426,25 +19424,25 @@
         <v>36.337000000000003</v>
       </c>
       <c r="AX106">
-        <v>6606.5354158963637</v>
+        <v>6606.5354158963601</v>
       </c>
       <c r="AY106">
-        <v>3541.6015823719258</v>
+        <v>3541.6015823719299</v>
       </c>
       <c r="AZ106">
-        <v>1194.9770678563889</v>
+        <v>1194.97706785639</v>
       </c>
       <c r="BA106">
-        <v>1398.7007200051312</v>
+        <v>1398.7007200051301</v>
       </c>
       <c r="BB106">
-        <v>1756.2630657472664</v>
+        <v>1756.26306574727</v>
       </c>
       <c r="BC106">
-        <v>1293.8542717075732</v>
+        <v>1293.85427170757</v>
       </c>
       <c r="BD106">
-        <v>8.847251623224869</v>
+        <v>8.8472516232248708</v>
       </c>
       <c r="BE106" s="11">
         <v>12</v>
@@ -19470,10 +19468,10 @@
       <c r="BL106" s="11">
         <v>0.9</v>
       </c>
-      <c r="BM106" s="22">
+      <c r="BM106" s="19">
         <v>-6.5</v>
       </c>
-      <c r="BN106" s="22">
+      <c r="BN106" s="19">
         <v>-3.2</v>
       </c>
     </row>
@@ -19589,7 +19587,7 @@
       <c r="AP107">
         <v>57.2774</v>
       </c>
-      <c r="AQ107" s="16">
+      <c r="AQ107" s="14">
         <v>41.502000000000002</v>
       </c>
       <c r="AS107" s="12">
@@ -19609,25 +19607,25 @@
         <v>37.784999999999997</v>
       </c>
       <c r="AX107">
-        <v>6762.3905669273581</v>
+        <v>6762.3905669273599</v>
       </c>
       <c r="AY107">
-        <v>3707.5554117742845</v>
+        <v>3707.5554117742799</v>
       </c>
       <c r="AZ107">
-        <v>1233.1496573325269</v>
+        <v>1233.1496573325301</v>
       </c>
       <c r="BA107">
-        <v>1380.5753433404798</v>
+        <v>1380.57534334048</v>
       </c>
       <c r="BB107">
-        <v>1900.4421332667607</v>
+        <v>1900.44213326676</v>
       </c>
       <c r="BC107">
-        <v>1476.877648340708</v>
+        <v>1476.87764834071</v>
       </c>
       <c r="BD107">
-        <v>17.545669554013937</v>
+        <v>17.545669554013902</v>
       </c>
       <c r="BE107" s="11">
         <v>14.7</v>
@@ -19653,10 +19651,10 @@
       <c r="BL107" s="11">
         <v>4.0999999999999996</v>
       </c>
-      <c r="BM107" s="22">
+      <c r="BM107" s="19">
         <v>-7.4</v>
       </c>
-      <c r="BN107" s="22">
+      <c r="BN107" s="19">
         <v>-11</v>
       </c>
     </row>
@@ -19772,7 +19770,7 @@
       <c r="AP108">
         <v>57.230800000000002</v>
       </c>
-      <c r="AQ108" s="16">
+      <c r="AQ108" s="14">
         <v>36.680999999999997</v>
       </c>
       <c r="AS108" s="12">
@@ -19792,25 +19790,25 @@
         <v>31.071999999999999</v>
       </c>
       <c r="AX108">
-        <v>6762.3905669273581</v>
+        <v>6762.3905669273599</v>
       </c>
       <c r="AY108">
-        <v>3707.5554117742845</v>
+        <v>3707.5554117742799</v>
       </c>
       <c r="AZ108">
-        <v>1233.1496573325269</v>
+        <v>1233.1496573325301</v>
       </c>
       <c r="BA108">
-        <v>1380.5753433404798</v>
+        <v>1380.57534334048</v>
       </c>
       <c r="BB108">
-        <v>1900.4421332667607</v>
+        <v>1900.44213326676</v>
       </c>
       <c r="BC108">
-        <v>1476.877648340708</v>
+        <v>1476.87764834071</v>
       </c>
       <c r="BD108">
-        <v>17.545669554013937</v>
+        <v>17.545669554013902</v>
       </c>
       <c r="BE108" s="11">
         <v>13.6</v>
@@ -19836,10 +19834,10 @@
       <c r="BL108" s="11">
         <v>5.9</v>
       </c>
-      <c r="BM108" s="22">
+      <c r="BM108" s="19">
         <v>-6.5</v>
       </c>
-      <c r="BN108" s="22">
+      <c r="BN108" s="19">
         <v>5.8</v>
       </c>
     </row>
@@ -19955,7 +19953,7 @@
       <c r="AP109">
         <v>62.643699999999995</v>
       </c>
-      <c r="AQ109" s="16">
+      <c r="AQ109" s="14">
         <v>38.093000000000004</v>
       </c>
       <c r="AS109" s="12">
@@ -19975,25 +19973,25 @@
         <v>32.157000000000004</v>
       </c>
       <c r="AX109">
-        <v>6762.3905669273581</v>
+        <v>6762.3905669273599</v>
       </c>
       <c r="AY109">
-        <v>3707.5554117742845</v>
+        <v>3707.5554117742799</v>
       </c>
       <c r="AZ109">
-        <v>1233.1496573325269</v>
+        <v>1233.1496573325301</v>
       </c>
       <c r="BA109">
-        <v>1380.5753433404798</v>
+        <v>1380.57534334048</v>
       </c>
       <c r="BB109">
-        <v>1900.4421332667607</v>
+        <v>1900.44213326676</v>
       </c>
       <c r="BC109">
-        <v>1476.877648340708</v>
+        <v>1476.87764834071</v>
       </c>
       <c r="BD109">
-        <v>17.545669554013937</v>
+        <v>17.545669554013902</v>
       </c>
       <c r="BE109" s="11">
         <v>13.6</v>
@@ -20019,10 +20017,10 @@
       <c r="BL109" s="11">
         <v>4</v>
       </c>
-      <c r="BM109" s="22">
+      <c r="BM109" s="19">
         <v>-21.7</v>
       </c>
-      <c r="BN109" s="22">
+      <c r="BN109" s="19">
         <v>17.8</v>
       </c>
     </row>
@@ -20138,7 +20136,7 @@
       <c r="AP110">
         <v>60.8</v>
       </c>
-      <c r="AQ110" s="16">
+      <c r="AQ110" s="14">
         <v>27.901</v>
       </c>
       <c r="AS110" s="12">
@@ -20158,22 +20156,22 @@
         <v>18.655999999999999</v>
       </c>
       <c r="AX110">
-        <v>6752.9258200431314</v>
+        <v>6752.9258200431304</v>
       </c>
       <c r="AY110">
-        <v>3575.406383427995</v>
+        <v>3575.406383428</v>
       </c>
       <c r="AZ110">
         <v>1172.47158979044</v>
       </c>
       <c r="BA110">
-        <v>1403.8127612190058</v>
+        <v>1403.8127612190101</v>
       </c>
       <c r="BB110">
-        <v>2213.6724582857833</v>
+        <v>2213.6724582857801</v>
       </c>
       <c r="BC110">
-        <v>1545.2986710458372</v>
+        <v>1545.2986710458399</v>
       </c>
       <c r="BD110">
         <v>-67.138701634255995</v>
@@ -20202,10 +20200,10 @@
       <c r="BL110" s="11">
         <v>11.3</v>
       </c>
-      <c r="BM110" s="22">
+      <c r="BM110" s="19">
         <v>-5.9</v>
       </c>
-      <c r="BN110" s="22">
+      <c r="BN110" s="19">
         <v>4.3</v>
       </c>
     </row>
@@ -20321,7 +20319,7 @@
       <c r="AP111">
         <v>53.800000000000004</v>
       </c>
-      <c r="AQ111" s="16">
+      <c r="AQ111" s="14">
         <v>29.401</v>
       </c>
       <c r="AS111" s="12">
@@ -20341,22 +20339,22 @@
         <v>21.518000000000001</v>
       </c>
       <c r="AX111">
-        <v>6752.9258200431314</v>
+        <v>6752.9258200431304</v>
       </c>
       <c r="AY111">
-        <v>3575.406383427995</v>
+        <v>3575.406383428</v>
       </c>
       <c r="AZ111">
         <v>1172.47158979044</v>
       </c>
       <c r="BA111">
-        <v>1403.8127612190058</v>
+        <v>1403.8127612190101</v>
       </c>
       <c r="BB111">
-        <v>2213.6724582857833</v>
+        <v>2213.6724582857801</v>
       </c>
       <c r="BC111">
-        <v>1545.2986710458372</v>
+        <v>1545.2986710458399</v>
       </c>
       <c r="BD111">
         <v>-67.138701634255995</v>
@@ -20385,10 +20383,10 @@
       <c r="BL111" s="11">
         <v>8.4</v>
       </c>
-      <c r="BM111" s="22">
+      <c r="BM111" s="19">
         <v>-18</v>
       </c>
-      <c r="BN111" s="22">
+      <c r="BN111" s="19">
         <v>-0.8</v>
       </c>
     </row>
@@ -20504,7 +20502,7 @@
       <c r="AP112">
         <v>55</v>
       </c>
-      <c r="AQ112" s="16">
+      <c r="AQ112" s="14">
         <v>32.905000000000001</v>
       </c>
       <c r="AS112" s="12">
@@ -20524,22 +20522,22 @@
         <v>24.582000000000001</v>
       </c>
       <c r="AX112">
-        <v>6752.9258200431314</v>
+        <v>6752.9258200431304</v>
       </c>
       <c r="AY112">
-        <v>3575.406383427995</v>
+        <v>3575.406383428</v>
       </c>
       <c r="AZ112">
         <v>1172.47158979044</v>
       </c>
       <c r="BA112">
-        <v>1403.8127612190058</v>
+        <v>1403.8127612190101</v>
       </c>
       <c r="BB112">
-        <v>2213.6724582857833</v>
+        <v>2213.6724582857801</v>
       </c>
       <c r="BC112">
-        <v>1545.2986710458372</v>
+        <v>1545.2986710458399</v>
       </c>
       <c r="BD112">
         <v>-67.138701634255995</v>
@@ -20568,10 +20566,10 @@
       <c r="BL112" s="11">
         <v>10.1</v>
       </c>
-      <c r="BM112" s="22">
+      <c r="BM112" s="19">
         <v>-14.4</v>
       </c>
-      <c r="BN112" s="22">
+      <c r="BN112" s="19">
         <v>-5</v>
       </c>
     </row>
@@ -20687,7 +20685,7 @@
       <c r="AP113">
         <v>51.400000000000006</v>
       </c>
-      <c r="AQ113" s="16">
+      <c r="AQ113" s="14">
         <v>30.715</v>
       </c>
       <c r="AS113" s="12">
@@ -20707,25 +20705,25 @@
         <v>23.37</v>
       </c>
       <c r="AX113">
-        <v>6793.7535873889356</v>
+        <v>6793.7535873889401</v>
       </c>
       <c r="AY113">
-        <v>3649.5178338852461</v>
+        <v>3649.5178338852502</v>
       </c>
       <c r="AZ113">
-        <v>1205.1062588661673</v>
+        <v>1205.10625886617</v>
       </c>
       <c r="BA113">
-        <v>1341.7636829125393</v>
+        <v>1341.7636829125399</v>
       </c>
       <c r="BB113">
-        <v>1870.5959959186912</v>
+        <v>1870.5959959186901</v>
       </c>
       <c r="BC113">
-        <v>1247.790824218838</v>
+        <v>1247.79082421884</v>
       </c>
       <c r="BD113">
-        <v>-25.439359974870513</v>
+        <v>-25.439359974870499</v>
       </c>
       <c r="BE113" s="11">
         <v>14.5</v>
@@ -20751,10 +20749,10 @@
       <c r="BL113" s="11">
         <v>7.4</v>
       </c>
-      <c r="BM113" s="22">
+      <c r="BM113" s="19">
         <v>-3.6</v>
       </c>
-      <c r="BN113" s="22">
+      <c r="BN113" s="19">
         <v>9.1999999999999993</v>
       </c>
     </row>
@@ -20870,7 +20868,7 @@
       <c r="AP114">
         <v>47.900000000000006</v>
       </c>
-      <c r="AQ114" s="16">
+      <c r="AQ114" s="14">
         <v>30.654</v>
       </c>
       <c r="AS114" s="12">
@@ -20890,25 +20888,25 @@
         <v>22.49</v>
       </c>
       <c r="AX114">
-        <v>6793.7535873889356</v>
+        <v>6793.7535873889401</v>
       </c>
       <c r="AY114">
-        <v>3649.5178338852461</v>
+        <v>3649.5178338852502</v>
       </c>
       <c r="AZ114">
-        <v>1205.1062588661673</v>
+        <v>1205.10625886617</v>
       </c>
       <c r="BA114">
-        <v>1341.7636829125393</v>
+        <v>1341.7636829125399</v>
       </c>
       <c r="BB114">
-        <v>1870.5959959186912</v>
+        <v>1870.5959959186901</v>
       </c>
       <c r="BC114">
-        <v>1247.790824218838</v>
+        <v>1247.79082421884</v>
       </c>
       <c r="BD114">
-        <v>-25.439359974870513</v>
+        <v>-25.439359974870499</v>
       </c>
       <c r="BE114" s="11">
         <v>15.4</v>
@@ -20934,10 +20932,10 @@
       <c r="BL114" s="11">
         <v>6.4</v>
       </c>
-      <c r="BM114" s="22">
+      <c r="BM114" s="19">
         <v>-4.5999999999999996</v>
       </c>
-      <c r="BN114" s="22">
+      <c r="BN114" s="19">
         <v>-0.6</v>
       </c>
     </row>
@@ -21053,7 +21051,7 @@
       <c r="AP115">
         <v>42.699999999999996</v>
       </c>
-      <c r="AQ115" s="16">
+      <c r="AQ115" s="14">
         <v>30.088000000000001</v>
       </c>
       <c r="AS115" s="12">
@@ -21073,25 +21071,25 @@
         <v>24.320999999999998</v>
       </c>
       <c r="AX115">
-        <v>6793.7535873889356</v>
+        <v>6793.7535873889401</v>
       </c>
       <c r="AY115">
-        <v>3649.5178338852461</v>
+        <v>3649.5178338852502</v>
       </c>
       <c r="AZ115">
-        <v>1205.1062588661673</v>
+        <v>1205.10625886617</v>
       </c>
       <c r="BA115">
-        <v>1341.7636829125393</v>
+        <v>1341.7636829125399</v>
       </c>
       <c r="BB115">
-        <v>1870.5959959186912</v>
+        <v>1870.5959959186901</v>
       </c>
       <c r="BC115">
-        <v>1247.790824218838</v>
+        <v>1247.79082421884</v>
       </c>
       <c r="BD115">
-        <v>-25.439359974870513</v>
+        <v>-25.439359974870499</v>
       </c>
       <c r="BE115" s="11">
         <v>13.9</v>
@@ -21117,10 +21115,10 @@
       <c r="BL115" s="11">
         <v>2.5</v>
       </c>
-      <c r="BM115" s="22">
+      <c r="BM115" s="19">
         <v>-3.6</v>
       </c>
-      <c r="BN115" s="22">
+      <c r="BN115" s="19">
         <v>-1.3</v>
       </c>
     </row>
@@ -21236,7 +21234,7 @@
       <c r="AP116">
         <v>35</v>
       </c>
-      <c r="AQ116" s="16">
+      <c r="AQ116" s="14">
         <v>27.321999999999999</v>
       </c>
       <c r="AS116" s="12">
@@ -21259,22 +21257,22 @@
         <v>7015.94835162461</v>
       </c>
       <c r="AY116">
-        <v>3596.4764776163897</v>
+        <v>3596.4764776163902</v>
       </c>
       <c r="AZ116">
-        <v>1238.9236150867268</v>
+        <v>1238.92361508673</v>
       </c>
       <c r="BA116">
-        <v>1383.6885482780269</v>
+        <v>1383.6885482780301</v>
       </c>
       <c r="BB116">
-        <v>1953.6172796958683</v>
+        <v>1953.6172796958699</v>
       </c>
       <c r="BC116">
-        <v>1445.4101807714685</v>
+        <v>1445.4101807714701</v>
       </c>
       <c r="BD116">
-        <v>288.65261171906667</v>
+        <v>288.65261171906701</v>
       </c>
       <c r="BE116" s="11">
         <v>10.6</v>
@@ -21300,10 +21298,10 @@
       <c r="BL116" s="11">
         <v>3.8</v>
       </c>
-      <c r="BM116" s="22">
+      <c r="BM116" s="19">
         <v>-10.199999999999999</v>
       </c>
-      <c r="BN116" s="22">
+      <c r="BN116" s="19">
         <v>-8.9</v>
       </c>
     </row>
@@ -21419,7 +21417,7 @@
       <c r="AP117">
         <v>44.4</v>
       </c>
-      <c r="AQ117" s="16">
+      <c r="AQ117" s="14">
         <v>25.033999999999999</v>
       </c>
       <c r="AS117" s="12">
@@ -21442,22 +21440,22 @@
         <v>7015.94835162461</v>
       </c>
       <c r="AY117">
-        <v>3596.4764776163897</v>
+        <v>3596.4764776163902</v>
       </c>
       <c r="AZ117">
-        <v>1238.9236150867268</v>
+        <v>1238.92361508673</v>
       </c>
       <c r="BA117">
-        <v>1383.6885482780269</v>
+        <v>1383.6885482780301</v>
       </c>
       <c r="BB117">
-        <v>1953.6172796958683</v>
+        <v>1953.6172796958699</v>
       </c>
       <c r="BC117">
-        <v>1445.4101807714685</v>
+        <v>1445.4101807714701</v>
       </c>
       <c r="BD117">
-        <v>288.65261171906667</v>
+        <v>288.65261171906701</v>
       </c>
       <c r="BE117" s="11">
         <v>8.8000000000000007</v>
@@ -21483,10 +21481,10 @@
       <c r="BL117" s="11">
         <v>1.4</v>
       </c>
-      <c r="BM117" s="22">
+      <c r="BM117" s="19">
         <v>-6.5</v>
       </c>
-      <c r="BN117" s="22">
+      <c r="BN117" s="19">
         <v>-4.2</v>
       </c>
     </row>
@@ -21602,7 +21600,7 @@
       <c r="AP118">
         <v>48</v>
       </c>
-      <c r="AQ118" s="16">
+      <c r="AQ118" s="14">
         <v>26.343</v>
       </c>
       <c r="AS118" s="12">
@@ -21625,22 +21623,22 @@
         <v>7015.94835162461</v>
       </c>
       <c r="AY118">
-        <v>3596.4764776163897</v>
+        <v>3596.4764776163902</v>
       </c>
       <c r="AZ118">
-        <v>1238.9236150867268</v>
+        <v>1238.92361508673</v>
       </c>
       <c r="BA118">
-        <v>1383.6885482780269</v>
+        <v>1383.6885482780301</v>
       </c>
       <c r="BB118">
-        <v>1953.6172796958683</v>
+        <v>1953.6172796958699</v>
       </c>
       <c r="BC118">
-        <v>1445.4101807714685</v>
+        <v>1445.4101807714701</v>
       </c>
       <c r="BD118">
-        <v>288.65261171906667</v>
+        <v>288.65261171906701</v>
       </c>
       <c r="BE118" s="11">
         <v>9.5</v>
@@ -21666,10 +21664,10 @@
       <c r="BL118" s="11">
         <v>2.2000000000000002</v>
       </c>
-      <c r="BM118" s="22">
+      <c r="BM118" s="19">
         <v>9.4</v>
       </c>
-      <c r="BN118" s="22">
+      <c r="BN118" s="19">
         <v>7.6</v>
       </c>
     </row>
@@ -21785,7 +21783,7 @@
       <c r="AP119">
         <v>61.4</v>
       </c>
-      <c r="AQ119" s="16">
+      <c r="AQ119" s="14">
         <v>26.963999999999999</v>
       </c>
       <c r="AS119" s="12">
@@ -21805,25 +21803,25 @@
         <v>24.217000000000002</v>
       </c>
       <c r="AX119">
-        <v>7037.5777046613293</v>
+        <v>7037.5777046613302</v>
       </c>
       <c r="AY119">
-        <v>3682.0135671827084</v>
+        <v>3682.0135671827102</v>
       </c>
       <c r="AZ119">
-        <v>1278.733985704612</v>
+        <v>1278.7339857046099</v>
       </c>
       <c r="BA119">
-        <v>1379.5735350245768</v>
+        <v>1379.57353502458</v>
       </c>
       <c r="BB119">
-        <v>1917.4602844617593</v>
+        <v>1917.46028446176</v>
       </c>
       <c r="BC119">
-        <v>1465.7637081961541</v>
+        <v>1465.76370819615</v>
       </c>
       <c r="BD119">
-        <v>245.56004048382724</v>
+        <v>245.56004048382701</v>
       </c>
       <c r="BE119" s="11">
         <v>10</v>
@@ -21849,10 +21847,10 @@
       <c r="BL119" s="11">
         <v>4.0999999999999996</v>
       </c>
-      <c r="BM119" s="22">
+      <c r="BM119" s="19">
         <v>-2.4</v>
       </c>
-      <c r="BN119" s="22">
+      <c r="BN119" s="19">
         <v>-0.1</v>
       </c>
     </row>
@@ -21968,7 +21966,7 @@
       <c r="AP120">
         <v>60.699999999999996</v>
       </c>
-      <c r="AQ120" s="16">
+      <c r="AQ120" s="14">
         <v>25.384</v>
       </c>
       <c r="AS120" s="12">
@@ -21988,25 +21986,25 @@
         <v>22.734000000000002</v>
       </c>
       <c r="AX120">
-        <v>7037.5777046613293</v>
+        <v>7037.5777046613302</v>
       </c>
       <c r="AY120">
-        <v>3682.0135671827084</v>
+        <v>3682.0135671827102</v>
       </c>
       <c r="AZ120">
-        <v>1278.733985704612</v>
+        <v>1278.7339857046099</v>
       </c>
       <c r="BA120">
-        <v>1379.5735350245768</v>
+        <v>1379.57353502458</v>
       </c>
       <c r="BB120">
-        <v>1917.4602844617593</v>
+        <v>1917.46028446176</v>
       </c>
       <c r="BC120">
-        <v>1465.7637081961541</v>
+        <v>1465.76370819615</v>
       </c>
       <c r="BD120">
-        <v>245.56004048382724</v>
+        <v>245.56004048382701</v>
       </c>
       <c r="BE120" s="11">
         <v>9</v>
@@ -22032,10 +22030,10 @@
       <c r="BL120" s="11">
         <v>4.5</v>
       </c>
-      <c r="BM120" s="22">
+      <c r="BM120" s="19">
         <v>-1.5</v>
       </c>
-      <c r="BN120" s="22">
+      <c r="BN120" s="19">
         <v>0.1</v>
       </c>
     </row>
@@ -22151,7 +22149,7 @@
       <c r="AP121">
         <v>63</v>
       </c>
-      <c r="AQ121" s="16">
+      <c r="AQ121" s="14">
         <v>28.707999999999998</v>
       </c>
       <c r="AS121" s="12">
@@ -22171,25 +22169,25 @@
         <v>24.604999999999997</v>
       </c>
       <c r="AX121">
-        <v>7037.5777046613293</v>
+        <v>7037.5777046613302</v>
       </c>
       <c r="AY121">
-        <v>3682.0135671827084</v>
+        <v>3682.0135671827102</v>
       </c>
       <c r="AZ121">
-        <v>1278.733985704612</v>
+        <v>1278.7339857046099</v>
       </c>
       <c r="BA121">
-        <v>1379.5735350245768</v>
+        <v>1379.57353502458</v>
       </c>
       <c r="BB121">
-        <v>1917.4602844617593</v>
+        <v>1917.46028446176</v>
       </c>
       <c r="BC121">
-        <v>1465.7637081961541</v>
+        <v>1465.76370819615</v>
       </c>
       <c r="BD121">
-        <v>245.56004048382724</v>
+        <v>245.56004048382701</v>
       </c>
       <c r="BE121" s="11">
         <v>11.2</v>
@@ -22215,10 +22213,10 @@
       <c r="BL121" s="11">
         <v>5.7</v>
       </c>
-      <c r="BM121" s="22">
+      <c r="BM121" s="19">
         <v>-10.7</v>
       </c>
-      <c r="BN121" s="22">
+      <c r="BN121" s="19">
         <v>-3.9</v>
       </c>
     </row>
@@ -22334,7 +22332,7 @@
       <c r="AP122">
         <v>61.9</v>
       </c>
-      <c r="AQ122" s="16">
+      <c r="AQ122" s="14">
         <v>17.149000000000001</v>
       </c>
       <c r="AS122" s="12">
@@ -22354,25 +22352,25 @@
         <v>14.443999999999999</v>
       </c>
       <c r="AX122">
-        <v>6934.2011224711923</v>
+        <v>6934.2011224711896</v>
       </c>
       <c r="AY122">
-        <v>3736.4200105014456</v>
+        <v>3736.4200105014502</v>
       </c>
       <c r="AZ122">
-        <v>1279.8976046184391</v>
+        <v>1279.89760461844</v>
       </c>
       <c r="BA122">
-        <v>1396.3588881505864</v>
+        <v>1396.35888815059</v>
       </c>
       <c r="BB122">
-        <v>1847.044749705811</v>
+        <v>1847.0447497058101</v>
       </c>
       <c r="BC122">
         <v>1527.77862644124</v>
       </c>
       <c r="BD122">
-        <v>202.25849593615021</v>
+        <v>202.25849593615001</v>
       </c>
       <c r="BE122" s="11">
         <v>7.3</v>
@@ -22398,10 +22396,10 @@
       <c r="BL122" s="11">
         <v>4.7</v>
       </c>
-      <c r="BM122" s="22">
+      <c r="BM122" s="19">
         <v>-2.7</v>
       </c>
-      <c r="BN122" s="22">
+      <c r="BN122" s="19">
         <v>-0.2</v>
       </c>
     </row>
@@ -22517,7 +22515,7 @@
       <c r="AP123">
         <v>51.8</v>
       </c>
-      <c r="AQ123" s="16">
+      <c r="AQ123" s="14">
         <v>20.135000000000002</v>
       </c>
       <c r="AS123" s="12">
@@ -22537,25 +22535,25 @@
         <v>17.761000000000003</v>
       </c>
       <c r="AX123">
-        <v>6934.2011224711923</v>
+        <v>6934.2011224711896</v>
       </c>
       <c r="AY123">
-        <v>3736.4200105014456</v>
+        <v>3736.4200105014502</v>
       </c>
       <c r="AZ123">
-        <v>1279.8976046184391</v>
+        <v>1279.89760461844</v>
       </c>
       <c r="BA123">
-        <v>1396.3588881505864</v>
+        <v>1396.35888815059</v>
       </c>
       <c r="BB123">
-        <v>1847.044749705811</v>
+        <v>1847.0447497058101</v>
       </c>
       <c r="BC123">
         <v>1527.77862644124</v>
       </c>
       <c r="BD123">
-        <v>202.25849593615021</v>
+        <v>202.25849593615001</v>
       </c>
       <c r="BE123" s="11">
         <v>7.3</v>
@@ -22581,10 +22579,10 @@
       <c r="BL123" s="11">
         <v>3.9</v>
       </c>
-      <c r="BM123" s="22">
+      <c r="BM123" s="19">
         <v>-5</v>
       </c>
-      <c r="BN123" s="22">
+      <c r="BN123" s="19">
         <v>-3</v>
       </c>
     </row>
@@ -22700,7 +22698,7 @@
       <c r="AP124">
         <v>54</v>
       </c>
-      <c r="AQ124" s="16">
+      <c r="AQ124" s="14">
         <v>23.184999999999999</v>
       </c>
       <c r="AS124" s="12">
@@ -22720,25 +22718,25 @@
         <v>21.152000000000001</v>
       </c>
       <c r="AX124">
-        <v>6934.2011224711923</v>
+        <v>6934.2011224711896</v>
       </c>
       <c r="AY124">
-        <v>3736.4200105014456</v>
+        <v>3736.4200105014502</v>
       </c>
       <c r="AZ124">
-        <v>1279.8976046184391</v>
+        <v>1279.89760461844</v>
       </c>
       <c r="BA124">
-        <v>1396.3588881505864</v>
+        <v>1396.35888815059</v>
       </c>
       <c r="BB124">
-        <v>1847.044749705811</v>
+        <v>1847.0447497058101</v>
       </c>
       <c r="BC124">
         <v>1527.77862644124</v>
       </c>
       <c r="BD124">
-        <v>202.25849593615021</v>
+        <v>202.25849593615001</v>
       </c>
       <c r="BE124" s="11">
         <v>7.8</v>
@@ -22764,10 +22762,10 @@
       <c r="BL124" s="11">
         <v>3.9</v>
       </c>
-      <c r="BM124" s="22">
+      <c r="BM124" s="19">
         <v>-1.3</v>
       </c>
-      <c r="BN124" s="22">
+      <c r="BN124" s="19">
         <v>1.1000000000000001</v>
       </c>
     </row>
@@ -22883,7 +22881,7 @@
       <c r="AP125">
         <v>49.7</v>
       </c>
-      <c r="AQ125" s="16">
+      <c r="AQ125" s="14">
         <v>21.75</v>
       </c>
       <c r="AS125" s="12">
@@ -22903,25 +22901,25 @@
         <v>20.913</v>
       </c>
       <c r="AX125">
-        <v>7068.2927878590881</v>
+        <v>7068.2927878590899</v>
       </c>
       <c r="AY125">
-        <v>3761.9014682685879</v>
+        <v>3761.9014682685902</v>
       </c>
       <c r="AZ125">
-        <v>1299.0589660413759</v>
+        <v>1299.05896604138</v>
       </c>
       <c r="BA125">
-        <v>1435.5917839961537</v>
+        <v>1435.5917839961501</v>
       </c>
       <c r="BB125">
-        <v>1802.4556248164072</v>
+        <v>1802.4556248164099</v>
       </c>
       <c r="BC125">
         <v>1426.26836748397</v>
       </c>
       <c r="BD125">
-        <v>195.55331222053337</v>
+        <v>195.553312220533</v>
       </c>
       <c r="BE125" s="11">
         <v>6.6</v>
@@ -22947,10 +22945,10 @@
       <c r="BL125" s="11">
         <v>1.3</v>
       </c>
-      <c r="BM125" s="22">
+      <c r="BM125" s="19">
         <v>3.9</v>
       </c>
-      <c r="BN125" s="22">
+      <c r="BN125" s="19">
         <v>3.2</v>
       </c>
     </row>
@@ -23066,7 +23064,7 @@
       <c r="AP126">
         <v>46.1</v>
       </c>
-      <c r="AQ126" s="16">
+      <c r="AQ126" s="14">
         <v>22.042000000000002</v>
       </c>
       <c r="AS126" s="12">
@@ -23086,25 +23084,25 @@
         <v>20.337</v>
       </c>
       <c r="AX126">
-        <v>7068.2927878590881</v>
+        <v>7068.2927878590899</v>
       </c>
       <c r="AY126">
-        <v>3761.9014682685879</v>
+        <v>3761.9014682685902</v>
       </c>
       <c r="AZ126">
-        <v>1299.0589660413759</v>
+        <v>1299.05896604138</v>
       </c>
       <c r="BA126">
-        <v>1435.5917839961537</v>
+        <v>1435.5917839961501</v>
       </c>
       <c r="BB126">
-        <v>1802.4556248164072</v>
+        <v>1802.4556248164099</v>
       </c>
       <c r="BC126">
         <v>1426.26836748397</v>
       </c>
       <c r="BD126">
-        <v>195.55331222053337</v>
+        <v>195.553312220533</v>
       </c>
       <c r="BE126" s="11">
         <v>7.6</v>
@@ -23130,10 +23128,10 @@
       <c r="BL126" s="11">
         <v>2.4</v>
       </c>
-      <c r="BM126" s="22">
+      <c r="BM126" s="19">
         <v>0.3</v>
       </c>
-      <c r="BN126" s="22">
+      <c r="BN126" s="19">
         <v>-0.6</v>
       </c>
     </row>
@@ -23249,7 +23247,7 @@
       <c r="AP127">
         <v>43.300000000000004</v>
       </c>
-      <c r="AQ127" s="16">
+      <c r="AQ127" s="14">
         <v>24.038</v>
       </c>
       <c r="AS127" s="12">
@@ -23269,25 +23267,25 @@
         <v>22.881999999999998</v>
       </c>
       <c r="AX127">
-        <v>7068.2927878590881</v>
+        <v>7068.2927878590899</v>
       </c>
       <c r="AY127">
-        <v>3761.9014682685879</v>
+        <v>3761.9014682685902</v>
       </c>
       <c r="AZ127">
-        <v>1299.0589660413759</v>
+        <v>1299.05896604138</v>
       </c>
       <c r="BA127">
-        <v>1435.5917839961537</v>
+        <v>1435.5917839961501</v>
       </c>
       <c r="BB127">
-        <v>1802.4556248164072</v>
+        <v>1802.4556248164099</v>
       </c>
       <c r="BC127">
         <v>1426.26836748397</v>
       </c>
       <c r="BD127">
-        <v>195.55331222053337</v>
+        <v>195.553312220533</v>
       </c>
       <c r="BE127" s="11">
         <v>8.1</v>
@@ -23313,10 +23311,10 @@
       <c r="BL127" s="11">
         <v>-1.9</v>
       </c>
-      <c r="BM127" s="22">
+      <c r="BM127" s="19">
         <v>-1.3</v>
       </c>
-      <c r="BN127" s="22">
+      <c r="BN127" s="19">
         <v>-1.9</v>
       </c>
     </row>
@@ -23432,7 +23430,7 @@
       <c r="AP128">
         <v>44.3</v>
       </c>
-      <c r="AQ128" s="16">
+      <c r="AQ128" s="14">
         <v>22.445</v>
       </c>
       <c r="AS128" s="12">
@@ -23452,25 +23450,25 @@
         <v>23.244</v>
       </c>
       <c r="AX128">
-        <v>7184.8271674540692</v>
+        <v>7184.8271674540701</v>
       </c>
       <c r="AY128">
-        <v>3830.0783517207255</v>
+        <v>3830.0783517207301</v>
       </c>
       <c r="AZ128">
-        <v>1323.6968401638751</v>
+        <v>1323.6968401638801</v>
       </c>
       <c r="BA128">
-        <v>1503.2187956073942</v>
+        <v>1503.2187956073899</v>
       </c>
       <c r="BB128">
-        <v>1853.790011035888</v>
+        <v>1853.7900110358901</v>
       </c>
       <c r="BC128">
-        <v>1454.7103415214533</v>
+        <v>1454.7103415214499</v>
       </c>
       <c r="BD128">
-        <v>128.7535104476392</v>
+        <v>128.753510447639</v>
       </c>
       <c r="BE128" s="11">
         <v>6.3</v>
@@ -23496,10 +23494,10 @@
       <c r="BL128" s="11">
         <v>0.3</v>
       </c>
-      <c r="BM128" s="22">
+      <c r="BM128" s="19">
         <v>-6.6</v>
       </c>
-      <c r="BN128" s="22">
+      <c r="BN128" s="19">
         <v>-6.7</v>
       </c>
     </row>
@@ -23615,7 +23613,7 @@
       <c r="AP129">
         <v>45.300000000000004</v>
       </c>
-      <c r="AQ129" s="16">
+      <c r="AQ129" s="14">
         <v>23.105</v>
       </c>
       <c r="AS129" s="12">
@@ -23635,25 +23633,25 @@
         <v>26.149000000000001</v>
       </c>
       <c r="AX129">
-        <v>7184.8271674540692</v>
+        <v>7184.8271674540701</v>
       </c>
       <c r="AY129">
-        <v>3830.0783517207255</v>
+        <v>3830.0783517207301</v>
       </c>
       <c r="AZ129">
-        <v>1323.6968401638751</v>
+        <v>1323.6968401638801</v>
       </c>
       <c r="BA129">
-        <v>1503.2187956073942</v>
+        <v>1503.2187956073899</v>
       </c>
       <c r="BB129">
-        <v>1853.790011035888</v>
+        <v>1853.7900110358901</v>
       </c>
       <c r="BC129">
-        <v>1454.7103415214533</v>
+        <v>1454.7103415214499</v>
       </c>
       <c r="BD129">
-        <v>128.7535104476392</v>
+        <v>128.753510447639</v>
       </c>
       <c r="BE129" s="11">
         <v>4.7</v>
@@ -23679,10 +23677,10 @@
       <c r="BL129" s="11">
         <v>-1.8</v>
       </c>
-      <c r="BM129" s="22">
+      <c r="BM129" s="19">
         <v>1.9</v>
       </c>
-      <c r="BN129" s="22">
+      <c r="BN129" s="19">
         <v>-0.5</v>
       </c>
     </row>
@@ -23798,7 +23796,7 @@
       <c r="AP130">
         <v>50.7</v>
       </c>
-      <c r="AQ130" s="16">
+      <c r="AQ130" s="14">
         <v>25.369</v>
       </c>
       <c r="AS130" s="12">
@@ -23818,25 +23816,25 @@
         <v>24.259</v>
       </c>
       <c r="AX130">
-        <v>7184.8271674540692</v>
+        <v>7184.8271674540701</v>
       </c>
       <c r="AY130">
-        <v>3830.0783517207255</v>
+        <v>3830.0783517207301</v>
       </c>
       <c r="AZ130">
-        <v>1323.6968401638751</v>
+        <v>1323.6968401638801</v>
       </c>
       <c r="BA130">
-        <v>1503.2187956073942</v>
+        <v>1503.2187956073899</v>
       </c>
       <c r="BB130">
-        <v>1853.790011035888</v>
+        <v>1853.7900110358901</v>
       </c>
       <c r="BC130">
-        <v>1454.7103415214533</v>
+        <v>1454.7103415214499</v>
       </c>
       <c r="BD130">
-        <v>128.7535104476392</v>
+        <v>128.753510447639</v>
       </c>
       <c r="BE130" s="11">
         <v>7.4</v>
@@ -23862,10 +23860,10 @@
       <c r="BL130" s="11">
         <v>1.6</v>
       </c>
-      <c r="BM130" s="22">
+      <c r="BM130" s="19">
         <v>-0.9</v>
       </c>
-      <c r="BN130" s="22">
+      <c r="BN130" s="19">
         <v>-0.4</v>
       </c>
     </row>
@@ -23981,7 +23979,7 @@
       <c r="AP131">
         <v>60.957900000000002</v>
       </c>
-      <c r="AQ131" s="16">
+      <c r="AQ131" s="14">
         <v>24.751000000000001</v>
       </c>
       <c r="AS131" s="12">
@@ -24004,22 +24002,22 @@
         <v>7373.4530802213203</v>
       </c>
       <c r="AY131">
-        <v>3871.9790581847415</v>
+        <v>3871.9790581847401</v>
       </c>
       <c r="AZ131">
-        <v>1340.4933983377593</v>
+        <v>1340.49339833776</v>
       </c>
       <c r="BA131">
-        <v>1584.9233687780841</v>
+        <v>1584.92336877808</v>
       </c>
       <c r="BB131">
-        <v>1864.7163032310507</v>
+        <v>1864.71630323105</v>
       </c>
       <c r="BC131">
-        <v>1472.550371925882</v>
+        <v>1472.55037192588</v>
       </c>
       <c r="BD131">
-        <v>183.89132361556707</v>
+        <v>183.89132361556699</v>
       </c>
       <c r="BE131" s="11">
         <v>6.6</v>
@@ -24045,10 +24043,10 @@
       <c r="BL131" s="11">
         <v>-0.3</v>
       </c>
-      <c r="BM131" s="22">
+      <c r="BM131" s="19">
         <v>9</v>
       </c>
-      <c r="BN131" s="22">
+      <c r="BN131" s="19">
         <v>5.9</v>
       </c>
     </row>
@@ -24152,7 +24150,7 @@
       <c r="AP132">
         <v>62.663899999999998</v>
       </c>
-      <c r="AQ132" s="16">
+      <c r="AQ132" s="14">
         <v>26.532</v>
       </c>
       <c r="AS132" s="12">
@@ -24175,22 +24173,22 @@
         <v>7373.4530802213203</v>
       </c>
       <c r="AY132">
-        <v>3871.9790581847415</v>
+        <v>3871.9790581847401</v>
       </c>
       <c r="AZ132">
-        <v>1340.4933983377593</v>
+        <v>1340.49339833776</v>
       </c>
       <c r="BA132">
-        <v>1584.9233687780841</v>
+        <v>1584.92336877808</v>
       </c>
       <c r="BB132">
-        <v>1864.7163032310507</v>
+        <v>1864.71630323105</v>
       </c>
       <c r="BC132">
-        <v>1472.550371925882</v>
+        <v>1472.55037192588</v>
       </c>
       <c r="BD132">
-        <v>183.89132361556707</v>
+        <v>183.89132361556699</v>
       </c>
       <c r="BE132" s="11">
         <v>8.9</v>
@@ -24216,10 +24214,10 @@
       <c r="BL132" s="11">
         <v>5.0999999999999996</v>
       </c>
-      <c r="BM132" s="22">
+      <c r="BM132" s="19">
         <v>-2.4</v>
       </c>
-      <c r="BN132" s="22">
+      <c r="BN132" s="19">
         <v>-0.1</v>
       </c>
     </row>
@@ -24323,7 +24321,7 @@
       <c r="AP133">
         <v>66.233399999999989</v>
       </c>
-      <c r="AQ133" s="16">
+      <c r="AQ133" s="14">
         <v>31.209</v>
       </c>
       <c r="AS133" s="12">
@@ -24346,22 +24344,22 @@
         <v>7373.4530802213203</v>
       </c>
       <c r="AY133">
-        <v>3871.9790581847415</v>
+        <v>3871.9790581847401</v>
       </c>
       <c r="AZ133">
-        <v>1340.4933983377593</v>
+        <v>1340.49339833776</v>
       </c>
       <c r="BA133">
-        <v>1584.9233687780841</v>
+        <v>1584.92336877808</v>
       </c>
       <c r="BB133">
-        <v>1864.7163032310507</v>
+        <v>1864.71630323105</v>
       </c>
       <c r="BC133">
-        <v>1472.550371925882</v>
+        <v>1472.55037192588</v>
       </c>
       <c r="BD133">
-        <v>183.89132361556707</v>
+        <v>183.89132361556699</v>
       </c>
       <c r="BE133" s="11">
         <v>11.7</v>
@@ -24387,10 +24385,10 @@
       <c r="BL133" s="11">
         <v>5.3</v>
       </c>
-      <c r="BM133" s="22">
+      <c r="BM133" s="19">
         <v>-0.4</v>
       </c>
-      <c r="BN133" s="22">
+      <c r="BN133" s="19">
         <v>7.9</v>
       </c>
     </row>
@@ -24494,7 +24492,7 @@
       <c r="AP134">
         <v>66.294899999999998</v>
       </c>
-      <c r="AQ134" s="16">
+      <c r="AQ134" s="14">
         <v>25.423999999999999</v>
       </c>
       <c r="AS134" s="12">
@@ -24514,25 +24512,25 @@
         <v>19.417999999999999</v>
       </c>
       <c r="AX134">
-        <v>7554.0279993038339</v>
+        <v>7554.0279993038303</v>
       </c>
       <c r="AY134">
-        <v>3936.7061084080847</v>
+        <v>3936.7061084080901</v>
       </c>
       <c r="AZ134">
-        <v>1358.9175427085195</v>
+        <v>1358.9175427085199</v>
       </c>
       <c r="BA134">
-        <v>1610.4750459002837</v>
+        <v>1610.4750459002801</v>
       </c>
       <c r="BB134">
-        <v>1949.0003061373709</v>
+        <v>1949.00030613737</v>
       </c>
       <c r="BC134">
-        <v>1482.6721958144917</v>
+        <v>1482.6721958144899</v>
       </c>
       <c r="BD134">
-        <v>181.60119196406654</v>
+        <v>181.601191964067</v>
       </c>
       <c r="BE134" s="11">
         <v>11.8</v>
@@ -24558,10 +24556,10 @@
       <c r="BL134" s="11">
         <v>7.5</v>
       </c>
-      <c r="BM134" s="22">
+      <c r="BM134" s="19">
         <v>5.3</v>
       </c>
-      <c r="BN134" s="22">
+      <c r="BN134" s="19">
         <v>3.6</v>
       </c>
     </row>
@@ -24665,7 +24663,7 @@
       <c r="AP135">
         <v>58.067799999999998</v>
       </c>
-      <c r="AQ135" s="16">
+      <c r="AQ135" s="14">
         <v>25.82</v>
       </c>
       <c r="AS135" s="12">
@@ -24685,25 +24683,25 @@
         <v>20.576000000000001</v>
       </c>
       <c r="AX135">
-        <v>7554.0279993038339</v>
+        <v>7554.0279993038303</v>
       </c>
       <c r="AY135">
-        <v>3936.7061084080847</v>
+        <v>3936.7061084080901</v>
       </c>
       <c r="AZ135">
-        <v>1358.9175427085195</v>
+        <v>1358.9175427085199</v>
       </c>
       <c r="BA135">
-        <v>1610.4750459002837</v>
+        <v>1610.4750459002801</v>
       </c>
       <c r="BB135">
-        <v>1949.0003061373709</v>
+        <v>1949.00030613737</v>
       </c>
       <c r="BC135">
-        <v>1482.6721958144917</v>
+        <v>1482.6721958144899</v>
       </c>
       <c r="BD135">
-        <v>181.60119196406654</v>
+        <v>181.601191964067</v>
       </c>
       <c r="BE135" s="11">
         <v>10.3</v>
@@ -24729,10 +24727,10 @@
       <c r="BL135" s="11">
         <v>6</v>
       </c>
-      <c r="BM135" s="22">
+      <c r="BM135" s="19">
         <v>0.9</v>
       </c>
-      <c r="BN135" s="22">
+      <c r="BN135" s="19">
         <v>-0.7</v>
       </c>
     </row>
@@ -24836,7 +24834,7 @@
       <c r="AP136">
         <v>56.808</v>
       </c>
-      <c r="AQ136" s="16">
+      <c r="AQ136" s="14">
         <v>31.329000000000001</v>
       </c>
       <c r="AS136" s="12">
@@ -24856,25 +24854,25 @@
         <v>25.702999999999999</v>
       </c>
       <c r="AX136">
-        <v>7554.0279993038339</v>
+        <v>7554.0279993038303</v>
       </c>
       <c r="AY136">
-        <v>3936.7061084080847</v>
+        <v>3936.7061084080901</v>
       </c>
       <c r="AZ136">
-        <v>1358.9175427085195</v>
+        <v>1358.9175427085199</v>
       </c>
       <c r="BA136">
-        <v>1610.4750459002837</v>
+        <v>1610.4750459002801</v>
       </c>
       <c r="BB136">
-        <v>1949.0003061373709</v>
+        <v>1949.00030613737</v>
       </c>
       <c r="BC136">
-        <v>1482.6721958144917</v>
+        <v>1482.6721958144899</v>
       </c>
       <c r="BD136">
-        <v>181.60119196406654</v>
+        <v>181.601191964067</v>
       </c>
       <c r="BE136" s="11">
         <v>12.3</v>
@@ -24900,10 +24898,10 @@
       <c r="BL136" s="11">
         <v>7.6</v>
       </c>
-      <c r="BM136" s="22">
+      <c r="BM136" s="19">
         <v>-7.7</v>
       </c>
-      <c r="BN136" s="22">
+      <c r="BN136" s="19">
         <v>6.4</v>
       </c>
     </row>
@@ -25007,7 +25005,7 @@
       <c r="AP137">
         <v>54.719700000000003</v>
       </c>
-      <c r="AQ137" s="16">
+      <c r="AQ137" s="14">
         <v>26.048999999999999</v>
       </c>
       <c r="AS137" s="12">
@@ -25027,25 +25025,25 @@
         <v>25.064</v>
       </c>
       <c r="AX137">
-        <v>7554.349228315762</v>
+        <v>7554.3492283157602</v>
       </c>
       <c r="AY137">
-        <v>4013.8181673749182</v>
+        <v>4013.81816737492</v>
       </c>
       <c r="AZ137">
-        <v>1379.9553033722223</v>
+        <v>1379.95530337222</v>
       </c>
       <c r="BA137">
-        <v>1624.1578785323079</v>
+        <v>1624.15787853231</v>
       </c>
       <c r="BB137">
-        <v>1916.4989405235231</v>
+        <v>1916.4989405235201</v>
       </c>
       <c r="BC137">
-        <v>1562.4038848894161</v>
+        <v>1562.4038848894199</v>
       </c>
       <c r="BD137">
-        <v>182.32282340220718</v>
+        <v>182.32282340220701</v>
       </c>
       <c r="BE137" s="11">
         <v>7.8</v>
@@ -25071,10 +25069,10 @@
       <c r="BL137" s="11">
         <v>1.4</v>
       </c>
-      <c r="BM137" s="22">
+      <c r="BM137" s="19">
         <v>1.3</v>
       </c>
-      <c r="BN137" s="22">
+      <c r="BN137" s="19">
         <v>-0.1</v>
       </c>
     </row>
@@ -25178,7 +25176,7 @@
       <c r="AP138">
         <v>55.9193</v>
       </c>
-      <c r="AQ138" s="16">
+      <c r="AQ138" s="14">
         <v>28.23</v>
       </c>
       <c r="AS138" s="12">
@@ -25198,25 +25196,25 @@
         <v>27.036000000000001</v>
       </c>
       <c r="AX138">
-        <v>7554.349228315762</v>
+        <v>7554.3492283157602</v>
       </c>
       <c r="AY138">
-        <v>4013.8181673749182</v>
+        <v>4013.81816737492</v>
       </c>
       <c r="AZ138">
-        <v>1379.9553033722223</v>
+        <v>1379.95530337222</v>
       </c>
       <c r="BA138">
-        <v>1624.1578785323079</v>
+        <v>1624.15787853231</v>
       </c>
       <c r="BB138">
-        <v>1916.4989405235231</v>
+        <v>1916.4989405235201</v>
       </c>
       <c r="BC138">
-        <v>1562.4038848894161</v>
+        <v>1562.4038848894199</v>
       </c>
       <c r="BD138">
-        <v>182.32282340220718</v>
+        <v>182.32282340220701</v>
       </c>
       <c r="BE138" s="11">
         <v>8.6</v>
@@ -25242,10 +25240,10 @@
       <c r="BL138" s="11">
         <v>1.2</v>
       </c>
-      <c r="BM138" s="22">
+      <c r="BM138" s="19">
         <v>2.2999999999999998</v>
       </c>
-      <c r="BN138" s="22">
+      <c r="BN138" s="19">
         <v>1.7</v>
       </c>
     </row>
@@ -25361,7 +25359,7 @@
       <c r="AP139">
         <v>54.211600000000004</v>
       </c>
-      <c r="AQ139" s="16">
+      <c r="AQ139" s="14">
         <v>29.515000000000001</v>
       </c>
       <c r="AS139" s="12">
@@ -25381,25 +25379,25 @@
         <v>28.92</v>
       </c>
       <c r="AX139">
-        <v>7554.349228315762</v>
+        <v>7554.3492283157602</v>
       </c>
       <c r="AY139">
-        <v>4013.8181673749182</v>
+        <v>4013.81816737492</v>
       </c>
       <c r="AZ139">
-        <v>1379.9553033722223</v>
+        <v>1379.95530337222</v>
       </c>
       <c r="BA139">
-        <v>1624.1578785323079</v>
+        <v>1624.15787853231</v>
       </c>
       <c r="BB139">
-        <v>1916.4989405235231</v>
+        <v>1916.4989405235201</v>
       </c>
       <c r="BC139">
-        <v>1562.4038848894161</v>
+        <v>1562.4038848894199</v>
       </c>
       <c r="BD139">
-        <v>182.32282340220718</v>
+        <v>182.32282340220701</v>
       </c>
       <c r="BE139" s="11">
         <v>8.8000000000000007</v>
@@ -25425,10 +25423,10 @@
       <c r="BL139" s="11">
         <v>-0.8</v>
       </c>
-      <c r="BM139" s="22">
+      <c r="BM139" s="19">
         <v>2.5</v>
       </c>
-      <c r="BN139" s="22">
+      <c r="BN139" s="19">
         <v>2.5</v>
       </c>
     </row>
@@ -25544,7 +25542,7 @@
       <c r="AP140">
         <v>52.3626</v>
       </c>
-      <c r="AQ140" s="16">
+      <c r="AQ140" s="14">
         <v>24.634</v>
       </c>
       <c r="AS140" s="12">
@@ -25564,25 +25562,25 @@
         <v>29.241999999999997</v>
       </c>
       <c r="AX140">
-        <v>7652.934416434794</v>
+        <v>7652.9344164348004</v>
       </c>
       <c r="AY140">
-        <v>4094.888078206804</v>
+        <v>4094.8880782067999</v>
       </c>
       <c r="AZ140">
-        <v>1398.0369536466451</v>
+        <v>1398.0369536466501</v>
       </c>
       <c r="BA140">
-        <v>1634.2250142125924</v>
+        <v>1634.2250142125899</v>
       </c>
       <c r="BB140">
-        <v>1992.5198072997237</v>
+        <v>1992.51980729972</v>
       </c>
       <c r="BC140">
-        <v>1605.5932126363361</v>
+        <v>1605.59321263634</v>
       </c>
       <c r="BD140">
-        <v>138.85777570536538</v>
+        <v>138.85777570536499</v>
       </c>
       <c r="BE140" s="11">
         <v>3.8</v>
@@ -25608,10 +25606,10 @@
       <c r="BL140" s="11">
         <v>-3.9</v>
       </c>
-      <c r="BM140" s="22">
+      <c r="BM140" s="19">
         <v>5.5</v>
       </c>
-      <c r="BN140" s="22">
+      <c r="BN140" s="19">
         <v>-6.8</v>
       </c>
     </row>
@@ -25727,7 +25725,7 @@
       <c r="AP141">
         <v>54.224100000000007</v>
       </c>
-      <c r="AQ141" s="16">
+      <c r="AQ141" s="14">
         <v>29.056000000000001</v>
       </c>
       <c r="AS141" s="12">
@@ -25747,25 +25745,25 @@
         <v>31.847000000000001</v>
       </c>
       <c r="AX141">
-        <v>7652.934416434794</v>
+        <v>7652.9344164348004</v>
       </c>
       <c r="AY141">
-        <v>4094.888078206804</v>
+        <v>4094.8880782067999</v>
       </c>
       <c r="AZ141">
-        <v>1398.0369536466451</v>
+        <v>1398.0369536466501</v>
       </c>
       <c r="BA141">
-        <v>1634.2250142125924</v>
+        <v>1634.2250142125899</v>
       </c>
       <c r="BB141">
-        <v>1992.5198072997237</v>
+        <v>1992.51980729972</v>
       </c>
       <c r="BC141">
-        <v>1605.5932126363361</v>
+        <v>1605.59321263634</v>
       </c>
       <c r="BD141">
-        <v>138.85777570536538</v>
+        <v>138.85777570536499</v>
       </c>
       <c r="BE141" s="11">
         <v>6.7</v>
@@ -25791,10 +25789,10 @@
       <c r="BL141" s="11">
         <v>-1.1000000000000001</v>
       </c>
-      <c r="BM141" s="22">
+      <c r="BM141" s="19">
         <v>-1.7</v>
       </c>
-      <c r="BN141" s="22">
+      <c r="BN141" s="19">
         <v>-3.3</v>
       </c>
     </row>
@@ -25910,7 +25908,7 @@
       <c r="AP142">
         <v>54.401100000000007</v>
       </c>
-      <c r="AQ142" s="16">
+      <c r="AQ142" s="14">
         <v>30.751000000000001</v>
       </c>
       <c r="AS142" s="12">
@@ -25930,25 +25928,25 @@
         <v>27.858000000000001</v>
       </c>
       <c r="AX142">
-        <v>7652.934416434794</v>
+        <v>7652.9344164348004</v>
       </c>
       <c r="AY142">
-        <v>4094.888078206804</v>
+        <v>4094.8880782067999</v>
       </c>
       <c r="AZ142">
-        <v>1398.0369536466451</v>
+        <v>1398.0369536466501</v>
       </c>
       <c r="BA142">
-        <v>1634.2250142125924</v>
+        <v>1634.2250142125899</v>
       </c>
       <c r="BB142">
-        <v>1992.5198072997237</v>
+        <v>1992.51980729972</v>
       </c>
       <c r="BC142">
-        <v>1605.5932126363361</v>
+        <v>1605.59321263634</v>
       </c>
       <c r="BD142">
-        <v>138.85777570536538</v>
+        <v>138.85777570536499</v>
       </c>
       <c r="BE142" s="11">
         <v>10.199999999999999</v>
@@ -25974,10 +25972,10 @@
       <c r="BL142" s="11">
         <v>1.8</v>
       </c>
-      <c r="BM142" s="22">
+      <c r="BM142" s="19">
         <v>2.5</v>
       </c>
-      <c r="BN142" s="22">
+      <c r="BN142" s="19">
         <v>6</v>
       </c>
     </row>
@@ -26093,7 +26091,7 @@
       <c r="AP143">
         <v>62.298973800000006</v>
       </c>
-      <c r="AQ143" s="16">
+      <c r="AQ143" s="14">
         <v>31.573</v>
       </c>
       <c r="AS143" s="12">
@@ -26113,25 +26111,25 @@
         <v>29.225999999999999</v>
       </c>
       <c r="AX143">
-        <v>7838.4854747443787</v>
+        <v>7838.4854747443796</v>
       </c>
       <c r="AY143">
-        <v>4104.1344857921922</v>
+        <v>4104.1344857921904</v>
       </c>
       <c r="AZ143">
-        <v>1413.0807599390562</v>
+        <v>1413.08075993906</v>
       </c>
       <c r="BA143">
-        <v>1649.6861021998882</v>
+        <v>1649.68610219989</v>
       </c>
       <c r="BB143">
-        <v>2116.4252037577994</v>
+        <v>2116.4252037577999</v>
       </c>
       <c r="BC143">
-        <v>1660.802461713324</v>
+        <v>1660.8024617133201</v>
       </c>
       <c r="BD143">
-        <v>215.96138476876695</v>
+        <v>215.961384768767</v>
       </c>
       <c r="BE143" s="11">
         <v>10.1</v>
@@ -26157,10 +26155,10 @@
       <c r="BL143" s="11">
         <v>2.6</v>
       </c>
-      <c r="BM143" s="22">
+      <c r="BM143" s="19">
         <v>1.3</v>
       </c>
-      <c r="BN143" s="22">
+      <c r="BN143" s="19">
         <v>-1.8</v>
       </c>
     </row>
@@ -26276,7 +26274,7 @@
       <c r="AP144">
         <v>61.222630299999999</v>
       </c>
-      <c r="AQ144" s="16">
+      <c r="AQ144" s="14">
         <v>33.472999999999999</v>
       </c>
       <c r="AS144" s="12">
@@ -26296,25 +26294,25 @@
         <v>28.911999999999999</v>
       </c>
       <c r="AX144">
-        <v>7838.4854747443787</v>
+        <v>7838.4854747443796</v>
       </c>
       <c r="AY144">
-        <v>4104.1344857921922</v>
+        <v>4104.1344857921904</v>
       </c>
       <c r="AZ144">
-        <v>1413.0807599390562</v>
+        <v>1413.08075993906</v>
       </c>
       <c r="BA144">
-        <v>1649.6861021998882</v>
+        <v>1649.68610219989</v>
       </c>
       <c r="BB144">
-        <v>2116.4252037577994</v>
+        <v>2116.4252037577999</v>
       </c>
       <c r="BC144">
-        <v>1660.802461713324</v>
+        <v>1660.8024617133201</v>
       </c>
       <c r="BD144">
-        <v>215.96138476876695</v>
+        <v>215.961384768767</v>
       </c>
       <c r="BE144" s="11">
         <v>11.5</v>
@@ -26340,10 +26338,10 @@
       <c r="BL144" s="11">
         <v>5.2</v>
       </c>
-      <c r="BM144" s="22">
+      <c r="BM144" s="19">
         <v>-4.8</v>
       </c>
-      <c r="BN144" s="22">
+      <c r="BN144" s="19">
         <v>1.4</v>
       </c>
     </row>
@@ -26459,7 +26457,7 @@
       <c r="AP145">
         <v>71.995705799999982</v>
       </c>
-      <c r="AQ145" s="16">
+      <c r="AQ145" s="14">
         <v>37.25</v>
       </c>
       <c r="AS145" s="12">
@@ -26479,25 +26477,25 @@
         <v>33.481999999999999</v>
       </c>
       <c r="AX145">
-        <v>7838.4854747443787</v>
+        <v>7838.4854747443796</v>
       </c>
       <c r="AY145">
-        <v>4104.1344857921922</v>
+        <v>4104.1344857921904</v>
       </c>
       <c r="AZ145">
-        <v>1413.0807599390562</v>
+        <v>1413.08075993906</v>
       </c>
       <c r="BA145">
-        <v>1649.6861021998882</v>
+        <v>1649.68610219989</v>
       </c>
       <c r="BB145">
-        <v>2116.4252037577994</v>
+        <v>2116.4252037577999</v>
       </c>
       <c r="BC145">
-        <v>1660.802461713324</v>
+        <v>1660.8024617133201</v>
       </c>
       <c r="BD145">
-        <v>215.96138476876695</v>
+        <v>215.961384768767</v>
       </c>
       <c r="BE145" s="11">
         <v>13.4</v>
@@ -26523,10 +26521,10 @@
       <c r="BL145" s="11">
         <v>5.6</v>
       </c>
-      <c r="BM145" s="22">
+      <c r="BM145" s="19">
         <v>-4.5</v>
       </c>
-      <c r="BN145" s="22">
+      <c r="BN145" s="19">
         <v>6.9</v>
       </c>
     </row>
@@ -26642,7 +26640,7 @@
       <c r="AP146">
         <v>64.836412199999998</v>
       </c>
-      <c r="AQ146" s="16">
+      <c r="AQ146" s="14">
         <v>33.603999999999999</v>
       </c>
       <c r="AS146" s="12">
@@ -26665,22 +26663,22 @@
         <v>8210.4831720045604</v>
       </c>
       <c r="AY146">
-        <v>4144.0339249922181</v>
+        <v>4144.0339249922199</v>
       </c>
       <c r="AZ146">
-        <v>1467.4373737936378</v>
+        <v>1467.4373737936401</v>
       </c>
       <c r="BA146">
-        <v>1716.1933763478021</v>
+        <v>1716.1933763478</v>
       </c>
       <c r="BB146">
-        <v>2298.4723676275912</v>
+        <v>2298.4723676275898</v>
       </c>
       <c r="BC146">
-        <v>1703.862758947532</v>
+        <v>1703.86275894753</v>
       </c>
       <c r="BD146">
-        <v>288.20888819084365</v>
+        <v>288.20888819084399</v>
       </c>
       <c r="BE146" s="11">
         <v>17</v>
@@ -26706,10 +26704,10 @@
       <c r="BL146" s="11">
         <v>12.9</v>
       </c>
-      <c r="BM146" s="22">
+      <c r="BM146" s="19">
         <v>9.1</v>
       </c>
-      <c r="BN146" s="22">
+      <c r="BN146" s="19">
         <v>10.5</v>
       </c>
     </row>
@@ -26825,7 +26823,7 @@
       <c r="AP147">
         <v>58.590410200000008</v>
       </c>
-      <c r="AQ147" s="16">
+      <c r="AQ147" s="14">
         <v>31.297999999999998</v>
       </c>
       <c r="AS147" s="12">
@@ -26848,22 +26846,22 @@
         <v>8210.4831720045604</v>
       </c>
       <c r="AY147">
-        <v>4144.0339249922181</v>
+        <v>4144.0339249922199</v>
       </c>
       <c r="AZ147">
-        <v>1467.4373737936378</v>
+        <v>1467.4373737936401</v>
       </c>
       <c r="BA147">
-        <v>1716.1933763478021</v>
+        <v>1716.1933763478</v>
       </c>
       <c r="BB147">
-        <v>2298.4723676275912</v>
+        <v>2298.4723676275898</v>
       </c>
       <c r="BC147">
-        <v>1703.862758947532</v>
+        <v>1703.86275894753</v>
       </c>
       <c r="BD147">
-        <v>288.20888819084365</v>
+        <v>288.20888819084399</v>
       </c>
       <c r="BE147" s="11">
         <v>12.2</v>
@@ -26889,10 +26887,10 @@
       <c r="BL147" s="11">
         <v>7.8</v>
       </c>
-      <c r="BM147" s="22">
+      <c r="BM147" s="19">
         <v>2.5</v>
       </c>
-      <c r="BN147" s="22">
+      <c r="BN147" s="19">
         <v>-1.5</v>
       </c>
     </row>
@@ -27008,7 +27006,7 @@
       <c r="AP148">
         <v>65.840472000000005</v>
       </c>
-      <c r="AQ148" s="16">
+      <c r="AQ148" s="14">
         <v>36.627000000000002</v>
       </c>
       <c r="AS148" s="12">
@@ -27031,22 +27029,22 @@
         <v>8210.4831720045604</v>
       </c>
       <c r="AY148">
-        <v>4144.0339249922181</v>
+        <v>4144.0339249922199</v>
       </c>
       <c r="AZ148">
-        <v>1467.4373737936378</v>
+        <v>1467.4373737936401</v>
       </c>
       <c r="BA148">
-        <v>1716.1933763478021</v>
+        <v>1716.1933763478</v>
       </c>
       <c r="BB148">
-        <v>2298.4723676275912</v>
+        <v>2298.4723676275898</v>
       </c>
       <c r="BC148">
-        <v>1703.862758947532</v>
+        <v>1703.86275894753</v>
       </c>
       <c r="BD148">
-        <v>288.20888819084365</v>
+        <v>288.20888819084399</v>
       </c>
       <c r="BE148" s="11">
         <v>15</v>
@@ -27072,10 +27070,10 @@
       <c r="BL148" s="11">
         <v>9.3000000000000007</v>
       </c>
-      <c r="BM148" s="22">
+      <c r="BM148" s="19">
         <v>-6.9</v>
       </c>
-      <c r="BN148" s="22">
+      <c r="BN148" s="19">
         <v>8</v>
       </c>
     </row>
@@ -27191,7 +27189,7 @@
       <c r="AP149">
         <v>63.912609600000003</v>
       </c>
-      <c r="AQ149" s="16">
+      <c r="AQ149" s="14">
         <v>35.985999999999997</v>
       </c>
       <c r="AS149" s="12">
@@ -27211,25 +27209,25 @@
         <v>28.375999999999998</v>
       </c>
       <c r="AX149">
-        <v>8534.8856664132272</v>
+        <v>8534.8856664132309</v>
       </c>
       <c r="AY149">
-        <v>4221.2589152715746</v>
+        <v>4221.25891527157</v>
       </c>
       <c r="AZ149">
-        <v>1494.3397343496774</v>
+        <v>1494.3397343496799</v>
       </c>
       <c r="BA149">
-        <v>1764.7180516839442</v>
+        <v>1764.7180516839401</v>
       </c>
       <c r="BB149">
-        <v>2634.9310268609288</v>
+        <v>2634.9310268609302</v>
       </c>
       <c r="BC149">
-        <v>1828.5682211500264</v>
+        <v>1828.56822115003</v>
       </c>
       <c r="BD149">
-        <v>248.20615939712965</v>
+        <v>248.20615939712999</v>
       </c>
       <c r="BE149" s="11">
         <v>15</v>
@@ -27255,10 +27253,10 @@
       <c r="BL149" s="11">
         <v>9.3000000000000007</v>
       </c>
-      <c r="BM149" s="22">
+      <c r="BM149" s="19">
         <v>-10.199999999999999</v>
       </c>
-      <c r="BN149" s="22">
+      <c r="BN149" s="19">
         <v>0.3</v>
       </c>
     </row>
@@ -27374,7 +27372,7 @@
       <c r="AP150">
         <v>60.50468260000001</v>
       </c>
-      <c r="AQ150" s="16">
+      <c r="AQ150" s="14">
         <v>36.502000000000002</v>
       </c>
       <c r="AS150" s="12">
@@ -27394,25 +27392,25 @@
         <v>29.547000000000001</v>
       </c>
       <c r="AX150">
-        <v>8534.8856664132272</v>
+        <v>8534.8856664132309</v>
       </c>
       <c r="AY150">
-        <v>4221.2589152715746</v>
+        <v>4221.25891527157</v>
       </c>
       <c r="AZ150">
-        <v>1494.3397343496774</v>
+        <v>1494.3397343496799</v>
       </c>
       <c r="BA150">
-        <v>1764.7180516839442</v>
+        <v>1764.7180516839401</v>
       </c>
       <c r="BB150">
-        <v>2634.9310268609288</v>
+        <v>2634.9310268609302</v>
       </c>
       <c r="BC150">
-        <v>1828.5682211500264</v>
+        <v>1828.56822115003</v>
       </c>
       <c r="BD150">
-        <v>248.20615939712965</v>
+        <v>248.20615939712999</v>
       </c>
       <c r="BE150" s="11">
         <v>15.2</v>
@@ -27438,10 +27436,10 @@
       <c r="BL150" s="11">
         <v>7.6</v>
       </c>
-      <c r="BM150" s="22">
+      <c r="BM150" s="19">
         <v>-7</v>
       </c>
-      <c r="BN150" s="22">
+      <c r="BN150" s="19">
         <v>-5.5</v>
       </c>
     </row>
@@ -27557,7 +27555,7 @@
       <c r="AP151">
         <v>56.922180000000004</v>
       </c>
-      <c r="AQ151" s="16">
+      <c r="AQ151" s="14">
         <v>36.286000000000001</v>
       </c>
       <c r="AS151" s="12">
@@ -27577,25 +27575,25 @@
         <v>29.885000000000002</v>
       </c>
       <c r="AX151">
-        <v>8534.8856664132272</v>
+        <v>8534.8856664132309</v>
       </c>
       <c r="AY151">
-        <v>4221.2589152715746</v>
+        <v>4221.25891527157</v>
       </c>
       <c r="AZ151">
-        <v>1494.3397343496774</v>
+        <v>1494.3397343496799</v>
       </c>
       <c r="BA151">
-        <v>1764.7180516839442</v>
+        <v>1764.7180516839401</v>
       </c>
       <c r="BB151">
-        <v>2634.9310268609288</v>
+        <v>2634.9310268609302</v>
       </c>
       <c r="BC151">
-        <v>1828.5682211500264</v>
+        <v>1828.56822115003</v>
       </c>
       <c r="BD151">
-        <v>248.20615939712965</v>
+        <v>248.20615939712999</v>
       </c>
       <c r="BE151" s="11">
         <v>15.2</v>
@@ -27621,10 +27619,10 @@
       <c r="BL151" s="11">
         <v>1</v>
       </c>
-      <c r="BM151" s="22">
+      <c r="BM151" s="19">
         <v>1.8</v>
       </c>
-      <c r="BN151" s="22">
+      <c r="BN151" s="19">
         <v>-0.9</v>
       </c>
     </row>
@@ -27740,7 +27738,7 @@
       <c r="AP152">
         <v>55.190180399999996</v>
       </c>
-      <c r="AQ152" s="16">
+      <c r="AQ152" s="14">
         <v>34.345999999999997</v>
       </c>
       <c r="AS152" s="11">
@@ -27760,25 +27758,25 @@
         <v>30.125999999999998</v>
       </c>
       <c r="AX152">
-        <v>8724.4513669185344</v>
+        <v>8724.4513669185399</v>
       </c>
       <c r="AY152">
-        <v>4313.6694868495169</v>
+        <v>4313.6694868495197</v>
       </c>
       <c r="AZ152">
-        <v>1518.2693393516311</v>
+        <v>1518.2693393516299</v>
       </c>
       <c r="BA152">
-        <v>1806.9317098375257</v>
+        <v>1806.93170983753</v>
       </c>
       <c r="BB152">
-        <v>2833.6262823799484</v>
+        <v>2833.6262823799502</v>
       </c>
       <c r="BC152">
-        <v>1781.2561173284812</v>
+        <v>1781.2561173284801</v>
       </c>
       <c r="BD152">
-        <v>33.210665828392543</v>
+        <v>33.2106658283925</v>
       </c>
       <c r="BE152" s="11">
         <v>13.1</v>
@@ -27804,10 +27802,10 @@
       <c r="BL152" s="11">
         <v>8.8000000000000007</v>
       </c>
-      <c r="BM152" s="22">
+      <c r="BM152" s="19">
         <v>-15.1</v>
       </c>
-      <c r="BN152" s="22">
+      <c r="BN152" s="19">
         <v>-6.9</v>
       </c>
     </row>
@@ -27923,7 +27921,7 @@
       <c r="AP153">
         <v>54.278324099999999</v>
       </c>
-      <c r="AQ153" s="16">
+      <c r="AQ153" s="14">
         <v>37.463000000000001</v>
       </c>
       <c r="AS153" s="11">
@@ -27943,25 +27941,25 @@
         <v>31.366</v>
       </c>
       <c r="AX153">
-        <v>8724.4513669185344</v>
+        <v>8724.4513669185399</v>
       </c>
       <c r="AY153">
-        <v>4313.6694868495169</v>
+        <v>4313.6694868495197</v>
       </c>
       <c r="AZ153">
-        <v>1518.2693393516311</v>
+        <v>1518.2693393516299</v>
       </c>
       <c r="BA153">
-        <v>1806.9317098375257</v>
+        <v>1806.93170983753</v>
       </c>
       <c r="BB153">
-        <v>2833.6262823799484</v>
+        <v>2833.6262823799502</v>
       </c>
       <c r="BC153">
-        <v>1781.2561173284812</v>
+        <v>1781.2561173284801</v>
       </c>
       <c r="BD153">
-        <v>33.210665828392543</v>
+        <v>33.2106658283925</v>
       </c>
       <c r="BE153" s="11">
         <v>15.8</v>
@@ -27987,10 +27985,10 @@
       <c r="BL153" s="11">
         <v>7.8</v>
       </c>
-      <c r="BM153" s="22">
+      <c r="BM153" s="19">
         <v>-2.7</v>
       </c>
-      <c r="BN153" s="22">
+      <c r="BN153" s="19">
         <v>2.1</v>
       </c>
     </row>
@@ -28106,7 +28104,7 @@
       <c r="AP154">
         <v>57.284358300000001</v>
       </c>
-      <c r="AQ154" s="16">
+      <c r="AQ154" s="14">
         <v>38.628999999999998</v>
       </c>
       <c r="AS154" s="11">
@@ -28126,25 +28124,25 @@
         <v>27.393000000000001</v>
       </c>
       <c r="AX154">
-        <v>8724.4513669185344</v>
+        <v>8724.4513669185399</v>
       </c>
       <c r="AY154">
-        <v>4313.6694868495169</v>
+        <v>4313.6694868495197</v>
       </c>
       <c r="AZ154">
-        <v>1518.2693393516311</v>
+        <v>1518.2693393516299</v>
       </c>
       <c r="BA154">
-        <v>1806.9317098375257</v>
+        <v>1806.93170983753</v>
       </c>
       <c r="BB154">
-        <v>2833.6262823799484</v>
+        <v>2833.6262823799502</v>
       </c>
       <c r="BC154">
-        <v>1781.2561173284812</v>
+        <v>1781.2561173284801</v>
       </c>
       <c r="BD154">
-        <v>33.210665828392543</v>
+        <v>33.2106658283925</v>
       </c>
       <c r="BE154" s="11">
         <v>18.8</v>
@@ -28170,10 +28168,10 @@
       <c r="BL154" s="11">
         <v>10.9</v>
       </c>
-      <c r="BM154" s="22">
+      <c r="BM154" s="19">
         <v>2.1</v>
       </c>
-      <c r="BN154" s="22">
+      <c r="BN154" s="19">
         <v>13.4</v>
       </c>
     </row>
@@ -28289,7 +28287,7 @@
       <c r="AP155">
         <v>62.859664564200017</v>
       </c>
-      <c r="AQ155" s="16">
+      <c r="AQ155" s="14">
         <v>41.295999999999999</v>
       </c>
       <c r="AS155" s="11">
@@ -28310,25 +28308,25 @@
         <v>29.187999999999999</v>
       </c>
       <c r="AX155">
-        <v>8996.9626058546382</v>
+        <v>8996.9626058546401</v>
       </c>
       <c r="AY155">
-        <v>4388.1015609788383</v>
+        <v>4388.1015609788401</v>
       </c>
       <c r="AZ155">
-        <v>1536.7332635876739</v>
+        <v>1536.7332635876701</v>
       </c>
       <c r="BA155">
-        <v>1763.5165720943517</v>
+        <v>1763.5165720943501</v>
       </c>
       <c r="BB155">
-        <v>2834.8737960838425</v>
+        <v>2834.8737960838398</v>
       </c>
       <c r="BC155">
-        <v>1835.9170648312938</v>
+        <v>1835.91706483129</v>
       </c>
       <c r="BD155">
-        <v>309.65447794122548</v>
+        <v>309.65447794122599</v>
       </c>
       <c r="BE155" s="11">
         <v>19.899999999999999</v>
@@ -28354,10 +28352,10 @@
       <c r="BL155" s="11">
         <v>13.6</v>
       </c>
-      <c r="BM155" s="22">
+      <c r="BM155" s="19">
         <v>-9</v>
       </c>
-      <c r="BN155" s="22">
+      <c r="BN155" s="19">
         <v>2.1</v>
       </c>
     </row>
@@ -28473,7 +28471,7 @@
       <c r="AP156">
         <v>63.242977099899989</v>
       </c>
-      <c r="AQ156" s="16">
+      <c r="AQ156" s="14">
         <v>40.253999999999998</v>
       </c>
       <c r="AS156" s="11">
@@ -28494,25 +28492,25 @@
         <v>28.168999999999997</v>
       </c>
       <c r="AX156">
-        <v>8996.9626058546382</v>
+        <v>8996.9626058546401</v>
       </c>
       <c r="AY156">
-        <v>4388.1015609788383</v>
+        <v>4388.1015609788401</v>
       </c>
       <c r="AZ156">
-        <v>1536.7332635876739</v>
+        <v>1536.7332635876701</v>
       </c>
       <c r="BA156">
-        <v>1763.5165720943517</v>
+        <v>1763.5165720943501</v>
       </c>
       <c r="BB156">
-        <v>2834.8737960838425</v>
+        <v>2834.8737960838398</v>
       </c>
       <c r="BC156">
-        <v>1835.9170648312938</v>
+        <v>1835.91706483129</v>
       </c>
       <c r="BD156">
-        <v>309.65447794122548</v>
+        <v>309.65447794122599</v>
       </c>
       <c r="BE156" s="11">
         <v>19</v>
@@ -28538,10 +28536,10 @@
       <c r="BL156" s="11">
         <v>13.7</v>
       </c>
-      <c r="BM156" s="22">
+      <c r="BM156" s="19">
         <v>-1.3</v>
       </c>
-      <c r="BN156" s="22">
+      <c r="BN156" s="19">
         <v>9.6999999999999993</v>
       </c>
     </row>
@@ -28657,7 +28655,7 @@
       <c r="AP157">
         <v>76.315448147999987</v>
       </c>
-      <c r="AQ157" s="16">
+      <c r="AQ157" s="14">
         <v>40.838000000000001</v>
       </c>
       <c r="AS157" s="11">
@@ -28678,25 +28676,25 @@
         <v>31.408000000000001</v>
       </c>
       <c r="AX157">
-        <v>8996.9626058546382</v>
+        <v>8996.9626058546401</v>
       </c>
       <c r="AY157">
-        <v>4388.1015609788383</v>
+        <v>4388.1015609788401</v>
       </c>
       <c r="AZ157">
-        <v>1536.7332635876739</v>
+        <v>1536.7332635876701</v>
       </c>
       <c r="BA157">
-        <v>1763.5165720943517</v>
+        <v>1763.5165720943501</v>
       </c>
       <c r="BB157">
-        <v>2834.8737960838425</v>
+        <v>2834.8737960838398</v>
       </c>
       <c r="BC157">
-        <v>1835.9170648312938</v>
+        <v>1835.91706483129</v>
       </c>
       <c r="BD157">
-        <v>309.65447794122548</v>
+        <v>309.65447794122599</v>
       </c>
       <c r="BE157" s="11">
         <v>18.2</v>
@@ -28722,10 +28720,10 @@
       <c r="BL157" s="11">
         <v>11.1</v>
       </c>
-      <c r="BM157" s="22">
+      <c r="BM157" s="19">
         <v>0.3</v>
       </c>
-      <c r="BN157" s="22">
+      <c r="BN157" s="19">
         <v>9.3000000000000007</v>
       </c>
     </row>
@@ -28841,7 +28839,7 @@
       <c r="AP158">
         <v>66.457322504999993</v>
       </c>
-      <c r="AQ158" s="16">
+      <c r="AQ158" s="14">
         <v>30.846</v>
       </c>
       <c r="AS158" s="11">
@@ -28861,6 +28859,27 @@
         <f t="shared" si="18"/>
         <v>22.934000000000001</v>
       </c>
+      <c r="AX158">
+        <v>8960.2471903232799</v>
+      </c>
+      <c r="AY158">
+        <v>4445.8118587630397</v>
+      </c>
+      <c r="AZ158">
+        <v>1553.64998242296</v>
+      </c>
+      <c r="BA158">
+        <v>1878.13242261856</v>
+      </c>
+      <c r="BB158">
+        <v>2692.7028485108299</v>
+      </c>
+      <c r="BC158">
+        <v>1920.9806801330101</v>
+      </c>
+      <c r="BD158">
+        <v>310.93075814090702</v>
+      </c>
       <c r="BE158" s="11">
         <v>14.4</v>
       </c>
@@ -28885,10 +28904,10 @@
       <c r="BL158" s="11">
         <v>10.199999999999999</v>
       </c>
-      <c r="BM158" s="22">
+      <c r="BM158" s="19">
         <v>0.3</v>
       </c>
-      <c r="BN158" s="22">
+      <c r="BN158" s="19">
         <v>9</v>
       </c>
     </row>
@@ -29004,7 +29023,7 @@
       <c r="AP159">
         <v>61.344159479400005</v>
       </c>
-      <c r="AQ159" s="16">
+      <c r="AQ159" s="14">
         <v>34.746000000000002</v>
       </c>
       <c r="AS159" s="11">
@@ -29024,6 +29043,27 @@
         <f t="shared" si="18"/>
         <v>24.651000000000003</v>
       </c>
+      <c r="AX159">
+        <v>8960.2471903232799</v>
+      </c>
+      <c r="AY159">
+        <v>4445.8118587630397</v>
+      </c>
+      <c r="AZ159">
+        <v>1553.64998242296</v>
+      </c>
+      <c r="BA159">
+        <v>1878.13242261856</v>
+      </c>
+      <c r="BB159">
+        <v>2692.7028485108299</v>
+      </c>
+      <c r="BC159">
+        <v>1920.9806801330101</v>
+      </c>
+      <c r="BD159">
+        <v>310.93075814090702</v>
+      </c>
       <c r="BE159" s="11">
         <v>16.5</v>
       </c>
@@ -29048,10 +29088,10 @@
       <c r="BL159" s="11">
         <v>12.2</v>
       </c>
-      <c r="BM159" s="22">
+      <c r="BM159" s="19">
         <v>4.0999999999999996</v>
       </c>
-      <c r="BN159" s="22">
+      <c r="BN159" s="19">
         <v>10.4</v>
       </c>
     </row>
@@ -29167,7 +29207,7 @@
       <c r="AP160">
         <v>68.34240993600001</v>
       </c>
-      <c r="AQ160" s="16">
+      <c r="AQ160" s="14">
         <v>37.029000000000003</v>
       </c>
       <c r="AS160" s="11">
@@ -29187,6 +29227,27 @@
         <f t="shared" ref="AW160:AW171" si="42">AU160+AV160</f>
         <v>27.862000000000002</v>
       </c>
+      <c r="AX160">
+        <v>8960.2471903232799</v>
+      </c>
+      <c r="AY160">
+        <v>4445.8118587630397</v>
+      </c>
+      <c r="AZ160">
+        <v>1553.64998242296</v>
+      </c>
+      <c r="BA160">
+        <v>1878.13242261856</v>
+      </c>
+      <c r="BB160">
+        <v>2692.7028485108299</v>
+      </c>
+      <c r="BC160">
+        <v>1920.9806801330101</v>
+      </c>
+      <c r="BD160">
+        <v>310.93075814090702</v>
+      </c>
       <c r="BE160" s="11">
         <v>16.100000000000001</v>
       </c>
@@ -29211,10 +29272,10 @@
       <c r="BL160" s="11">
         <v>11.1</v>
       </c>
-      <c r="BM160" s="22">
+      <c r="BM160" s="19">
         <v>7.5</v>
       </c>
-      <c r="BN160" s="22">
+      <c r="BN160" s="19">
         <v>4.9000000000000004</v>
       </c>
     </row>
@@ -29330,7 +29391,7 @@
       <c r="AP161">
         <v>65.574337449600009</v>
       </c>
-      <c r="AQ161" s="16">
+      <c r="AQ161" s="14">
         <v>36.670999999999999</v>
       </c>
       <c r="AS161" s="11">
@@ -29350,6 +29411,27 @@
         <f t="shared" si="42"/>
         <v>29.765999999999998</v>
       </c>
+      <c r="AX161">
+        <v>9003.9230831713794</v>
+      </c>
+      <c r="AY161">
+        <v>4528.9069826881896</v>
+      </c>
+      <c r="AZ161">
+        <v>1588.69110930639</v>
+      </c>
+      <c r="BA161">
+        <v>1913.6492346297</v>
+      </c>
+      <c r="BB161">
+        <v>2591.2042218521801</v>
+      </c>
+      <c r="BC161">
+        <v>1893.4814145795399</v>
+      </c>
+      <c r="BD161">
+        <v>274.95294927446099</v>
+      </c>
       <c r="BE161" s="11">
         <v>14.6</v>
       </c>
@@ -29374,10 +29456,10 @@
       <c r="BL161" s="11">
         <v>6.6</v>
       </c>
-      <c r="BM161" s="22">
+      <c r="BM161" s="19">
         <v>-4.5</v>
       </c>
-      <c r="BN161" s="22">
+      <c r="BN161" s="19">
         <v>-0.8</v>
       </c>
     </row>
@@ -29484,7 +29566,7 @@
       <c r="AM162">
         <v>65.058300000000003</v>
       </c>
-      <c r="AQ162" s="16">
+      <c r="AQ162" s="14">
         <v>32.387</v>
       </c>
       <c r="AS162" s="11">
@@ -29504,6 +29586,27 @@
         <f t="shared" si="42"/>
         <v>27.789000000000001</v>
       </c>
+      <c r="AX162">
+        <v>9003.9230831713794</v>
+      </c>
+      <c r="AY162">
+        <v>4528.9069826881896</v>
+      </c>
+      <c r="AZ162">
+        <v>1588.69110930639</v>
+      </c>
+      <c r="BA162">
+        <v>1913.6492346297</v>
+      </c>
+      <c r="BB162">
+        <v>2591.2042218521801</v>
+      </c>
+      <c r="BC162">
+        <v>1893.4814145795399</v>
+      </c>
+      <c r="BD162">
+        <v>274.95294927446099</v>
+      </c>
       <c r="BE162" s="11">
         <v>12.5</v>
       </c>
@@ -29528,10 +29631,10 @@
       <c r="BL162" s="11">
         <v>3.6</v>
       </c>
-      <c r="BM162" s="22">
+      <c r="BM162" s="19">
         <v>7.7</v>
       </c>
-      <c r="BN162" s="22">
+      <c r="BN162" s="19">
         <v>7.4</v>
       </c>
     </row>
@@ -29630,16 +29733,19 @@
       <c r="AD163">
         <v>7.5</v>
       </c>
-      <c r="AE163" s="21">
+      <c r="AE163" s="18">
         <v>2.0070000000000001</v>
       </c>
+      <c r="AG163" s="23"/>
+      <c r="AH163" s="23"/>
+      <c r="AI163" s="23"/>
       <c r="AL163">
         <v>1.1299999999999999</v>
       </c>
       <c r="AM163">
         <v>63.075600000000001</v>
       </c>
-      <c r="AQ163" s="16">
+      <c r="AQ163" s="14">
         <v>32.375</v>
       </c>
       <c r="AS163" s="11">
@@ -29659,6 +29765,27 @@
         <f t="shared" si="42"/>
         <v>29.110999999999997</v>
       </c>
+      <c r="AX163">
+        <v>9003.9230831713794</v>
+      </c>
+      <c r="AY163">
+        <v>4528.9069826881896</v>
+      </c>
+      <c r="AZ163">
+        <v>1588.69110930639</v>
+      </c>
+      <c r="BA163">
+        <v>1913.6492346297</v>
+      </c>
+      <c r="BB163">
+        <v>2591.2042218521801</v>
+      </c>
+      <c r="BC163">
+        <v>1893.4814145795399</v>
+      </c>
+      <c r="BD163">
+        <v>274.95294927446099</v>
+      </c>
       <c r="BE163" s="11">
         <v>12.4</v>
       </c>
@@ -29683,10 +29810,10 @@
       <c r="BL163" s="11">
         <v>-0.2</v>
       </c>
-      <c r="BM163" s="22">
+      <c r="BM163" s="19">
         <v>10.5</v>
       </c>
-      <c r="BN163" s="22">
+      <c r="BN163" s="19">
         <v>2</v>
       </c>
     </row>
@@ -29772,6 +29899,12 @@
       <c r="Z164">
         <v>0</v>
       </c>
+      <c r="AA164">
+        <v>3.6447346207188174</v>
+      </c>
+      <c r="AB164">
+        <v>1</v>
+      </c>
       <c r="AC164">
         <f t="shared" ref="AC164:AC173" si="47">AVERAGE(AC161:AC163)</f>
         <v>1.0898161701249609</v>
@@ -29782,13 +29915,16 @@
       <c r="AE164">
         <v>2.0070000000000001</v>
       </c>
+      <c r="AG164" s="23"/>
+      <c r="AH164" s="23"/>
+      <c r="AI164" s="23"/>
       <c r="AL164">
         <v>1.1200000000000001</v>
       </c>
       <c r="AM164">
         <v>63.379100000000001</v>
       </c>
-      <c r="AQ164" s="16">
+      <c r="AQ164" s="14">
         <v>33.445999999999998</v>
       </c>
       <c r="AS164" s="11">
@@ -29808,6 +29944,27 @@
         <f t="shared" si="42"/>
         <v>32.171999999999997</v>
       </c>
+      <c r="AX164">
+        <v>9005.31571630697</v>
+      </c>
+      <c r="AY164">
+        <v>4617.2605194334101</v>
+      </c>
+      <c r="AZ164">
+        <v>1608.81264543917</v>
+      </c>
+      <c r="BA164">
+        <v>1962.2242862590199</v>
+      </c>
+      <c r="BB164">
+        <v>2624.5336535804399</v>
+      </c>
+      <c r="BC164">
+        <v>1855.3514769879</v>
+      </c>
+      <c r="BD164">
+        <v>47.836088582821802</v>
+      </c>
       <c r="BE164" s="11">
         <v>11.1</v>
       </c>
@@ -29832,14 +29989,14 @@
       <c r="BL164" s="11">
         <v>3.6</v>
       </c>
-      <c r="BM164" s="22">
+      <c r="BM164" s="19">
         <v>1.3</v>
       </c>
-      <c r="BN164" s="22">
+      <c r="BN164" s="19">
         <v>-6.9</v>
       </c>
     </row>
-    <row r="165" spans="1:66" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:66" ht="15" x14ac:dyDescent="0.35">
       <c r="A165" s="2">
         <v>43678</v>
       </c>
@@ -29920,6 +30077,12 @@
       </c>
       <c r="Z165">
         <v>0</v>
+      </c>
+      <c r="AA165">
+        <v>3.7028291600052339</v>
+      </c>
+      <c r="AB165">
+        <v>1</v>
       </c>
       <c r="AC165">
         <f t="shared" si="47"/>
@@ -29931,13 +30094,16 @@
       <c r="AE165">
         <v>1.4990000000000001</v>
       </c>
+      <c r="AG165" s="24"/>
+      <c r="AH165" s="23"/>
+      <c r="AI165" s="23"/>
       <c r="AL165">
         <v>1.1100000000000001</v>
       </c>
       <c r="AM165">
         <v>66.489699999999999</v>
       </c>
-      <c r="AQ165" s="16">
+      <c r="AQ165" s="14">
         <v>34.369</v>
       </c>
       <c r="AS165" s="11">
@@ -29957,6 +30123,27 @@
         <f t="shared" si="42"/>
         <v>32.192999999999998</v>
       </c>
+      <c r="AX165">
+        <v>9005.31571630697</v>
+      </c>
+      <c r="AY165">
+        <v>4617.2605194334101</v>
+      </c>
+      <c r="AZ165">
+        <v>1608.81264543917</v>
+      </c>
+      <c r="BA165">
+        <v>1962.2242862590199</v>
+      </c>
+      <c r="BB165">
+        <v>2624.5336535804399</v>
+      </c>
+      <c r="BC165">
+        <v>1855.3514769879</v>
+      </c>
+      <c r="BD165">
+        <v>47.836088582821802</v>
+      </c>
       <c r="BE165" s="11">
         <v>12.4</v>
       </c>
@@ -29981,14 +30168,14 @@
       <c r="BL165" s="11">
         <v>2.1</v>
       </c>
-      <c r="BM165" s="22">
+      <c r="BM165" s="19">
         <v>-5.7</v>
       </c>
-      <c r="BN165" s="22">
+      <c r="BN165" s="19">
         <v>-3.4</v>
       </c>
     </row>
-    <row r="166" spans="1:66" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:66" ht="15" x14ac:dyDescent="0.35">
       <c r="A166" s="2">
         <v>43709</v>
       </c>
@@ -30069,6 +30256,12 @@
       </c>
       <c r="Z166">
         <v>0</v>
+      </c>
+      <c r="AA166">
+        <v>2.9045759101832473</v>
+      </c>
+      <c r="AB166">
+        <v>1</v>
       </c>
       <c r="AC166">
         <f t="shared" si="47"/>
@@ -30080,13 +30273,16 @@
       <c r="AE166">
         <v>1.6879999999999999</v>
       </c>
+      <c r="AG166" s="24"/>
+      <c r="AH166" s="23"/>
+      <c r="AI166" s="23"/>
       <c r="AL166">
         <v>1.1000000000000001</v>
       </c>
       <c r="AM166">
         <v>64.415599999999998</v>
       </c>
-      <c r="AQ166" s="16">
+      <c r="AQ166" s="14">
         <v>35.546999999999997</v>
       </c>
       <c r="AS166" s="11">
@@ -30106,6 +30302,27 @@
         <f t="shared" si="42"/>
         <v>29.510999999999999</v>
       </c>
+      <c r="AX166">
+        <v>9005.31571630697</v>
+      </c>
+      <c r="AY166">
+        <v>4617.2605194334101</v>
+      </c>
+      <c r="AZ166">
+        <v>1608.81264543917</v>
+      </c>
+      <c r="BA166">
+        <v>1962.2242862590199</v>
+      </c>
+      <c r="BB166">
+        <v>2624.5336535804399</v>
+      </c>
+      <c r="BC166">
+        <v>1855.3514769879</v>
+      </c>
+      <c r="BD166">
+        <v>47.836088582821802</v>
+      </c>
       <c r="BE166" s="11">
         <v>14.5</v>
       </c>
@@ -30130,14 +30347,14 @@
       <c r="BL166" s="11">
         <v>5.2</v>
       </c>
-      <c r="BM166" s="22">
+      <c r="BM166" s="19">
         <v>3.5</v>
       </c>
-      <c r="BN166" s="22">
+      <c r="BN166" s="19">
         <v>2.2000000000000002</v>
       </c>
     </row>
-    <row r="167" spans="1:66" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:66" ht="15" x14ac:dyDescent="0.35">
       <c r="A167" s="2">
         <v>43739</v>
       </c>
@@ -30218,6 +30435,12 @@
       </c>
       <c r="Z167">
         <v>0</v>
+      </c>
+      <c r="AA167">
+        <v>3.3300247051198153</v>
+      </c>
+      <c r="AB167">
+        <v>1</v>
       </c>
       <c r="AC167">
         <f t="shared" si="47"/>
@@ -30229,13 +30452,16 @@
       <c r="AE167">
         <v>1.6879999999999999</v>
       </c>
+      <c r="AG167" s="24"/>
+      <c r="AH167" s="23"/>
+      <c r="AI167" s="23"/>
       <c r="AL167">
         <v>1.1000000000000001</v>
       </c>
       <c r="AM167">
         <v>63.873399999999997</v>
       </c>
-      <c r="AQ167" s="16">
+      <c r="AQ167" s="14">
         <v>36.78</v>
       </c>
       <c r="AS167" s="11">
@@ -30255,6 +30481,27 @@
         <f t="shared" si="42"/>
         <v>32.093999999999994</v>
       </c>
+      <c r="AX167">
+        <v>8989.8286632672098</v>
+      </c>
+      <c r="AY167">
+        <v>4530.6597869615498</v>
+      </c>
+      <c r="AZ167">
+        <v>1583.71791238951</v>
+      </c>
+      <c r="BA167">
+        <v>1918.00198116909</v>
+      </c>
+      <c r="BB167">
+        <v>2636.14690798115</v>
+      </c>
+      <c r="BC167">
+        <v>1889.9378572334799</v>
+      </c>
+      <c r="BD167">
+        <v>211.23993199939699</v>
+      </c>
       <c r="BE167" s="11">
         <v>12.9</v>
       </c>
@@ -30279,14 +30526,14 @@
       <c r="BL167" s="11">
         <v>6.1</v>
       </c>
-      <c r="BM167" s="22">
+      <c r="BM167" s="19">
         <v>7.4</v>
       </c>
-      <c r="BN167" s="22">
+      <c r="BN167" s="19">
         <v>8.9</v>
       </c>
     </row>
-    <row r="168" spans="1:66" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:66" ht="15" x14ac:dyDescent="0.35">
       <c r="A168" s="2">
         <v>43770</v>
       </c>
@@ -30367,6 +30614,12 @@
       </c>
       <c r="Z168">
         <v>0</v>
+      </c>
+      <c r="AA168">
+        <v>3.5610790600124527</v>
+      </c>
+      <c r="AB168">
+        <v>1</v>
       </c>
       <c r="AC168">
         <f t="shared" si="47"/>
@@ -30378,13 +30631,16 @@
       <c r="AE168">
         <v>1.774</v>
       </c>
+      <c r="AG168" s="24"/>
+      <c r="AH168" s="24"/>
+      <c r="AI168" s="23"/>
       <c r="AL168">
         <v>1.1000000000000001</v>
       </c>
       <c r="AM168">
         <v>64.081699999999998</v>
       </c>
-      <c r="AQ168" s="16">
+      <c r="AQ168" s="14">
         <v>35.49</v>
       </c>
       <c r="AS168" s="11">
@@ -30404,6 +30660,27 @@
         <f t="shared" si="42"/>
         <v>30.637</v>
       </c>
+      <c r="AX168">
+        <v>8989.8286632672098</v>
+      </c>
+      <c r="AY168">
+        <v>4530.6597869615498</v>
+      </c>
+      <c r="AZ168">
+        <v>1583.71791238951</v>
+      </c>
+      <c r="BA168">
+        <v>1918.00198116909</v>
+      </c>
+      <c r="BB168">
+        <v>2636.14690798115</v>
+      </c>
+      <c r="BC168">
+        <v>1889.9378572334799</v>
+      </c>
+      <c r="BD168">
+        <v>211.23993199939699</v>
+      </c>
       <c r="BE168" s="11">
         <v>12.3</v>
       </c>
@@ -30428,15 +30705,15 @@
       <c r="BL168" s="11">
         <v>4.9000000000000004</v>
       </c>
-      <c r="BM168" s="22">
+      <c r="BM168" s="19">
         <v>-2.1</v>
       </c>
-      <c r="BN168" s="22">
+      <c r="BN168" s="19">
         <v>2.5</v>
       </c>
     </row>
-    <row r="169" spans="1:66" s="11" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A169" s="20">
+    <row r="169" spans="1:66" s="11" customFormat="1" ht="15" x14ac:dyDescent="0.35">
+      <c r="A169" s="17">
         <v>43800</v>
       </c>
       <c r="E169" s="11">
@@ -30516,6 +30793,12 @@
       </c>
       <c r="Z169" s="11">
         <v>0</v>
+      </c>
+      <c r="AA169" s="11">
+        <v>3.1580290667902955</v>
+      </c>
+      <c r="AB169">
+        <v>1</v>
       </c>
       <c r="AC169" s="11">
         <f t="shared" si="47"/>
@@ -30527,6 +30810,9 @@
       <c r="AE169" s="11">
         <v>1.919</v>
       </c>
+      <c r="AG169" s="24"/>
+      <c r="AH169" s="24"/>
+      <c r="AI169" s="23"/>
       <c r="AL169" s="11">
         <v>1.1100000000000001</v>
       </c>
@@ -30553,6 +30839,27 @@
         <f t="shared" si="42"/>
         <v>34.531000000000006</v>
       </c>
+      <c r="AX169" s="11">
+        <v>8989.8286632672098</v>
+      </c>
+      <c r="AY169" s="11">
+        <v>4530.6597869615498</v>
+      </c>
+      <c r="AZ169" s="11">
+        <v>1583.71791238951</v>
+      </c>
+      <c r="BA169" s="11">
+        <v>1918.00198116909</v>
+      </c>
+      <c r="BB169" s="11">
+        <v>2636.14690798115</v>
+      </c>
+      <c r="BC169" s="11">
+        <v>1889.9378572334799</v>
+      </c>
+      <c r="BD169" s="11">
+        <v>211.23993199939699</v>
+      </c>
       <c r="BE169" s="11">
         <v>14.8</v>
       </c>
@@ -30577,14 +30884,14 @@
       <c r="BL169" s="11">
         <v>-0.9</v>
       </c>
-      <c r="BM169" s="22">
+      <c r="BM169" s="12">
         <v>-1.7</v>
       </c>
-      <c r="BN169" s="22">
+      <c r="BN169" s="12">
         <v>-12.5</v>
       </c>
     </row>
-    <row r="170" spans="1:66" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:66" ht="15" x14ac:dyDescent="0.35">
       <c r="A170" s="2">
         <v>43831</v>
       </c>
@@ -30637,6 +30944,12 @@
       <c r="Z170" s="11">
         <v>0</v>
       </c>
+      <c r="AA170">
+        <v>4.9162461391048593</v>
+      </c>
+      <c r="AB170">
+        <v>1</v>
+      </c>
       <c r="AC170" s="11">
         <f t="shared" si="47"/>
         <v>1.0898161701249609</v>
@@ -30647,10 +30960,13 @@
       <c r="AE170" s="11">
         <v>1.5049999999999999</v>
       </c>
+      <c r="AG170" s="24"/>
+      <c r="AH170" s="24"/>
+      <c r="AI170" s="23"/>
       <c r="AM170" s="11">
         <v>63.035899999999998</v>
       </c>
-      <c r="AQ170" s="16">
+      <c r="AQ170" s="14">
         <v>30.033999999999999</v>
       </c>
       <c r="AT170">
@@ -30665,7 +30981,7 @@
         <v>16.96</v>
       </c>
     </row>
-    <row r="171" spans="1:66" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:66" ht="15" x14ac:dyDescent="0.35">
       <c r="A171" s="2">
         <v>43862</v>
       </c>
@@ -30716,6 +31032,12 @@
       </c>
       <c r="Z171" s="11">
         <v>0</v>
+      </c>
+      <c r="AA171">
+        <v>3.1974492057876516</v>
+      </c>
+      <c r="AB171">
+        <v>1</v>
       </c>
       <c r="AC171" s="11">
         <f>AVERAGE(AC168:AC170)</f>
@@ -30727,10 +31049,13 @@
       <c r="AE171" s="11">
         <v>1.163</v>
       </c>
+      <c r="AG171" s="23"/>
+      <c r="AH171" s="24"/>
+      <c r="AI171" s="23"/>
       <c r="AM171" s="11">
         <v>66.990899999999996</v>
       </c>
-      <c r="AQ171" s="16">
+      <c r="AQ171" s="14">
         <v>28.123999999999999</v>
       </c>
       <c r="AT171">
@@ -30797,6 +31122,12 @@
       <c r="Z172" s="11">
         <v>0</v>
       </c>
+      <c r="AA172">
+        <v>1.7148554336989035</v>
+      </c>
+      <c r="AB172">
+        <v>0</v>
+      </c>
       <c r="AC172" s="11">
         <f t="shared" si="47"/>
         <v>1.0898161701249609</v>
@@ -30807,6 +31138,9 @@
       <c r="AE172" s="11">
         <v>0.66800000000000004</v>
       </c>
+      <c r="AG172" s="23"/>
+      <c r="AH172" s="23"/>
+      <c r="AI172" s="23"/>
       <c r="AM172" s="11">
         <v>77.732500000000002</v>
       </c>
@@ -30862,6 +31196,12 @@
       </c>
       <c r="Z173" s="11">
         <v>0</v>
+      </c>
+      <c r="AA173">
+        <v>-77.8</v>
+      </c>
+      <c r="AB173">
+        <v>1</v>
       </c>
       <c r="AC173" s="11">
         <f t="shared" si="47"/>

--- a/data/data_month.xlsx
+++ b/data/data_month.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\DNS\balance_of_payments_model\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96311329-1C4B-457E-9857-F69ECC1A619D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDE45B75-202C-4EAD-B72B-8C4626E91919}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{6C71ADC8-FB5B-46E8-B9BB-33CF015882A6}"/>
   </bookViews>
@@ -718,13 +718,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BFE8DC5-3CF9-4EEA-A486-440F262052B0}">
   <dimension ref="A1:BN173"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AR1" workbookViewId="0">
-      <selection activeCell="AX1" sqref="AX1:BD1"/>
+    <sheetView tabSelected="1" topLeftCell="AW1" zoomScale="104" zoomScaleNormal="104" workbookViewId="0">
+      <selection activeCell="AE170" sqref="AE170"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="9.90625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.26953125" bestFit="1" customWidth="1"/>
     <col min="3" max="5" width="11.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>

--- a/data/data_month.xlsx
+++ b/data/data_month.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\DNS\balance_of_payments_model\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDE45B75-202C-4EAD-B72B-8C4626E91919}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA5D7087-04AB-4F7D-9DFC-372518025D67}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{6C71ADC8-FB5B-46E8-B9BB-33CF015882A6}"/>
   </bookViews>
@@ -718,8 +718,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BFE8DC5-3CF9-4EEA-A486-440F262052B0}">
   <dimension ref="A1:BN173"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AW1" zoomScale="104" zoomScaleNormal="104" workbookViewId="0">
-      <selection activeCell="AE170" sqref="AE170"/>
+    <sheetView tabSelected="1" topLeftCell="P154" zoomScale="104" zoomScaleNormal="104" workbookViewId="0">
+      <selection activeCell="AG163" sqref="AG163"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -29736,7 +29736,6 @@
       <c r="AE163" s="18">
         <v>2.0070000000000001</v>
       </c>
-      <c r="AG163" s="23"/>
       <c r="AH163" s="23"/>
       <c r="AI163" s="23"/>
       <c r="AL163">
@@ -29915,7 +29914,6 @@
       <c r="AE164">
         <v>2.0070000000000001</v>
       </c>
-      <c r="AG164" s="23"/>
       <c r="AH164" s="23"/>
       <c r="AI164" s="23"/>
       <c r="AL164">
